--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Simulation stop time, min</t>
+  </si>
+  <si>
+    <t>EXACT_METHOD</t>
+  </si>
+  <si>
+    <t>HEURISTIC_VERSION_1</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -215,6 +221,9 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +531,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
@@ -547,37 +556,37 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="9" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="9"/>
@@ -665,87 +674,170 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.25</v>
+      </c>
+      <c r="B3">
         <v>0.25</v>
       </c>
-      <c r="E3" t="n">
+      <c r="C3">
+        <v>-0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.6</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.6</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.4</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1.0324393939393939</v>
+      </c>
+      <c r="X3">
+        <v>1.0440121212121212</v>
+      </c>
+      <c r="Y3">
+        <v>2.7272727272727275</v>
+      </c>
+      <c r="Z3">
+        <v>11.2</v>
+      </c>
+      <c r="AA3">
+        <v>11.106816242424236</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>20.0</v>
       </c>
-      <c r="P3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>9.0</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
         <v>5.0</v>
       </c>
-      <c r="S3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.11008571428571429</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1705714285714286</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>24.077484511420653</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11.14714285714286</v>
+      <c r="W4" t="n">
+        <v>0.27276181818181816</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2867509090909091</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.9090909090909092</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11.823863127272721</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -803,41 +895,41 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="13" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="14100" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
-    <sheet name="One route" r:id="rId2" sheetId="3"/>
+    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
+    <sheet name="One route" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$2:$Y$2</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$2:$AA$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$2:$Z$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$2:$AB$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -140,14 +140,13 @@
     <t>EXACT_METHOD</t>
   </si>
   <si>
-    <t>HEURISTIC_VERSION_1</t>
+    <t>Treshold length route</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,57 +191,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,10 +261,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -297,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -332,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -426,21 +428,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -457,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -509,89 +511,91 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="21.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="28" max="28" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="11" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
     </row>
-    <row customHeight="1" ht="48.75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -658,23 +662,26 @@
       <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.25</v>
       </c>
@@ -741,199 +748,118 @@
       <c r="V3">
         <v>5</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>1.0324393939393939</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1.0440121212121212</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2.7272727272727275</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>11.2</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>11.106816242424236</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.27276181818181816</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.2867509090909091</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.9090909090909092</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11.823863127272721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F5" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA2"/>
+  <autoFilter ref="A2:AB2"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="L1:W1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="16.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="14" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="10"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
       <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1000,19 +926,22 @@
       <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="5"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.2</v>
       </c>
@@ -1079,29 +1008,29 @@
       <c r="V3">
         <v>2</v>
       </c>
-      <c r="W3">
+      <c r="X3" s="1">
         <v>0.19700000000000001</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.309</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>11.568199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F4" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y2"/>
+  <autoFilter ref="A2:Z2"/>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:V1"/>
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="X1:Z1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$2:$Z$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$2:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$2:$AB$9</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -141,13 +141,22 @@
   </si>
   <si>
     <t>Treshold length route</t>
+  </si>
+  <si>
+    <t>HEURISTIC_VERSION_1</t>
+  </si>
+  <si>
+    <t>HEURISTIC_VERSION_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -159,6 +168,13 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,6 +243,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -239,6 +258,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W2" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,65 +553,64 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.85546875" hidden="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="21.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" style="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
       <c r="X1" s="12" t="s">
         <v>26</v>
       </c>
@@ -681,7 +702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.25</v>
       </c>
@@ -748,27 +769,490 @@
       <c r="V3">
         <v>5</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="13">
         <v>1.0324393939393939</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="14">
         <v>1.0440121212121212</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="15">
         <v>2.7272727272727275</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="15">
         <v>11.2</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="15">
         <v>11.106816242424236</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F5" s="8"/>
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-0.25</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>-0.25</v>
+      </c>
+      <c r="D4">
+        <v>0.25</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
+      </c>
+      <c r="I4">
+        <v>0.4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4" s="13">
+        <v>0.27875818181818179</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0.29505818181818183</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>10.6</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>11.691497963636358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.25</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>-0.25</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5" s="13">
+        <v>9.0427272727272731E-2</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0.10485272727272725</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>10.6</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>11.657690290909084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.25</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>-0.25</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6" s="13">
+        <v>4.5200000000000004E-2</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>6.1380000000000004E-2</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>12.278333333333325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-0.25</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>-0.25</v>
+      </c>
+      <c r="D7">
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <v>0.4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>7.6789473684210519E-2</v>
+      </c>
+      <c r="Y7">
+        <v>0.13589473684210529</v>
+      </c>
+      <c r="Z7" s="20">
+        <v>42.125382262996943</v>
+      </c>
+      <c r="AA7">
+        <v>38</v>
+      </c>
+      <c r="AB7">
+        <v>6.3464912280701773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+      <c r="I8">
+        <v>0.4</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+      <c r="L8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+      <c r="L9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.6</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+      <c r="I10">
+        <v>0.4</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <v>0.4</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB2"/>
+  <autoFilter ref="A2:AB9">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:I1"/>
@@ -811,7 +1295,7 @@
     <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="16.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -820,42 +1304,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -246,6 +246,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -258,8 +259,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W2" sqref="W1:W1048576"/>
+      <selection activeCell="AB13" sqref="A7:AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,48 +568,48 @@
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="21.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="22.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" style="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="20.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="17.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
       <c r="X1" s="12" t="s">
         <v>26</v>
       </c>
@@ -1044,18 +1043,6 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-0.25</v>
-      </c>
-      <c r="B7">
-        <v>0.25</v>
-      </c>
-      <c r="C7">
-        <v>-0.25</v>
-      </c>
-      <c r="D7">
-        <v>0.25</v>
-      </c>
       <c r="E7">
         <v>0.6</v>
       </c>
@@ -1077,57 +1064,17 @@
       <c r="K7">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>20</v>
-      </c>
+      <c r="L7"/>
       <c r="P7">
         <v>7</v>
       </c>
       <c r="Q7">
         <v>11</v>
       </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>5</v>
-      </c>
-      <c r="X7">
-        <v>7.6789473684210519E-2</v>
-      </c>
-      <c r="Y7">
-        <v>0.13589473684210529</v>
-      </c>
-      <c r="Z7" s="20">
-        <v>42.125382262996943</v>
-      </c>
-      <c r="AA7">
-        <v>38</v>
-      </c>
-      <c r="AB7">
-        <v>6.3464912280701773</v>
-      </c>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E8">
@@ -1154,7 +1101,6 @@
       <c r="L8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8" s="20"/>
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
@@ -1183,7 +1129,6 @@
       <c r="L9"/>
       <c r="X9"/>
       <c r="Y9"/>
-      <c r="Z9" s="20"/>
       <c r="AA9"/>
       <c r="AB9"/>
     </row>
@@ -1212,7 +1157,6 @@
       <c r="L10"/>
       <c r="X10"/>
       <c r="Y10"/>
-      <c r="Z10" s="20"/>
       <c r="AA10"/>
       <c r="AB10"/>
     </row>
@@ -1241,9 +1185,43 @@
       <c r="L11"/>
       <c r="X11"/>
       <c r="Y11"/>
-      <c r="Z11" s="20"/>
       <c r="AA11"/>
       <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.6</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.6</v>
+      </c>
+      <c r="I12">
+        <v>0.4</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>18</v>
+      </c>
+      <c r="L12"/>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AB9">
@@ -1304,42 +1282,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView windowHeight="14100" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="One route" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
+    <sheet name="One route" r:id="rId2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$2:$Z$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$2:$AB$9</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$2:$Z$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$2:$AB$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -137,13 +137,7 @@
     <t>Simulation stop time, min</t>
   </si>
   <si>
-    <t>EXACT_METHOD</t>
-  </si>
-  <si>
     <t>Treshold length route</t>
-  </si>
-  <si>
-    <t>HEURISTIC_VERSION_1</t>
   </si>
   <si>
     <t>HEURISTIC_VERSION_2</t>
@@ -207,64 +201,64 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -281,10 +275,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -319,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -354,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -448,21 +442,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -479,7 +473,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -531,54 +525,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB13" sqref="A7:AB13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="21.28515625" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" hidden="true" width="12.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="12" width="21.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="13" width="22.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="15.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="14" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="14" width="17.5703125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -610,12 +604,12 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="16" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48.75" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -683,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>27</v>
@@ -701,530 +695,94 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-0.25</v>
-      </c>
-      <c r="B3">
-        <v>0.25</v>
-      </c>
-      <c r="C3">
-        <v>-0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="1">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.6</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.1</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.6</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.4</v>
       </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
+      <c r="J3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
       </c>
       <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>20</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>9</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>5</v>
-      </c>
-      <c r="X3" s="13">
-        <v>1.0324393939393939</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>1.0440121212121212</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>2.7272727272727275</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>11.2</v>
-      </c>
-      <c r="AB3" s="15">
-        <v>11.106816242424236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-0.25</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-      <c r="C4">
-        <v>-0.25</v>
-      </c>
-      <c r="D4">
-        <v>0.25</v>
-      </c>
-      <c r="E4">
-        <v>0.6</v>
-      </c>
-      <c r="F4">
-        <v>0.3</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <v>0.6</v>
-      </c>
-      <c r="I4">
-        <v>0.4</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>20</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>9</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
-      <c r="X4" s="13">
-        <v>0.27875818181818179</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>0.29505818181818183</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>10.6</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>11.691497963636358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-0.25</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
-      </c>
-      <c r="C5">
-        <v>-0.25</v>
-      </c>
-      <c r="D5">
-        <v>0.25</v>
-      </c>
-      <c r="E5">
-        <v>0.6</v>
-      </c>
-      <c r="F5">
-        <v>0.3</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>0.6</v>
-      </c>
-      <c r="I5">
-        <v>0.4</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>20</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>9</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>5</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
-      <c r="X5" s="13">
-        <v>9.0427272727272731E-2</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>0.10485272727272725</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>10.6</v>
-      </c>
-      <c r="AB5" s="15">
-        <v>11.657690290909084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-0.25</v>
-      </c>
-      <c r="B6">
-        <v>0.25</v>
-      </c>
-      <c r="C6">
-        <v>-0.25</v>
-      </c>
-      <c r="D6">
-        <v>0.25</v>
-      </c>
-      <c r="E6">
-        <v>0.6</v>
-      </c>
-      <c r="F6">
-        <v>0.3</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>0.6</v>
-      </c>
-      <c r="I6">
-        <v>0.4</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>20</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
-      <c r="X6" s="13">
-        <v>4.5200000000000004E-2</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>6.1380000000000004E-2</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>12.278333333333325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>0.6</v>
-      </c>
-      <c r="I7">
-        <v>0.4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>18</v>
-      </c>
-      <c r="L7"/>
-      <c r="P7">
-        <v>7</v>
-      </c>
-      <c r="Q7">
-        <v>11</v>
-      </c>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <v>0.6</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <v>0.6</v>
-      </c>
-      <c r="I8">
-        <v>0.4</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>18</v>
-      </c>
-      <c r="L8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <v>0.6</v>
-      </c>
-      <c r="F9">
-        <v>0.3</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>0.6</v>
-      </c>
-      <c r="I9">
-        <v>0.4</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>18</v>
-      </c>
-      <c r="L9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <v>0.6</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10">
-        <v>0.6</v>
-      </c>
-      <c r="I10">
-        <v>0.4</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>18</v>
-      </c>
-      <c r="L10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E11">
-        <v>0.6</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>0.6</v>
-      </c>
-      <c r="I11">
-        <v>0.4</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>18</v>
-      </c>
-      <c r="L11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <v>0.6</v>
-      </c>
-      <c r="I12">
-        <v>0.4</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>18</v>
-      </c>
-      <c r="L12"/>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
+      <c r="N3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.7760471610845295</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.7875765970072237</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>50.275881409689255</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12.58442889158457</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB9">
+  <autoFilter ref="A2:AB2">
     <filterColumn colId="17">
       <filters>
         <filter val="5"/>
@@ -1237,14 +795,14 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:W1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
@@ -1252,36 +810,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="16.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +879,7 @@
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
     </row>
-    <row r="2" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.5" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +947,7 @@
         <v>22</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>27</v>
@@ -1492,7 +1050,7 @@
     <mergeCell ref="L1:V1"/>
     <mergeCell ref="X1:Z1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -167,8 +167,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -237,7 +237,6 @@
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -253,6 +252,14 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -534,10 +541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,47 +573,48 @@
     <col min="23" max="23" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="12" width="21.28515625" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="13" width="22.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="15.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="23" width="15.0" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" style="14" width="20.7109375" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" style="14" width="17.5703125" collapsed="true"/>
     <col min="29" max="29" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="16" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="Z1" s="20"/>
       <c r="AC1" s="9"/>
     </row>
     <row customHeight="1" ht="48.75" r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -685,7 +693,7 @@
       <c r="Y2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="AA2" s="3" t="s">
@@ -695,39 +703,39 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F3" t="n">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
         <v>0.3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>0.6</v>
+      </c>
+      <c r="I3">
         <v>0.4</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18.0</v>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
       </c>
       <c r="L3" t="s">
         <v>38</v>
@@ -735,50 +743,738 @@
       <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>15</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>0.77604716108452954</v>
+      </c>
+      <c r="Y3">
+        <v>0.78757659700722371</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>50.275881409689255</v>
+      </c>
+      <c r="AA3">
+        <v>19.8</v>
+      </c>
+      <c r="AB3">
+        <v>12.584428891584571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.3</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>0.6</v>
+      </c>
+      <c r="I4">
+        <v>0.4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>11</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>15</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>0.82238609478548574</v>
+      </c>
+      <c r="Y4">
+        <v>0.83516394022495855</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>50.2713468605724</v>
+      </c>
+      <c r="AA4">
+        <v>19.333333333333332</v>
+      </c>
+      <c r="AB4">
+        <v>12.81881648931792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>15</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>0.82833611420954667</v>
+      </c>
+      <c r="Y5">
+        <v>0.83834166155947609</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>50.273700019262975</v>
+      </c>
+      <c r="AA5">
+        <v>20.866666666666667</v>
+      </c>
+      <c r="AB5">
+        <v>11.918922905174659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>15</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>0.93763379802001523</v>
+      </c>
+      <c r="Y6">
+        <v>0.94911775611827787</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>50.251089336635488</v>
+      </c>
+      <c r="AA6">
+        <v>23.266666666666666</v>
+      </c>
+      <c r="AB6">
+        <v>10.761223454400172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-0.4</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <v>0.4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>15</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>1.1077126436262759</v>
+      </c>
+      <c r="Y7">
+        <v>1.1199387052389929</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>50.244496220999032</v>
+      </c>
+      <c r="AA7">
+        <v>26.066666666666666</v>
+      </c>
+      <c r="AB7">
+        <v>9.4921988622969256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>0.6</v>
+      </c>
+      <c r="I8">
+        <v>0.4</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>15</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>1.3120421615237783</v>
+      </c>
+      <c r="Y8">
+        <v>1.325725838687192</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>50.244748743535652</v>
+      </c>
+      <c r="AA8">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="AB8">
+        <v>8.5707766304504727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-0.6</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>1.5423999355250693</v>
+      </c>
+      <c r="Y9">
+        <v>1.5550176510251446</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>50.239730735317188</v>
+      </c>
+      <c r="AA9">
+        <v>29.933333333333334</v>
+      </c>
+      <c r="AB9">
+        <v>8.1344702754030624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-0.7</v>
+      </c>
+      <c r="D10">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.6</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+      <c r="I10">
+        <v>0.4</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>15</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>1.9824286812481102</v>
+      </c>
+      <c r="Y10">
+        <v>1.9975900634567298</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>50.233141709192338</v>
+      </c>
+      <c r="AA10">
+        <v>30.4</v>
+      </c>
+      <c r="AB10">
+        <v>8.0618021877846378</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.7999999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O11" t="n">
         <v>20.0</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P11" t="n">
         <v>7.0</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q11" t="n">
         <v>11.0</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R11" t="n">
         <v>5.0</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S11" t="n">
         <v>1.0</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T11" t="n">
         <v>3.0</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U11" t="n">
         <v>3.0</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V11" t="n">
         <v>15.0</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W11" t="n">
         <v>5.0</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.7760471610845295</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.7875765970072237</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>50.275881409689255</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12.58442889158457</v>
+      <c r="X11" t="n">
+        <v>2.8406041926214316</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.8561671353973557</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>50.23138280802987</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>30.533333333333335</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.036007815254612</v>
       </c>
     </row>
   </sheetData>
@@ -795,6 +1491,18 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:W1"/>
   </mergeCells>
+  <conditionalFormatting sqref="Z3:Z1048576">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
@@ -840,42 +1548,42 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="14100" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
-    <sheet name="One route" r:id="rId2" sheetId="3"/>
+    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
+    <sheet name="One route" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$2:$Z$2</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$2:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$2:$Z$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$2:$AB$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -201,71 +201,71 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -282,10 +282,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -320,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -355,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -449,21 +449,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -480,7 +480,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -532,92 +532,92 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" hidden="true" width="12.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="12" width="21.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="13" width="22.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="23" width="15.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="14" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="14" width="17.5703125" collapsed="true"/>
-    <col min="29" max="29" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.28515625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
       <c r="X1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="20"/>
+      <c r="Z1" s="16"/>
       <c r="AC1" s="9"/>
     </row>
-    <row customHeight="1" ht="48.75" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="Y2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="17" t="s">
         <v>29</v>
       </c>
       <c r="AA2" s="3" t="s">
@@ -779,7 +779,7 @@
       <c r="Y3">
         <v>0.78757659700722371</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="18">
         <v>50.275881409689255</v>
       </c>
       <c r="AA3">
@@ -865,7 +865,7 @@
       <c r="Y4">
         <v>0.83516394022495855</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="18">
         <v>50.2713468605724</v>
       </c>
       <c r="AA4">
@@ -951,7 +951,7 @@
       <c r="Y5">
         <v>0.83834166155947609</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="18">
         <v>50.273700019262975</v>
       </c>
       <c r="AA5">
@@ -1037,7 +1037,7 @@
       <c r="Y6">
         <v>0.94911775611827787</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="18">
         <v>50.251089336635488</v>
       </c>
       <c r="AA6">
@@ -1123,7 +1123,7 @@
       <c r="Y7">
         <v>1.1199387052389929</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="18">
         <v>50.244496220999032</v>
       </c>
       <c r="AA7">
@@ -1209,7 +1209,7 @@
       <c r="Y8">
         <v>1.325725838687192</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="18">
         <v>50.244748743535652</v>
       </c>
       <c r="AA8">
@@ -1295,7 +1295,7 @@
       <c r="Y9">
         <v>1.5550176510251446</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="18">
         <v>50.239730735317188</v>
       </c>
       <c r="AA9">
@@ -1381,7 +1381,7 @@
       <c r="Y10">
         <v>1.9975900634567298</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="18">
         <v>50.233141709192338</v>
       </c>
       <c r="AA10">
@@ -1391,39 +1391,39 @@
         <v>8.0618021877846378</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.7999999999999999</v>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-0.79999999999999993</v>
+      </c>
+      <c r="D11">
         <v>0.20000000000000007</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
         <v>0.3</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
         <v>0.4</v>
       </c>
-      <c r="J11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>18.0</v>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -1431,50 +1431,308 @@
       <c r="M11" t="s">
         <v>34</v>
       </c>
-      <c r="N11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>15</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
         <v>2.8406041926214316</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>2.8561671353973557</v>
       </c>
-      <c r="Z11" t="n">
-        <v>50.23138280802987</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="Z11">
+        <v>50.231382808029871</v>
+      </c>
+      <c r="AA11">
         <v>30.533333333333335</v>
       </c>
-      <c r="AB11" t="n">
-        <v>8.036007815254612</v>
+      <c r="AB11">
+        <v>8.0360078152546119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="D12">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="E12">
+        <v>0.6</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.6</v>
+      </c>
+      <c r="I12">
+        <v>0.4</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>3.8678629146118579</v>
+      </c>
+      <c r="Y12">
+        <v>3.8918107891778635</v>
+      </c>
+      <c r="Z12">
+        <v>50.231950857711084</v>
+      </c>
+      <c r="AA12">
+        <v>28.733333333333334</v>
+      </c>
+      <c r="AB12">
+        <v>8.5134273967478027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+      <c r="I13">
+        <v>0.4</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>4.3783958109319006</v>
+      </c>
+      <c r="Y13">
+        <v>4.401511680514826</v>
+      </c>
+      <c r="Z13">
+        <v>50.242622762003911</v>
+      </c>
+      <c r="AA13">
+        <v>31.333333333333332</v>
+      </c>
+      <c r="AB13">
+        <v>7.7750928836836097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <v>0.4</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>0.7990273316982297</v>
+      </c>
+      <c r="Y14">
+        <v>0.80891343188631126</v>
+      </c>
+      <c r="Z14">
+        <v>50.275755849011354</v>
+      </c>
+      <c r="AA14">
+        <v>20.066666666666666</v>
+      </c>
+      <c r="AB14">
+        <v>12.343588938923956</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1750,7 @@
     <mergeCell ref="L1:W1"/>
   </mergeCells>
   <conditionalFormatting sqref="Z3:Z1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1503,14 +1761,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
@@ -1518,76 +1776,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="16.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
     </row>
-    <row customHeight="1" ht="40.5" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1758,7 +2016,7 @@
     <mergeCell ref="L1:V1"/>
     <mergeCell ref="X1:Z1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -1510,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
@@ -1749,6 +1749,1846 @@
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F4" s="8"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>605.876</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>605.876</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>546.357</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>546.357</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>546.357</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>605.876</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>593.781</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>594.449</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>593.781</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>593.781</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>593.781</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>546.357</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>593.781</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>601.562</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>601.562</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>601.562</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>601.562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>601.562</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>554.138</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>546.357</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>546.357</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>546.357</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>546.357</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:Z2"/>
   <mergeCells count="5">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28215" windowHeight="13215"/>
+    <workbookView windowHeight="13215" windowWidth="28215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="One route" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
+    <sheet name="One route" r:id="rId2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$2:$X$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$2:$AB$297</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$2:$X$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$2:$AB$297</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="42">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -210,73 +210,73 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -312,11 +312,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -352,7 +352,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1261,7 +1261,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1273,11 +1273,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1308,7 +1308,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1332,11 +1332,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1371,7 +1371,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1394,7 +1394,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1957,7 +1957,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1996,10 +1996,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2034,7 +2034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2069,7 +2069,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2163,21 +2163,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2194,7 +2194,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2246,53 +2246,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Y299" sqref="Y299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="21.28515625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" hidden="true" width="12.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="12" width="21.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="13" width="22.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="19" width="15.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="14" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="14" width="17.5703125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="Z1" s="16"/>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48.75" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>10.908975454874838</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>0</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>8.884604550354565</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>0</v>
       </c>
@@ -27228,7 +27228,7 @@
     <mergeCell ref="L1:W1"/>
   </mergeCells>
   <conditionalFormatting sqref="Z292:Z1048576 Z248:Z249 Z3:Z193 Z195:Z197 Z199:Z200 Z202 Z204:Z221 Z223:Z245 Z251 Z253:Z266 Z268:Z288">
-    <cfRule type="colorScale" priority="23">
+    <cfRule priority="23" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27240,7 +27240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z292:Z1048576 Z248:Z249 Z3:Z202 Z204:Z221 Z223:Z245 Z251 Z253:Z266 Z268:Z288">
-    <cfRule type="colorScale" priority="33">
+    <cfRule priority="33" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27252,7 +27252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z292:Z1048576 Z3:Z246 Z248:Z249 Z251 Z253:Z266 Z268:Z288">
-    <cfRule type="colorScale" priority="40">
+    <cfRule priority="40" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27264,7 +27264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z288">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27275,15 +27275,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z296"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA336"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="X296" sqref="X11:X296"/>
@@ -27291,35 +27291,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" hidden="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -27357,7 +27357,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="57" r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -49053,6 +49053,2759 @@
       </c>
       <c r="X296">
         <v>551.88900000000001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L297" t="s">
+        <v>41</v>
+      </c>
+      <c r="M297" t="s">
+        <v>34</v>
+      </c>
+      <c r="N297" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O297" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R297" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S297" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T297" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W297" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X297" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>544.965</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L298" t="s">
+        <v>41</v>
+      </c>
+      <c r="M298" t="s">
+        <v>34</v>
+      </c>
+      <c r="N298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O298" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R298" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T298" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W298" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X298" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>544.965</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L299" t="s">
+        <v>41</v>
+      </c>
+      <c r="M299" t="s">
+        <v>34</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O299" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R299" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S299" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T299" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W299" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X299" t="n">
+        <v>1.217</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>544.965</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L300" t="s">
+        <v>41</v>
+      </c>
+      <c r="M300" t="s">
+        <v>34</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O300" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R300" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S300" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T300" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W300" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X300" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>1.603</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>544.965</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C301" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L301" t="s">
+        <v>41</v>
+      </c>
+      <c r="M301" t="s">
+        <v>34</v>
+      </c>
+      <c r="N301" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R301" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S301" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T301" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W301" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X301" t="n">
+        <v>2.508</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>544.679</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C302" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L302" t="s">
+        <v>41</v>
+      </c>
+      <c r="M302" t="s">
+        <v>34</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R302" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T302" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W302" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X302" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>1.472</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>544.577</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L303" t="s">
+        <v>41</v>
+      </c>
+      <c r="M303" t="s">
+        <v>34</v>
+      </c>
+      <c r="N303" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O303" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R303" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S303" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T303" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="W303" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X303" t="n">
+        <v>31.834</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>32.025</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>542.823</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L304" t="s">
+        <v>41</v>
+      </c>
+      <c r="M304" t="s">
+        <v>34</v>
+      </c>
+      <c r="N304" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R304" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S304" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T304" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W304" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X304" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>544.679</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L305" t="s">
+        <v>41</v>
+      </c>
+      <c r="M305" t="s">
+        <v>34</v>
+      </c>
+      <c r="N305" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O305" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R305" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S305" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T305" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W305" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.614</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>2.708</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>544.679</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C306" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L306" t="s">
+        <v>41</v>
+      </c>
+      <c r="M306" t="s">
+        <v>34</v>
+      </c>
+      <c r="N306" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O306" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R306" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S306" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T306" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W306" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X306" t="n">
+        <v>4.022</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>544.679</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C307" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L307" t="s">
+        <v>41</v>
+      </c>
+      <c r="M307" t="s">
+        <v>34</v>
+      </c>
+      <c r="N307" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O307" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R307" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S307" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T307" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W307" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X307" t="n">
+        <v>1.491</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>543.81</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C308" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L308" t="s">
+        <v>41</v>
+      </c>
+      <c r="M308" t="s">
+        <v>34</v>
+      </c>
+      <c r="N308" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O308" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R308" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S308" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T308" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W308" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X308" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>544.679</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C309" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L309" t="s">
+        <v>41</v>
+      </c>
+      <c r="M309" t="s">
+        <v>34</v>
+      </c>
+      <c r="N309" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O309" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R309" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S309" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T309" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W309" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X309" t="n">
+        <v>3.968</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>542.708</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C310" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L310" t="s">
+        <v>41</v>
+      </c>
+      <c r="M310" t="s">
+        <v>34</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O310" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R310" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S310" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T310" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W310" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X310" t="n">
+        <v>5.516</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>5.626</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>542.823</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C311" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J311" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L311" t="s">
+        <v>37</v>
+      </c>
+      <c r="M311" t="s">
+        <v>34</v>
+      </c>
+      <c r="N311" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O311" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R311" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S311" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T311" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U311" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W311" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X311" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J312" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L312" t="s">
+        <v>37</v>
+      </c>
+      <c r="M312" t="s">
+        <v>34</v>
+      </c>
+      <c r="N312" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O312" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R312" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S312" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T312" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U312" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W312" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>543.337</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C313" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J313" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L313" t="s">
+        <v>37</v>
+      </c>
+      <c r="M313" t="s">
+        <v>34</v>
+      </c>
+      <c r="N313" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O313" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P313" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R313" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S313" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T313" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U313" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W313" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X313" t="n">
+        <v>3.531</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>3.609</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C314" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J314" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L314" t="s">
+        <v>37</v>
+      </c>
+      <c r="M314" t="s">
+        <v>34</v>
+      </c>
+      <c r="N314" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O314" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P314" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R314" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S314" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T314" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U314" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W314" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X314" t="n">
+        <v>3.498</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>3.561</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>543.622</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C315" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J315" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L315" t="s">
+        <v>37</v>
+      </c>
+      <c r="M315" t="s">
+        <v>34</v>
+      </c>
+      <c r="N315" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O315" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P315" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R315" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S315" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T315" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U315" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W315" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X315" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>543.258</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C316" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J316" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L316" t="s">
+        <v>37</v>
+      </c>
+      <c r="M316" t="s">
+        <v>34</v>
+      </c>
+      <c r="N316" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O316" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P316" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R316" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S316" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T316" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U316" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W316" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X316" t="n">
+        <v>6.878</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>6.971</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C317" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J317" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L317" t="s">
+        <v>37</v>
+      </c>
+      <c r="M317" t="s">
+        <v>34</v>
+      </c>
+      <c r="N317" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O317" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P317" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R317" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S317" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T317" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U317" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W317" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X317" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>543.436</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C318" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J318" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L318" t="s">
+        <v>37</v>
+      </c>
+      <c r="M318" t="s">
+        <v>34</v>
+      </c>
+      <c r="N318" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O318" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R318" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S318" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T318" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U318" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W318" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X318" t="n">
+        <v>6.859</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>6.937</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>543.242</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C319" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J319" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L319" t="s">
+        <v>37</v>
+      </c>
+      <c r="M319" t="s">
+        <v>34</v>
+      </c>
+      <c r="N319" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O319" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R319" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S319" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T319" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U319" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W319" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X319" t="n">
+        <v>9.799</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>543.258</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C320" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J320" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L320" t="s">
+        <v>37</v>
+      </c>
+      <c r="M320" t="s">
+        <v>34</v>
+      </c>
+      <c r="N320" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O320" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R320" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S320" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T320" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U320" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W320" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X320" t="n">
+        <v>15.217</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>15.375</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>543.258</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C321" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J321" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L321" t="s">
+        <v>37</v>
+      </c>
+      <c r="M321" t="s">
+        <v>34</v>
+      </c>
+      <c r="N321" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O321" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P321" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R321" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S321" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T321" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U321" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W321" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X321" t="n">
+        <v>6.856</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>6.937</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>543.258</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C322" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J322" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L322" t="s">
+        <v>37</v>
+      </c>
+      <c r="M322" t="s">
+        <v>34</v>
+      </c>
+      <c r="N322" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O322" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R322" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S322" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T322" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U322" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W322" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X322" t="n">
+        <v>14.972</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>15.124</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>543.258</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C323" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J323" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L323" t="s">
+        <v>37</v>
+      </c>
+      <c r="M323" t="s">
+        <v>34</v>
+      </c>
+      <c r="N323" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O323" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R323" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S323" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T323" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U323" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W323" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X323" t="n">
+        <v>9.613</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>9.707</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>543.258</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C324" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L324" t="s">
+        <v>41</v>
+      </c>
+      <c r="M324" t="s">
+        <v>34</v>
+      </c>
+      <c r="N324" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O324" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R324" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S324" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T324" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W324" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X324" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>4.389</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>543.261</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C325" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L325" t="s">
+        <v>41</v>
+      </c>
+      <c r="M325" t="s">
+        <v>34</v>
+      </c>
+      <c r="N325" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O325" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R325" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S325" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T325" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W325" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X325" t="n">
+        <v>5.521</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>5.599</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>542.823</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C326" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L326" t="s">
+        <v>41</v>
+      </c>
+      <c r="M326" t="s">
+        <v>34</v>
+      </c>
+      <c r="N326" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O326" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R326" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S326" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T326" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W326" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X326" t="n">
+        <v>3.855</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>543.85</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C327" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L327" t="s">
+        <v>41</v>
+      </c>
+      <c r="M327" t="s">
+        <v>34</v>
+      </c>
+      <c r="N327" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O327" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R327" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S327" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T327" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W327" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X327" t="n">
+        <v>5.491</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>5.585</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>542.823</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C328" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L328" t="s">
+        <v>41</v>
+      </c>
+      <c r="M328" t="s">
+        <v>34</v>
+      </c>
+      <c r="N328" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O328" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R328" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S328" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T328" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W328" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X328" t="n">
+        <v>3.992</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>4.054</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>542.593</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L329" t="s">
+        <v>41</v>
+      </c>
+      <c r="M329" t="s">
+        <v>34</v>
+      </c>
+      <c r="N329" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O329" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R329" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S329" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T329" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W329" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X329" t="n">
+        <v>9.416</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>9.556</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>542.823</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C330" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L330" t="s">
+        <v>41</v>
+      </c>
+      <c r="M330" t="s">
+        <v>34</v>
+      </c>
+      <c r="N330" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O330" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R330" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S330" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T330" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W330" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X330" t="n">
+        <v>9.166</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>9.307</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>542.823</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C331" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L331" t="s">
+        <v>41</v>
+      </c>
+      <c r="M331" t="s">
+        <v>34</v>
+      </c>
+      <c r="N331" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O331" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R331" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S331" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T331" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W331" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X331" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>9.635</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>542.823</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C332" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L332" t="s">
+        <v>41</v>
+      </c>
+      <c r="M332" t="s">
+        <v>34</v>
+      </c>
+      <c r="N332" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O332" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R332" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S332" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T332" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W332" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X332" t="n">
+        <v>9.354</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>9.47</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>542.823</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C333" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J333" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L333" t="s">
+        <v>37</v>
+      </c>
+      <c r="M333" t="s">
+        <v>34</v>
+      </c>
+      <c r="N333" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O333" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R333" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S333" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T333" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U333" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W333" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X333" t="n">
+        <v>6.897</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>6.979</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>543.353</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C334" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J334" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L334" t="s">
+        <v>37</v>
+      </c>
+      <c r="M334" t="s">
+        <v>34</v>
+      </c>
+      <c r="N334" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O334" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R334" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S334" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T334" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U334" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W334" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X334" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>6.818</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>543.337</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C335" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J335" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L335" t="s">
+        <v>37</v>
+      </c>
+      <c r="M335" t="s">
+        <v>34</v>
+      </c>
+      <c r="N335" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O335" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R335" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S335" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T335" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U335" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W335" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X335" t="n">
+        <v>16.856</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>16.997</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>543.258</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C336" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J336" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L336" t="s">
+        <v>37</v>
+      </c>
+      <c r="M336" t="s">
+        <v>34</v>
+      </c>
+      <c r="N336" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O336" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P336" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R336" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S336" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T336" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U336" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W336" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X336" t="n">
+        <v>6.764</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>6.857</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>543.218</v>
       </c>
     </row>
   </sheetData>
@@ -49065,7 +51818,7 @@
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="X11:X296">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49076,7 +51829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="43">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>HEURISTIC_VERSION_1</t>
+  </si>
+  <si>
+    <t>EXACT_METHOD</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD297"/>
+  <dimension ref="A1:AD298"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Y299" sqref="Y299"/>
@@ -27218,6 +27221,71 @@
       <c r="Z297"/>
       <c r="AA297"/>
       <c r="AB297"/>
+    </row>
+    <row r="298">
+      <c r="E298" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J298" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L298" t="s">
+        <v>42</v>
+      </c>
+      <c r="M298" t="s">
+        <v>34</v>
+      </c>
+      <c r="N298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O298" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V298" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="X298" t="n">
+        <v>0.9251523809523811</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>0.9328349206349207</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>33.4574989675326</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>11.839834857142844</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AB297"/>
@@ -27283,7 +27351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA336"/>
+  <dimension ref="A1:AA370"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="X296" sqref="X11:X296"/>
@@ -51808,6 +51876,2324 @@
         <v>543.218</v>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C337" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J337" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L337" t="s">
+        <v>37</v>
+      </c>
+      <c r="M337" t="s">
+        <v>34</v>
+      </c>
+      <c r="N337" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O337" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R337" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S337" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T337" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U337" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W337" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X337" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C338" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J338" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L338" t="s">
+        <v>37</v>
+      </c>
+      <c r="M338" t="s">
+        <v>34</v>
+      </c>
+      <c r="N338" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O338" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P338" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R338" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S338" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T338" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U338" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W338" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X338" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C339" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L339" t="s">
+        <v>41</v>
+      </c>
+      <c r="M339" t="s">
+        <v>34</v>
+      </c>
+      <c r="N339" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O339" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R339" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S339" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T339" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W339" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X339" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>544.679</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C340" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J340" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L340" t="s">
+        <v>37</v>
+      </c>
+      <c r="M340" t="s">
+        <v>34</v>
+      </c>
+      <c r="N340" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O340" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R340" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S340" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T340" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U340" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W340" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X340" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C341" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J341" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L341" t="s">
+        <v>37</v>
+      </c>
+      <c r="M341" t="s">
+        <v>34</v>
+      </c>
+      <c r="N341" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O341" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P341" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R341" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S341" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T341" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U341" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W341" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X341" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>1.838</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C342" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J342" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L342" t="s">
+        <v>37</v>
+      </c>
+      <c r="M342" t="s">
+        <v>34</v>
+      </c>
+      <c r="N342" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O342" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R342" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S342" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T342" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U342" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W342" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X342" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C343" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J343" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L343" t="s">
+        <v>37</v>
+      </c>
+      <c r="M343" t="s">
+        <v>34</v>
+      </c>
+      <c r="N343" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O343" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P343" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R343" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S343" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T343" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U343" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W343" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X343" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C344" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J344" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L344" t="s">
+        <v>37</v>
+      </c>
+      <c r="M344" t="s">
+        <v>34</v>
+      </c>
+      <c r="N344" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O344" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P344" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R344" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S344" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T344" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U344" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W344" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X344" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C345" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J345" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L345" t="s">
+        <v>37</v>
+      </c>
+      <c r="M345" t="s">
+        <v>34</v>
+      </c>
+      <c r="N345" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O345" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P345" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R345" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S345" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T345" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U345" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W345" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X345" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C346" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J346" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L346" t="s">
+        <v>37</v>
+      </c>
+      <c r="M346" t="s">
+        <v>34</v>
+      </c>
+      <c r="N346" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O346" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P346" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R346" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S346" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T346" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U346" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W346" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X346" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J347" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K347" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L347" t="s">
+        <v>37</v>
+      </c>
+      <c r="M347" t="s">
+        <v>34</v>
+      </c>
+      <c r="N347" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O347" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P347" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R347" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S347" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T347" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U347" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W347" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X347" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>544.768</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J348" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L348" t="s">
+        <v>37</v>
+      </c>
+      <c r="M348" t="s">
+        <v>34</v>
+      </c>
+      <c r="N348" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O348" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R348" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S348" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T348" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U348" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W348" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X348" t="n">
+        <v>1.797</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J349" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L349" t="s">
+        <v>37</v>
+      </c>
+      <c r="M349" t="s">
+        <v>34</v>
+      </c>
+      <c r="N349" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O349" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R349" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S349" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T349" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U349" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W349" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X349" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>543.832</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C350" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L350" t="s">
+        <v>33</v>
+      </c>
+      <c r="M350" t="s">
+        <v>34</v>
+      </c>
+      <c r="N350" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O350" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R350" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S350" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T350" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W350" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X350" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>544.348</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C351" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L351" t="s">
+        <v>33</v>
+      </c>
+      <c r="M351" t="s">
+        <v>34</v>
+      </c>
+      <c r="N351" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O351" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R351" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S351" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T351" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W351" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X351" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C352" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L352" t="s">
+        <v>33</v>
+      </c>
+      <c r="M352" t="s">
+        <v>34</v>
+      </c>
+      <c r="N352" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O352" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P352" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R352" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S352" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T352" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W352" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X352" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C353" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L353" t="s">
+        <v>33</v>
+      </c>
+      <c r="M353" t="s">
+        <v>34</v>
+      </c>
+      <c r="N353" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O353" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P353" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R353" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S353" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T353" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W353" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X353" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>544.396</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C354" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L354" t="s">
+        <v>33</v>
+      </c>
+      <c r="M354" t="s">
+        <v>34</v>
+      </c>
+      <c r="N354" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O354" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P354" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R354" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S354" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T354" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W354" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X354" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C355" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L355" t="s">
+        <v>33</v>
+      </c>
+      <c r="M355" t="s">
+        <v>34</v>
+      </c>
+      <c r="N355" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O355" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R355" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S355" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T355" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W355" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X355" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>544.909</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L356" t="s">
+        <v>33</v>
+      </c>
+      <c r="M356" t="s">
+        <v>34</v>
+      </c>
+      <c r="N356" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O356" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P356" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R356" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S356" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T356" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W356" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X356" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>544.142</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C357" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L357" t="s">
+        <v>33</v>
+      </c>
+      <c r="M357" t="s">
+        <v>34</v>
+      </c>
+      <c r="N357" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O357" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P357" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R357" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S357" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T357" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W357" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X357" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>544.075</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C358" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L358" t="s">
+        <v>33</v>
+      </c>
+      <c r="M358" t="s">
+        <v>34</v>
+      </c>
+      <c r="N358" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O358" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P358" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R358" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S358" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T358" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W358" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X358" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>544.118</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C359" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L359" t="s">
+        <v>33</v>
+      </c>
+      <c r="M359" t="s">
+        <v>34</v>
+      </c>
+      <c r="N359" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O359" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R359" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S359" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T359" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W359" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X359" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>544.17</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C360" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L360" t="s">
+        <v>33</v>
+      </c>
+      <c r="M360" t="s">
+        <v>34</v>
+      </c>
+      <c r="N360" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O360" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R360" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S360" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T360" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W360" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X360" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>544.075</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L361" t="s">
+        <v>33</v>
+      </c>
+      <c r="M361" t="s">
+        <v>34</v>
+      </c>
+      <c r="N361" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O361" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R361" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S361" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T361" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W361" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X361" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>544.142</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L362" t="s">
+        <v>33</v>
+      </c>
+      <c r="M362" t="s">
+        <v>34</v>
+      </c>
+      <c r="N362" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O362" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P362" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R362" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S362" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T362" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W362" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X362" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>544.142</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C363" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L363" t="s">
+        <v>33</v>
+      </c>
+      <c r="M363" t="s">
+        <v>34</v>
+      </c>
+      <c r="N363" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O363" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R363" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S363" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T363" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W363" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X363" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>544.768</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L364" t="s">
+        <v>33</v>
+      </c>
+      <c r="M364" t="s">
+        <v>34</v>
+      </c>
+      <c r="N364" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O364" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P364" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R364" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S364" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T364" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W364" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X364" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>544.118</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C365" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L365" t="s">
+        <v>33</v>
+      </c>
+      <c r="M365" t="s">
+        <v>34</v>
+      </c>
+      <c r="N365" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O365" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P365" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R365" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S365" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T365" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W365" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X365" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>544.118</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L366" t="s">
+        <v>33</v>
+      </c>
+      <c r="M366" t="s">
+        <v>34</v>
+      </c>
+      <c r="N366" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O366" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R366" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S366" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T366" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W366" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X366" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>544.075</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C367" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L367" t="s">
+        <v>33</v>
+      </c>
+      <c r="M367" t="s">
+        <v>34</v>
+      </c>
+      <c r="N367" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O367" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R367" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S367" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T367" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W367" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X367" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>544.075</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L368" t="s">
+        <v>33</v>
+      </c>
+      <c r="M368" t="s">
+        <v>34</v>
+      </c>
+      <c r="N368" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O368" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R368" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S368" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T368" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W368" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X368" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>544.439</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L369" t="s">
+        <v>33</v>
+      </c>
+      <c r="M369" t="s">
+        <v>34</v>
+      </c>
+      <c r="N369" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O369" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P369" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R369" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S369" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T369" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W369" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X369" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>544.154</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C370" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L370" t="s">
+        <v>33</v>
+      </c>
+      <c r="M370" t="s">
+        <v>34</v>
+      </c>
+      <c r="N370" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O370" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R370" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S370" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T370" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W370" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X370" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>544.075</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:X2"/>
   <mergeCells count="5">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.stud.iot.ntnu.no\Home\kristi6\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28215" windowHeight="13215"/>
+    <workbookView windowHeight="13215" windowWidth="28215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="One route" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
+    <sheet name="One route" r:id="rId2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$2:$X$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$2:$AB$297</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$2:$X$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$2:$AB$297</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="42">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -210,73 +210,73 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -312,11 +312,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -352,7 +352,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1261,7 +1261,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1273,11 +1273,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1308,7 +1308,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1332,11 +1332,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1371,7 +1371,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1394,7 +1394,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1957,7 +1957,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1996,10 +1996,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2034,7 +2034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2069,7 +2069,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2163,21 +2163,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2194,7 +2194,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2246,53 +2246,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="Y299" sqref="Y299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="21.28515625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="22.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" hidden="true" width="12.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="12" width="21.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="13" width="22.42578125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="19" width="15.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="14" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="14" width="17.5703125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="Z1" s="16"/>
       <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48.75" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>10.908975454874838</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>0</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>8.884604550354565</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>0</v>
       </c>
@@ -27228,7 +27228,7 @@
     <mergeCell ref="L1:W1"/>
   </mergeCells>
   <conditionalFormatting sqref="Z292:Z1048576 Z248:Z249 Z3:Z193 Z195:Z197 Z199:Z200 Z202 Z204:Z221 Z223:Z245 Z251 Z253:Z266 Z268:Z288">
-    <cfRule type="colorScale" priority="23">
+    <cfRule priority="23" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27240,7 +27240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z292:Z1048576 Z248:Z249 Z3:Z202 Z204:Z221 Z223:Z245 Z251 Z253:Z266 Z268:Z288">
-    <cfRule type="colorScale" priority="33">
+    <cfRule priority="33" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27252,7 +27252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z292:Z1048576 Z3:Z246 Z248:Z249 Z251 Z253:Z266 Z268:Z288">
-    <cfRule type="colorScale" priority="40">
+    <cfRule priority="40" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27264,7 +27264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z288">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27275,15 +27275,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z296"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA297"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="X296" sqref="X11:X296"/>
@@ -27291,35 +27291,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5703125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" width="10.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="0.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" hidden="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -27357,7 +27357,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="57" r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -49053,6 +49053,80 @@
       </c>
       <c r="X296">
         <v>551.88900000000001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C297" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J297" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L297" t="s">
+        <v>37</v>
+      </c>
+      <c r="M297" t="s">
+        <v>34</v>
+      </c>
+      <c r="N297" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O297" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R297" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S297" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T297" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U297" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W297" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X297" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>544.909</v>
       </c>
     </row>
   </sheetData>
@@ -49065,7 +49139,7 @@
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="X11:X296">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49076,7 +49150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.stud.iot.ntnu.no\Home\kristi6\Documents\masteroppgave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="44">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>HEURISTIC_VERSION_1</t>
+  </si>
+  <si>
+    <t>CURRENT_SOLUTION_IN_OSLO</t>
+  </si>
+  <si>
+    <t>best evekter fra over</t>
   </si>
 </sst>
 </file>
@@ -2254,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD297"/>
+  <dimension ref="A1:AD301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="Y299" sqref="Y299"/>
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27014,7 +27020,7 @@
         <v>14.411938074446738</v>
       </c>
     </row>
-    <row r="289" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E289">
         <v>0.6</v>
       </c>
@@ -27049,7 +27055,7 @@
       <c r="AA289"/>
       <c r="AB289"/>
     </row>
-    <row r="290" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E290">
         <v>0.6</v>
       </c>
@@ -27084,7 +27090,7 @@
       <c r="AA290"/>
       <c r="AB290"/>
     </row>
-    <row r="291" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="Y291" s="13" t="s">
         <v>38</v>
       </c>
@@ -27093,7 +27099,7 @@
         <v>50.22111857059717</v>
       </c>
     </row>
-    <row r="292" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="Y292" s="13" t="s">
         <v>39</v>
       </c>
@@ -27102,7 +27108,7 @@
         <v>50.33646608706686</v>
       </c>
     </row>
-    <row r="293" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>0.3</v>
       </c>
@@ -27179,7 +27185,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="294" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E294"/>
       <c r="J294"/>
       <c r="L294"/>
@@ -27189,7 +27195,7 @@
       <c r="AA294"/>
       <c r="AB294"/>
     </row>
-    <row r="295" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E295"/>
       <c r="J295"/>
       <c r="L295"/>
@@ -27199,7 +27205,7 @@
       <c r="AA295"/>
       <c r="AB295"/>
     </row>
-    <row r="296" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E296"/>
       <c r="J296"/>
       <c r="L296"/>
@@ -27209,7 +27215,7 @@
       <c r="AA296"/>
       <c r="AB296"/>
     </row>
-    <row r="297" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E297"/>
       <c r="J297"/>
       <c r="L297"/>
@@ -27218,6 +27224,269 @@
       <c r="Z297"/>
       <c r="AA297"/>
       <c r="AB297"/>
+    </row>
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>43</v>
+      </c>
+      <c r="E298">
+        <v>0.6</v>
+      </c>
+      <c r="F298">
+        <v>0.3</v>
+      </c>
+      <c r="G298">
+        <v>0.1</v>
+      </c>
+      <c r="H298">
+        <v>0.6</v>
+      </c>
+      <c r="I298">
+        <v>0.4</v>
+      </c>
+      <c r="J298">
+        <v>5</v>
+      </c>
+      <c r="K298">
+        <v>18</v>
+      </c>
+      <c r="L298" t="s">
+        <v>42</v>
+      </c>
+      <c r="M298" t="s">
+        <v>34</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298">
+        <v>20</v>
+      </c>
+      <c r="P298">
+        <v>7</v>
+      </c>
+      <c r="Q298">
+        <v>11</v>
+      </c>
+      <c r="R298">
+        <v>5</v>
+      </c>
+      <c r="S298">
+        <v>2</v>
+      </c>
+      <c r="V298">
+        <v>15</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>2.3099251860175208E-4</v>
+      </c>
+      <c r="Z298">
+        <v>50.022296676015927</v>
+      </c>
+      <c r="AA298">
+        <v>43.733333333333334</v>
+      </c>
+      <c r="AB298">
+        <v>5.6521306295224978</v>
+      </c>
+    </row>
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <v>0.6</v>
+      </c>
+      <c r="F299">
+        <v>0.3</v>
+      </c>
+      <c r="G299">
+        <v>0.1</v>
+      </c>
+      <c r="H299">
+        <v>0.6</v>
+      </c>
+      <c r="I299">
+        <v>0.4</v>
+      </c>
+      <c r="J299">
+        <v>5</v>
+      </c>
+      <c r="K299">
+        <v>18</v>
+      </c>
+      <c r="L299" t="s">
+        <v>40</v>
+      </c>
+      <c r="O299">
+        <v>20</v>
+      </c>
+      <c r="P299">
+        <v>7</v>
+      </c>
+      <c r="Q299">
+        <v>11</v>
+      </c>
+      <c r="R299">
+        <v>5</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="V299">
+        <v>15</v>
+      </c>
+      <c r="X299" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y299" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z299">
+        <v>50.440528969967666</v>
+      </c>
+    </row>
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>-0.5</v>
+      </c>
+      <c r="B300">
+        <v>0.5</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0.6</v>
+      </c>
+      <c r="F300">
+        <v>0.3</v>
+      </c>
+      <c r="G300">
+        <v>0.1</v>
+      </c>
+      <c r="H300">
+        <v>0.6</v>
+      </c>
+      <c r="I300">
+        <v>0.4</v>
+      </c>
+      <c r="J300">
+        <v>5</v>
+      </c>
+      <c r="K300">
+        <v>18</v>
+      </c>
+      <c r="L300" t="s">
+        <v>42</v>
+      </c>
+      <c r="M300" t="s">
+        <v>34</v>
+      </c>
+      <c r="N300">
+        <v>1</v>
+      </c>
+      <c r="O300">
+        <v>20</v>
+      </c>
+      <c r="P300">
+        <v>7</v>
+      </c>
+      <c r="Q300">
+        <v>11</v>
+      </c>
+      <c r="R300">
+        <v>5</v>
+      </c>
+      <c r="S300">
+        <v>2</v>
+      </c>
+      <c r="V300">
+        <v>15</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>4.2678979730564816E-4</v>
+      </c>
+      <c r="Z300">
+        <v>50.212329731731437</v>
+      </c>
+      <c r="AA300">
+        <v>30.2</v>
+      </c>
+      <c r="AB300">
+        <v>8.1085051052462749</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="E301" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J301" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L301" t="s">
+        <v>42</v>
+      </c>
+      <c r="M301" t="s">
+        <v>34</v>
+      </c>
+      <c r="N301" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R301" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S301" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V301" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="X301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>5.087203864572238E-4</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>50.23998260196259</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>29.733333333333334</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>8.333657211839336</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AB297"/>
@@ -27283,7 +27552,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA297"/>
+  <dimension ref="A1:AA300"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="X296" sqref="X11:X296"/>
@@ -27297,7 +27566,7 @@
     <col min="4" max="4" customWidth="true" width="9.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" hidden="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="0.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" hidden="true" width="11.140625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" hidden="true" width="13.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
@@ -48463,7 +48732,7 @@
         <v>548.56799999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>-0.79999999999999993</v>
       </c>
@@ -48537,7 +48806,7 @@
         <v>548.56799999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>-0.79999999999999993</v>
       </c>
@@ -48611,7 +48880,7 @@
         <v>551.88900000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>-0.79999999999999993</v>
       </c>
@@ -48685,7 +48954,7 @@
         <v>548.56799999999998</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>-0.79999999999999993</v>
       </c>
@@ -48759,7 +49028,7 @@
         <v>547.98099999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>-0.89999999999999991</v>
       </c>
@@ -48833,7 +49102,7 @@
         <v>551.88900000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>-0.89999999999999991</v>
       </c>
@@ -48907,7 +49176,7 @@
         <v>548.56799999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>-0.89999999999999991</v>
       </c>
@@ -48981,7 +49250,7 @@
         <v>547.98099999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>-0.99999999999999989</v>
       </c>
@@ -49055,39 +49324,39 @@
         <v>551.88900000000001</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="B297" t="n">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
         <v>0.7</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>-0.2</v>
       </c>
-      <c r="D297" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E297" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F297" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J297" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K297" t="n">
-        <v>18.0</v>
+      <c r="D297">
+        <v>0.1</v>
+      </c>
+      <c r="E297">
+        <v>0.6</v>
+      </c>
+      <c r="F297">
+        <v>0.3</v>
+      </c>
+      <c r="G297">
+        <v>0.1</v>
+      </c>
+      <c r="H297">
+        <v>0.6</v>
+      </c>
+      <c r="I297">
+        <v>0.4</v>
+      </c>
+      <c r="J297">
+        <v>5</v>
+      </c>
+      <c r="K297">
+        <v>18</v>
       </c>
       <c r="L297" t="s">
         <v>37</v>
@@ -49095,38 +49364,251 @@
       <c r="M297" t="s">
         <v>34</v>
       </c>
-      <c r="N297" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O297" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="P297" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R297" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S297" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T297" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U297" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W297" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X297" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="Y297" t="n">
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297">
+        <v>20</v>
+      </c>
+      <c r="P297">
+        <v>7</v>
+      </c>
+      <c r="R297">
+        <v>5</v>
+      </c>
+      <c r="S297">
+        <v>1</v>
+      </c>
+      <c r="T297">
+        <v>3</v>
+      </c>
+      <c r="U297">
+        <v>3</v>
+      </c>
+      <c r="W297">
+        <v>5</v>
+      </c>
+      <c r="X297">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="Y297">
         <v>1.901</v>
       </c>
-      <c r="Z297" t="n">
-        <v>544.909</v>
+      <c r="Z297">
+        <v>544.90899999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0.7</v>
+      </c>
+      <c r="C298">
+        <v>-0.2</v>
+      </c>
+      <c r="D298">
+        <v>0.1</v>
+      </c>
+      <c r="E298">
+        <v>0.6</v>
+      </c>
+      <c r="F298">
+        <v>0.3</v>
+      </c>
+      <c r="G298">
+        <v>0.1</v>
+      </c>
+      <c r="H298">
+        <v>0.6</v>
+      </c>
+      <c r="I298">
+        <v>0.4</v>
+      </c>
+      <c r="L298" t="s">
+        <v>33</v>
+      </c>
+      <c r="M298" t="s">
+        <v>34</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298">
+        <v>20</v>
+      </c>
+      <c r="P298">
+        <v>7</v>
+      </c>
+      <c r="R298">
+        <v>5</v>
+      </c>
+      <c r="S298">
+        <v>2</v>
+      </c>
+      <c r="T298">
+        <v>3</v>
+      </c>
+      <c r="W298">
+        <v>5</v>
+      </c>
+      <c r="X298">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="Y298">
+        <v>0.45</v>
+      </c>
+      <c r="Z298">
+        <v>533.596</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0.7</v>
+      </c>
+      <c r="C299">
+        <v>-0.2</v>
+      </c>
+      <c r="D299">
+        <v>0.1</v>
+      </c>
+      <c r="E299">
+        <v>0.6</v>
+      </c>
+      <c r="F299">
+        <v>0.3</v>
+      </c>
+      <c r="G299">
+        <v>0.1</v>
+      </c>
+      <c r="H299">
+        <v>0.6</v>
+      </c>
+      <c r="I299">
+        <v>0.4</v>
+      </c>
+      <c r="J299">
+        <v>5</v>
+      </c>
+      <c r="K299">
+        <v>18</v>
+      </c>
+      <c r="L299" t="s">
+        <v>37</v>
+      </c>
+      <c r="M299" t="s">
+        <v>34</v>
+      </c>
+      <c r="N299">
+        <v>1</v>
+      </c>
+      <c r="O299">
+        <v>20</v>
+      </c>
+      <c r="P299">
+        <v>7</v>
+      </c>
+      <c r="R299">
+        <v>5</v>
+      </c>
+      <c r="S299">
+        <v>2</v>
+      </c>
+      <c r="T299">
+        <v>3</v>
+      </c>
+      <c r="U299">
+        <v>3</v>
+      </c>
+      <c r="W299">
+        <v>5</v>
+      </c>
+      <c r="X299">
+        <v>3.9470000000000001</v>
+      </c>
+      <c r="Y299">
+        <v>4.016</v>
+      </c>
+      <c r="Z299">
+        <v>533.596</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300">
+        <v>0.7</v>
+      </c>
+      <c r="C300">
+        <v>-0.2</v>
+      </c>
+      <c r="D300">
+        <v>0.1</v>
+      </c>
+      <c r="E300">
+        <v>0.6</v>
+      </c>
+      <c r="F300">
+        <v>0.3</v>
+      </c>
+      <c r="G300">
+        <v>0.1</v>
+      </c>
+      <c r="H300">
+        <v>0.6</v>
+      </c>
+      <c r="I300">
+        <v>0.4</v>
+      </c>
+      <c r="J300">
+        <v>5</v>
+      </c>
+      <c r="K300">
+        <v>18</v>
+      </c>
+      <c r="L300" t="s">
+        <v>37</v>
+      </c>
+      <c r="M300" t="s">
+        <v>34</v>
+      </c>
+      <c r="N300">
+        <v>1</v>
+      </c>
+      <c r="O300">
+        <v>20</v>
+      </c>
+      <c r="P300">
+        <v>7</v>
+      </c>
+      <c r="R300">
+        <v>5</v>
+      </c>
+      <c r="S300">
+        <v>2</v>
+      </c>
+      <c r="T300">
+        <v>3</v>
+      </c>
+      <c r="U300">
+        <v>3</v>
+      </c>
+      <c r="W300">
+        <v>5</v>
+      </c>
+      <c r="X300">
+        <v>3.73</v>
+      </c>
+      <c r="Y300">
+        <v>3.8079999999999998</v>
+      </c>
+      <c r="Z300">
+        <v>533.596</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="44">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -2260,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD301"/>
+  <dimension ref="A1:AD302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="A301" sqref="A301"/>
@@ -27486,6 +27486,71 @@
       </c>
       <c r="AB301" t="n">
         <v>8.333657211839336</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="E302" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J302" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L302" t="s">
+        <v>42</v>
+      </c>
+      <c r="M302" t="s">
+        <v>34</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R302" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S302" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V302" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="X302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>3.076598751774873E-4</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>50.23705930469656</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>8.409905362209615</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="13215" windowWidth="28215" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28215" windowHeight="13215"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
-    <sheet name="One route" r:id="rId2" sheetId="3"/>
+    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
+    <sheet name="One route" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$2:$X$2</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$2:$AB$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$2:$X$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$2:$AB$297</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="44">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -216,73 +216,73 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -309,6 +309,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -318,11 +319,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -358,7 +359,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cap="rnd" w="28575">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1267,7 +1268,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1279,11 +1280,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1314,7 +1315,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1338,11 +1339,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1377,7 +1378,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1400,7 +1401,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1963,7 +1964,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2002,10 +2003,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2040,7 +2041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2075,7 +2076,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2169,21 +2170,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2200,7 +2201,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2252,53 +2253,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M311" sqref="M311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" hidden="true" width="12.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="12" width="21.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="13" width="22.42578125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="19" width="15.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="14" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="14" width="17.5703125" collapsed="true"/>
-    <col min="29" max="29" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.28515625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22.42578125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2337,7 @@
       <c r="Z1" s="16"/>
       <c r="AC1" s="9"/>
     </row>
-    <row customHeight="1" ht="48.75" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>10.908975454874838</v>
       </c>
     </row>
-    <row customFormat="1" r="61" s="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>0</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>8.884604550354565</v>
       </c>
     </row>
-    <row customFormat="1" r="68" s="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>0</v>
       </c>
@@ -27423,27 +27424,27 @@
         <v>8.1085051052462749</v>
       </c>
     </row>
-    <row r="301">
-      <c r="E301" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F301" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J301" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K301" t="n">
-        <v>18.0</v>
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>0.6</v>
+      </c>
+      <c r="F301">
+        <v>0.3</v>
+      </c>
+      <c r="G301">
+        <v>0.1</v>
+      </c>
+      <c r="H301">
+        <v>0.6</v>
+      </c>
+      <c r="I301">
+        <v>0.4</v>
+      </c>
+      <c r="J301">
+        <v>5</v>
+      </c>
+      <c r="K301">
+        <v>18</v>
       </c>
       <c r="L301" t="s">
         <v>42</v>
@@ -27451,64 +27452,64 @@
       <c r="M301" t="s">
         <v>34</v>
       </c>
-      <c r="N301" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O301" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="P301" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q301" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R301" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S301" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V301" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="X301" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y301" t="n">
+      <c r="N301">
+        <v>1</v>
+      </c>
+      <c r="O301">
+        <v>20</v>
+      </c>
+      <c r="P301">
+        <v>7</v>
+      </c>
+      <c r="Q301">
+        <v>11</v>
+      </c>
+      <c r="R301">
+        <v>5</v>
+      </c>
+      <c r="S301">
+        <v>2</v>
+      </c>
+      <c r="V301">
+        <v>15</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
         <v>5.087203864572238E-4</v>
       </c>
-      <c r="Z301" t="n">
-        <v>50.23998260196259</v>
-      </c>
-      <c r="AA301" t="n">
+      <c r="Z301">
+        <v>50.239982601962588</v>
+      </c>
+      <c r="AA301">
         <v>29.733333333333334</v>
       </c>
-      <c r="AB301" t="n">
-        <v>8.333657211839336</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="E302" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F302" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J302" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K302" t="n">
-        <v>18.0</v>
+      <c r="AB301">
+        <v>8.3336572118393359</v>
+      </c>
+    </row>
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E302">
+        <v>0.6</v>
+      </c>
+      <c r="F302">
+        <v>0.3</v>
+      </c>
+      <c r="G302">
+        <v>0.1</v>
+      </c>
+      <c r="H302">
+        <v>0.6</v>
+      </c>
+      <c r="I302">
+        <v>0.4</v>
+      </c>
+      <c r="J302">
+        <v>5</v>
+      </c>
+      <c r="K302">
+        <v>18</v>
       </c>
       <c r="L302" t="s">
         <v>42</v>
@@ -27516,41 +27517,207 @@
       <c r="M302" t="s">
         <v>34</v>
       </c>
-      <c r="N302" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O302" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="P302" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q302" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R302" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S302" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V302" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="X302" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y302" t="n">
-        <v>3.076598751774873E-4</v>
-      </c>
-      <c r="Z302" t="n">
-        <v>50.23705930469656</v>
-      </c>
-      <c r="AA302" t="n">
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302">
+        <v>20</v>
+      </c>
+      <c r="P302">
+        <v>7</v>
+      </c>
+      <c r="Q302">
+        <v>11</v>
+      </c>
+      <c r="R302">
+        <v>5</v>
+      </c>
+      <c r="S302">
+        <v>2</v>
+      </c>
+      <c r="V302">
+        <v>15</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>3.0765987517748729E-4</v>
+      </c>
+      <c r="Z302">
+        <v>50.237059304696558</v>
+      </c>
+      <c r="AA302">
         <v>29.2</v>
       </c>
-      <c r="AB302" t="n">
-        <v>8.409905362209615</v>
+      <c r="AB302">
+        <v>8.4099053622096154</v>
+      </c>
+    </row>
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0.7</v>
+      </c>
+      <c r="C303">
+        <v>0.2</v>
+      </c>
+      <c r="D303">
+        <v>0.1</v>
+      </c>
+      <c r="E303">
+        <v>0.6</v>
+      </c>
+      <c r="F303">
+        <v>0.3</v>
+      </c>
+      <c r="G303">
+        <v>0.1</v>
+      </c>
+      <c r="H303">
+        <v>0.6</v>
+      </c>
+      <c r="I303">
+        <v>0.4</v>
+      </c>
+      <c r="J303">
+        <v>5</v>
+      </c>
+      <c r="K303">
+        <v>18</v>
+      </c>
+      <c r="L303" t="s">
+        <v>33</v>
+      </c>
+      <c r="M303" t="s">
+        <v>34</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303">
+        <v>20</v>
+      </c>
+      <c r="P303">
+        <v>7</v>
+      </c>
+      <c r="Q303">
+        <v>11</v>
+      </c>
+      <c r="R303">
+        <v>3</v>
+      </c>
+      <c r="S303">
+        <v>2</v>
+      </c>
+      <c r="T303">
+        <v>3</v>
+      </c>
+      <c r="V303">
+        <v>15</v>
+      </c>
+      <c r="W303">
+        <v>5</v>
+      </c>
+      <c r="X303">
+        <v>0.10723235215053761</v>
+      </c>
+      <c r="Y303">
+        <v>0.11610682347670249</v>
+      </c>
+      <c r="Z303">
+        <v>50.526825762563895</v>
+      </c>
+      <c r="AA303">
+        <v>30.733333333333334</v>
+      </c>
+      <c r="AB303">
+        <v>8.0691091696535224</v>
+      </c>
+    </row>
+    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304">
+        <v>0.7</v>
+      </c>
+      <c r="C304">
+        <v>0.2</v>
+      </c>
+      <c r="D304">
+        <v>0.1</v>
+      </c>
+      <c r="E304">
+        <v>0.6</v>
+      </c>
+      <c r="F304">
+        <v>0.3</v>
+      </c>
+      <c r="G304">
+        <v>0.1</v>
+      </c>
+      <c r="H304">
+        <v>0.6</v>
+      </c>
+      <c r="I304">
+        <v>0.4</v>
+      </c>
+      <c r="J304">
+        <v>5</v>
+      </c>
+      <c r="K304">
+        <v>18</v>
+      </c>
+      <c r="L304" t="s">
+        <v>33</v>
+      </c>
+      <c r="M304" t="s">
+        <v>34</v>
+      </c>
+      <c r="N304">
+        <v>1</v>
+      </c>
+      <c r="O304">
+        <v>20</v>
+      </c>
+      <c r="P304">
+        <v>7</v>
+      </c>
+      <c r="Q304">
+        <v>11</v>
+      </c>
+      <c r="R304">
+        <v>3</v>
+      </c>
+      <c r="S304">
+        <v>2</v>
+      </c>
+      <c r="T304">
+        <v>3</v>
+      </c>
+      <c r="V304">
+        <v>15</v>
+      </c>
+      <c r="W304">
+        <v>5</v>
+      </c>
+      <c r="X304">
+        <v>0.1147874417562724</v>
+      </c>
+      <c r="Y304">
+        <v>0.12407308691756271</v>
+      </c>
+      <c r="Z304">
+        <v>50.640746772324874</v>
+      </c>
+      <c r="AA304">
+        <v>30.333333333333332</v>
+      </c>
+      <c r="AB304">
+        <v>8.0936123805256894</v>
       </c>
     </row>
   </sheetData>
@@ -27562,7 +27729,7 @@
     <mergeCell ref="L1:W1"/>
   </mergeCells>
   <conditionalFormatting sqref="Z292:Z1048576 Z248:Z249 Z3:Z193 Z195:Z197 Z199:Z200 Z202 Z204:Z221 Z223:Z245 Z251 Z253:Z266 Z268:Z288">
-    <cfRule priority="23" type="colorScale">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27574,7 +27741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z292:Z1048576 Z248:Z249 Z3:Z202 Z204:Z221 Z223:Z245 Z251 Z253:Z266 Z268:Z288">
-    <cfRule priority="33" type="colorScale">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27586,7 +27753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z292:Z1048576 Z3:Z246 Z248:Z249 Z251 Z253:Z266 Z268:Z288">
-    <cfRule priority="40" type="colorScale">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27598,7 +27765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z288">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27609,15 +27776,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z300"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="X296" sqref="X11:X296"/>
@@ -27625,35 +27792,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" hidden="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" hidden="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" hidden="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="39.75" r="1" s="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -27691,7 +27858,7 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row customHeight="1" ht="57" r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -49686,7 +49853,7 @@
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="X11:X296">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49697,7 +49864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28215" windowHeight="13215"/>
+    <workbookView windowHeight="13215" windowWidth="28215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="One route" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
+    <sheet name="One route" r:id="rId2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$3:$AH$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$3:$AO$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$3:$AH$3</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$3:$AO$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -249,97 +249,97 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,10 +356,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -394,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -429,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -523,21 +523,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -554,7 +554,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -606,63 +606,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.5703125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.42578125" style="8" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" hidden="true" width="9.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" width="10.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" hidden="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="7" width="12.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="8" width="12.42578125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="11" width="13.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="9" width="17.42578125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="1" s="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="AN1" s="29"/>
       <c r="AO1" s="13"/>
     </row>
-    <row r="2" spans="1:41" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="13.5" r="2" s="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
       <c r="AO2" s="13"/>
     </row>
-    <row r="3" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48.75" r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>6.1500000000000013E-2</v>
       </c>
@@ -4288,6 +4288,59 @@
       </c>
       <c r="AN36">
         <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="n">
+        <v>42.051089094874875</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U37" t="s">
+        <v>50</v>
+      </c>
+      <c r="V37" t="s">
+        <v>49</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4356,7 @@
     <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C25">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4315,7 +4368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4327,7 +4380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C32">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4339,7 +4392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C34">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4351,7 +4404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C35">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4363,7 +4416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C1048576 C1">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4374,57 +4427,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.28515625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.7109375" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.140625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.140625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.7109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="9.140625" style="21" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="14.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9" style="21" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="1" collapsed="1"/>
-    <col min="35" max="16384" width="9.140625" style="21" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="21" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="21" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="21" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="21" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" style="21" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" style="21" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" hidden="true" style="21" width="10.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" style="21" width="10.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="21" width="8.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" style="21" width="10.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" hidden="true" style="21" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" hidden="true" style="21" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" hidden="true" style="21" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" hidden="true" style="1" width="12.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" hidden="true" style="21" width="13.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="21" width="12.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="21" width="14.5703125" collapsed="true"/>
+    <col min="22" max="23" style="21" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="21" width="11.140625" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="21" width="14.85546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="21" width="10.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="21" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="21" width="9.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="21" width="11.28515625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="21" width="12.140625" collapsed="true"/>
+    <col min="34" max="34" style="1" width="9.140625" collapsed="true"/>
+    <col min="35" max="16384" style="21" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
@@ -4475,7 +4528,7 @@
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
     </row>
-    <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>0</v>
       </c>
@@ -4576,7 +4629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="57.75" r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
@@ -6417,7 +6470,7 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28215" windowHeight="13215"/>
+    <workbookView windowHeight="13215" windowWidth="28215" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="One route" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
+    <sheet name="One route" r:id="rId2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$3:$AH$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$3:$AO$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$3:$AH$3</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$3:$AO$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="52">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -250,98 +250,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -358,10 +358,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -396,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -431,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -525,21 +525,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -556,7 +556,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -608,64 +608,64 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO324"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E306" sqref="E306"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A281" ySplit="3"/>
+      <selection activeCell="E306" pane="bottomLeft" sqref="E306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.42578125" style="8" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" hidden="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="7" width="12.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="8" width="12.42578125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="11" width="13.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="9" width="17.42578125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="1" s="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="AN1" s="29"/>
       <c r="AO1" s="13"/>
     </row>
-    <row r="2" spans="1:41" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="13.5" r="2" s="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       </c>
       <c r="AO2" s="13"/>
     </row>
-    <row r="3" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48.75" r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>6.1500000000000013E-2</v>
       </c>
@@ -30677,7 +30677,7 @@
     <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3 C1 C38:C1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30688,57 +30688,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.28515625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.7109375" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.140625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.140625" style="21" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.7109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="9.140625" style="21" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="14.85546875" style="21" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.5703125" style="21" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="21" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9" style="21" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.28515625" style="21" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.140625" style="21" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="1" collapsed="1"/>
-    <col min="35" max="16384" width="9.140625" style="21" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="21" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="21" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="21" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="21" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" style="21" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" style="21" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" hidden="true" style="21" width="10.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" style="21" width="10.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="21" width="8.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" style="21" width="10.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" hidden="true" style="21" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" hidden="true" style="21" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" hidden="true" style="21" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" hidden="true" style="1" width="12.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" hidden="true" style="21" width="13.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="21" width="12.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="21" width="14.5703125" collapsed="true"/>
+    <col min="22" max="23" style="21" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="21" width="11.140625" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="21" width="14.85546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="21" width="10.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="21" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="21" width="9.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="21" width="11.28515625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="21" width="12.140625" collapsed="true"/>
+    <col min="34" max="34" style="1" width="9.140625" collapsed="true"/>
+    <col min="35" max="16384" style="21" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
@@ -30789,7 +30789,7 @@
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
     </row>
-    <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>0</v>
       </c>
@@ -30890,7 +30890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="57.75" r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
@@ -32716,6 +32716,1664 @@
         <v>0</v>
       </c>
       <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50.5541</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="C26" t="n">
+        <v>52.3314</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>47</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="C27" t="n">
+        <v>52.3314</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>47</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="C28" t="n">
+        <v>52.3314</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>47</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50.5541</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="C30" t="n">
+        <v>538.09</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>48</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.313</v>
+      </c>
+      <c r="C31" t="n">
+        <v>538.09</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.687</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="C32" t="n">
+        <v>52.3314</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>47</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50.5541</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C34" t="n">
+        <v>52.3314</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>47</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50.5541</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>50.5541</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50.5541</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>48</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>50.5541</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>48</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="C39" t="n">
+        <v>52.3314</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C40" t="n">
+        <v>50.5541</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>48</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="C41" t="n">
+        <v>51.4781</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="C42" t="n">
+        <v>51.4781</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="C43" t="n">
+        <v>51.4781</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>47</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="C44" t="n">
+        <v>51.4781</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>48</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="C45" t="n">
+        <v>51.4781</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>48</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="C46" t="n">
+        <v>51.4781</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>47</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -32731,7 +34389,7 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Average number of times vehicle route generated</t>
   </si>
   <si>
-    <t>Average time to generating new routes</t>
-  </si>
-  <si>
     <t>Objective value</t>
   </si>
   <si>
@@ -174,6 +171,18 @@
   </si>
   <si>
     <t>T-test</t>
+  </si>
+  <si>
+    <t>EVERY_VEHICLE_ARRIVAL</t>
+  </si>
+  <si>
+    <t>Computational time Xpress (sek)</t>
+  </si>
+  <si>
+    <t>Computational time Xpress + initialization (sec)</t>
+  </si>
+  <si>
+    <t>Average time to generating new routes (min)</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BF14" sqref="BF14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +662,8 @@
     <col min="38" max="38" width="7.85546875" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="11" customWidth="1" collapsed="1"/>
     <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="9.140625" style="1" collapsed="1"/>
+    <col min="41" max="41" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="50" width="0" hidden="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,12 +689,12 @@
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
       <c r="P1" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="29"/>
       <c r="R1" s="30"/>
       <c r="S1" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T1" s="31"/>
       <c r="U1" s="28" t="s">
@@ -702,19 +712,19 @@
       <c r="AE1" s="31"/>
       <c r="AF1" s="31"/>
       <c r="AG1" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
       <c r="AJ1" s="27"/>
       <c r="AK1" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL1" s="27"/>
       <c r="AM1" s="27"/>
       <c r="AN1" s="27"/>
       <c r="AO1" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="27"/>
       <c r="AQ1" s="27"/>
@@ -883,12 +893,12 @@
       <c r="AZ2" s="25"/>
       <c r="BA2" s="25"/>
     </row>
-    <row r="3" spans="1:53" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>28</v>
@@ -897,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>1</v>
@@ -912,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>5</v>
@@ -930,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="P3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>10</v>
@@ -978,31 +988,31 @@
         <v>22</v>
       </c>
       <c r="AF3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AH3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AI3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AK3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL3" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL3" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="AM3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="AN3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AO3" s="1">
         <v>1</v>
@@ -1035,6 +1045,1226 @@
         <v>10</v>
       </c>
       <c r="AY3" s="20"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.11112485827213767</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.12301523528780882</v>
+      </c>
+      <c r="C4" s="9">
+        <v>49.34002731186736</v>
+      </c>
+      <c r="D4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E4">
+        <v>6.910226522478359</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.3</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+      <c r="M4">
+        <v>0.1</v>
+      </c>
+      <c r="N4">
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>20</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>11</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>10</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>42.155963302752291</v>
+      </c>
+      <c r="AP4">
+        <v>49.514629291304232</v>
+      </c>
+      <c r="AQ4">
+        <v>50.34209383145091</v>
+      </c>
+      <c r="AR4">
+        <v>49.763161738622372</v>
+      </c>
+      <c r="AS4">
+        <v>49.563202294021544</v>
+      </c>
+      <c r="AT4">
+        <v>49.222162653551202</v>
+      </c>
+      <c r="AU4">
+        <v>50.341862350703217</v>
+      </c>
+      <c r="AV4">
+        <v>50.478233086795733</v>
+      </c>
+      <c r="AW4">
+        <v>50.441907929548726</v>
+      </c>
+      <c r="AX4">
+        <v>51.577056639923356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.13246272979157742</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.15631802698708222</v>
+      </c>
+      <c r="C5" s="9">
+        <v>49.265066753665153</v>
+      </c>
+      <c r="D5">
+        <v>47.1</v>
+      </c>
+      <c r="E5">
+        <v>5.1626436345377904</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.3</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>0.1</v>
+      </c>
+      <c r="N5">
+        <v>0.6</v>
+      </c>
+      <c r="O5">
+        <v>0.4</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>18</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>20</v>
+      </c>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+      <c r="Z5">
+        <v>11</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>42.045871559633028</v>
+      </c>
+      <c r="AP5">
+        <v>49.280124342159084</v>
+      </c>
+      <c r="AQ5">
+        <v>50.262452939472922</v>
+      </c>
+      <c r="AR5">
+        <v>49.70543023878583</v>
+      </c>
+      <c r="AS5">
+        <v>49.507074344525584</v>
+      </c>
+      <c r="AT5">
+        <v>49.162024195240207</v>
+      </c>
+      <c r="AU5">
+        <v>50.298593569713411</v>
+      </c>
+      <c r="AV5">
+        <v>50.433026974113545</v>
+      </c>
+      <c r="AW5">
+        <v>50.418928112480152</v>
+      </c>
+      <c r="AX5">
+        <v>51.537141260527683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.21875392473299132</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.30030807117427744</v>
+      </c>
+      <c r="C6" s="9">
+        <v>49.281924974912741</v>
+      </c>
+      <c r="D6">
+        <v>45.9</v>
+      </c>
+      <c r="E6">
+        <v>5.2937821570624539</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.3</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>0.6</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <v>0.6</v>
+      </c>
+      <c r="O6">
+        <v>0.4</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>18</v>
+      </c>
+      <c r="U6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>20</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>11</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>20</v>
+      </c>
+      <c r="AE6">
+        <v>10</v>
+      </c>
+      <c r="AF6">
+        <v>5</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>42.137614678899084</v>
+      </c>
+      <c r="AP6">
+        <v>49.35374798898372</v>
+      </c>
+      <c r="AQ6">
+        <v>50.19638719953663</v>
+      </c>
+      <c r="AR6">
+        <v>49.737426009779576</v>
+      </c>
+      <c r="AS6">
+        <v>49.538750514043102</v>
+      </c>
+      <c r="AT6">
+        <v>49.174145124822267</v>
+      </c>
+      <c r="AU6">
+        <v>50.305999937630588</v>
+      </c>
+      <c r="AV6">
+        <v>50.433706765281705</v>
+      </c>
+      <c r="AW6">
+        <v>50.399274321566253</v>
+      </c>
+      <c r="AX6">
+        <v>51.542197208584476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.57990543577198772</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.81702272896908601</v>
+      </c>
+      <c r="C7" s="9">
+        <v>49.267974428199963</v>
+      </c>
+      <c r="D7">
+        <v>47.6</v>
+      </c>
+      <c r="E7">
+        <v>5.1352392923320185</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.7</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>0.6</v>
+      </c>
+      <c r="L7">
+        <v>0.3</v>
+      </c>
+      <c r="M7">
+        <v>0.1</v>
+      </c>
+      <c r="N7">
+        <v>0.6</v>
+      </c>
+      <c r="O7">
+        <v>0.4</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>11</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>30</v>
+      </c>
+      <c r="AE7">
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>41.960244648318039</v>
+      </c>
+      <c r="AP7">
+        <v>49.267853734354979</v>
+      </c>
+      <c r="AQ7">
+        <v>50.267883000289601</v>
+      </c>
+      <c r="AR7">
+        <v>49.726992606194656</v>
+      </c>
+      <c r="AS7">
+        <v>49.547642070398894</v>
+      </c>
+      <c r="AT7">
+        <v>49.197454604787765</v>
+      </c>
+      <c r="AU7">
+        <v>50.305610128792843</v>
+      </c>
+      <c r="AV7">
+        <v>50.435746138786165</v>
+      </c>
+      <c r="AW7">
+        <v>50.426789628845711</v>
+      </c>
+      <c r="AX7">
+        <v>51.543527721230987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1.8904670796001732</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.5892789131377874</v>
+      </c>
+      <c r="C8" s="9">
+        <v>49.282103714474154</v>
+      </c>
+      <c r="D8">
+        <v>50.9</v>
+      </c>
+      <c r="E8">
+        <v>4.7765860085833776</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>0.6</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>0.1</v>
+      </c>
+      <c r="N8">
+        <v>0.6</v>
+      </c>
+      <c r="O8">
+        <v>0.4</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>18</v>
+      </c>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>11</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>40</v>
+      </c>
+      <c r="AE8">
+        <v>10</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>42.018348623853214</v>
+      </c>
+      <c r="AP8">
+        <v>49.325116570774142</v>
+      </c>
+      <c r="AQ8">
+        <v>50.274218071242395</v>
+      </c>
+      <c r="AR8">
+        <v>49.734643768823602</v>
+      </c>
+      <c r="AS8">
+        <v>49.528191790870594</v>
+      </c>
+      <c r="AT8">
+        <v>49.198853173585697</v>
+      </c>
+      <c r="AU8">
+        <v>50.306779555306079</v>
+      </c>
+      <c r="AV8">
+        <v>50.45885903850337</v>
+      </c>
+      <c r="AW8">
+        <v>50.425580164789473</v>
+      </c>
+      <c r="AX8">
+        <v>51.55044638699291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1.5575755344315407</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.5697160593636135</v>
+      </c>
+      <c r="C9" s="9">
+        <v>49.412501410982458</v>
+      </c>
+      <c r="D9">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E9">
+        <v>6.8963638131344283</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.3</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9">
+        <v>0.1</v>
+      </c>
+      <c r="N9">
+        <v>0.6</v>
+      </c>
+      <c r="O9">
+        <v>0.4</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>18</v>
+      </c>
+      <c r="U9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>11</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>5</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>42.581039755351682</v>
+      </c>
+      <c r="AP9">
+        <v>49.60325034766722</v>
+      </c>
+      <c r="AQ9">
+        <v>50.345713871995365</v>
+      </c>
+      <c r="AR9">
+        <v>49.859149051603616</v>
+      </c>
+      <c r="AS9">
+        <v>49.5954341858113</v>
+      </c>
+      <c r="AT9">
+        <v>49.240810237523604</v>
+      </c>
+      <c r="AU9">
+        <v>50.355115851186582</v>
+      </c>
+      <c r="AV9">
+        <v>50.49488797041549</v>
+      </c>
+      <c r="AW9">
+        <v>50.46670194270164</v>
+      </c>
+      <c r="AX9">
+        <v>51.582910895568055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>2.0472493677323937</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.058478510987491</v>
+      </c>
+      <c r="C10" s="9">
+        <v>49.393507691030869</v>
+      </c>
+      <c r="D10">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E10">
+        <v>6.7687360612478589</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.3</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>0.6</v>
+      </c>
+      <c r="L10">
+        <v>0.3</v>
+      </c>
+      <c r="M10">
+        <v>0.1</v>
+      </c>
+      <c r="N10">
+        <v>0.6</v>
+      </c>
+      <c r="O10">
+        <v>0.4</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>18</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>20</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>11</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+      <c r="AF10">
+        <v>5</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>42.525993883792054</v>
+      </c>
+      <c r="AP10">
+        <v>49.533716903443953</v>
+      </c>
+      <c r="AQ10">
+        <v>50.354763973356498</v>
+      </c>
+      <c r="AR10">
+        <v>49.814633196307966</v>
+      </c>
+      <c r="AS10">
+        <v>49.603770019894853</v>
+      </c>
+      <c r="AT10">
+        <v>49.241276427122912</v>
+      </c>
+      <c r="AU10">
+        <v>50.352387189322357</v>
+      </c>
+      <c r="AV10">
+        <v>50.479592669132046</v>
+      </c>
+      <c r="AW10">
+        <v>50.4518860080127</v>
+      </c>
+      <c r="AX10">
+        <v>51.577056639923356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2.5837133164051429</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2.5947944362514175</v>
+      </c>
+      <c r="C11" s="9">
+        <v>49.370781909434449</v>
+      </c>
+      <c r="D11">
+        <v>35.4</v>
+      </c>
+      <c r="E11">
+        <v>6.9024514891936963</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.7</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>0.6</v>
+      </c>
+      <c r="L11">
+        <v>0.3</v>
+      </c>
+      <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11">
+        <v>0.6</v>
+      </c>
+      <c r="O11">
+        <v>0.4</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>18</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>11</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>42.296636085626908</v>
+      </c>
+      <c r="AP11">
+        <v>49.528263299975464</v>
+      </c>
+      <c r="AQ11">
+        <v>50.38734433825659</v>
+      </c>
+      <c r="AR11">
+        <v>49.777768503641255</v>
+      </c>
+      <c r="AS11">
+        <v>49.599324241716957</v>
+      </c>
+      <c r="AT11">
+        <v>49.245472133516699</v>
+      </c>
+      <c r="AU11">
+        <v>50.340303115352235</v>
+      </c>
+      <c r="AV11">
+        <v>50.491149118990641</v>
+      </c>
+      <c r="AW11">
+        <v>50.452793106054884</v>
+      </c>
+      <c r="AX11">
+        <v>51.588765151212769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>3.7967190429599631</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3.809955058479531</v>
+      </c>
+      <c r="C12" s="9">
+        <v>49.358437887105922</v>
+      </c>
+      <c r="D12">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E12">
+        <v>6.4838473976383257</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.7</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.3</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>0.6</v>
+      </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12">
+        <v>0.1</v>
+      </c>
+      <c r="N12">
+        <v>0.6</v>
+      </c>
+      <c r="O12">
+        <v>0.4</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>18</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>20</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>42.311926605504588</v>
+      </c>
+      <c r="AP12">
+        <v>49.456003054017941</v>
+      </c>
+      <c r="AQ12">
+        <v>50.341188821314795</v>
+      </c>
+      <c r="AR12">
+        <v>49.797244190333103</v>
+      </c>
+      <c r="AS12">
+        <v>49.586542629455508</v>
+      </c>
+      <c r="AT12">
+        <v>49.225892170345681</v>
+      </c>
+      <c r="AU12">
+        <v>50.362912027941498</v>
+      </c>
+      <c r="AV12">
+        <v>50.469735697193819</v>
+      </c>
+      <c r="AW12">
+        <v>50.45853806032202</v>
+      </c>
+      <c r="AX12">
+        <v>51.574395614630319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>6.57998553715385</v>
+      </c>
+      <c r="B13" s="9">
+        <v>6.5928842834016548</v>
+      </c>
+      <c r="C13" s="9">
+        <v>49.326936068780633</v>
+      </c>
+      <c r="D13">
+        <v>40.5</v>
+      </c>
+      <c r="E13">
+        <v>6.0928815311181257</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>0.6</v>
+      </c>
+      <c r="L13">
+        <v>0.3</v>
+      </c>
+      <c r="M13">
+        <v>0.1</v>
+      </c>
+      <c r="N13">
+        <v>0.6</v>
+      </c>
+      <c r="O13">
+        <v>0.4</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>18</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>20</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AE13">
+        <v>10</v>
+      </c>
+      <c r="AF13">
+        <v>5</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>42.217125382262999</v>
+      </c>
+      <c r="AP13">
+        <v>49.468273661822046</v>
+      </c>
+      <c r="AQ13">
+        <v>50.325803649000868</v>
+      </c>
+      <c r="AR13">
+        <v>49.77985518435824</v>
+      </c>
+      <c r="AS13">
+        <v>49.517077345425847</v>
+      </c>
+      <c r="AT13">
+        <v>49.205846017575347</v>
+      </c>
+      <c r="AU13">
+        <v>50.319253438113954</v>
+      </c>
+      <c r="AV13">
+        <v>50.457159560582987</v>
+      </c>
+      <c r="AW13">
+        <v>50.416811550381738</v>
+      </c>
+      <c r="AX13">
+        <v>51.562154898282309</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:AN3"/>
@@ -1049,7 +2279,19 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:AF1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C1048576 C1">
+  <conditionalFormatting sqref="C3:C7 C1 C9:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1132,12 +2374,12 @@
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R1" s="29"/>
       <c r="S1" s="28" t="s">
@@ -1151,12 +2393,12 @@
       <c r="Y1" s="29"/>
       <c r="Z1" s="29"/>
       <c r="AA1" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="27"/>
       <c r="AC1" s="27"/>
       <c r="AD1" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE1" s="27"/>
       <c r="AF1" s="27"/>
@@ -1271,7 +2513,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>1</v>
@@ -1286,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>5</v>
@@ -1304,13 +2546,13 @@
         <v>9</v>
       </c>
       <c r="N3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>10</v>
@@ -1337,31 +2579,31 @@
         <v>20</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="AB3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AD3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="AF3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="AG3" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1411,7 +2653,7 @@
         <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1490,7 +2732,7 @@
         <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1572,7 +2814,7 @@
         <v>18</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1651,7 +2893,7 @@
         <v>18</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1734,7 +2976,7 @@
         <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1814,7 +3056,7 @@
         <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1888,7 +3130,7 @@
         <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1971,7 +3213,7 @@
         <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -2051,7 +3293,7 @@
         <v>18</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2134,7 +3376,7 @@
         <v>18</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -2223,7 +3465,7 @@
         <v>18</v>
       </c>
       <c r="S14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -2303,7 +3545,7 @@
         <v>18</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -2386,7 +3628,7 @@
         <v>18</v>
       </c>
       <c r="S16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -2484,7 +3726,7 @@
         <v>18</v>
       </c>
       <c r="S17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -2573,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -2662,7 +3904,7 @@
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -2751,7 +3993,7 @@
         <v>18</v>
       </c>
       <c r="S20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2825,7 +4067,7 @@
         <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2908,7 +4150,7 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2991,7 +4233,7 @@
         <v>18</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -3065,7 +4307,7 @@
         <v>18</v>
       </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T24">
         <v>1</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="13215"/>
+    <workbookView windowHeight="13215" windowWidth="28200" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="One route" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
+    <sheet name="One route" r:id="rId2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$3:$AH$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$3:$AN$3</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$3:$AH$3</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$3:$AN$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -252,97 +252,97 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -359,10 +359,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -397,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -432,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -526,21 +526,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -557,7 +557,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -609,64 +609,65 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.5703125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.42578125" style="8" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="50" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" hidden="true" style="9" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" style="9" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="9" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" hidden="true" width="9.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" width="10.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" hidden="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" hidden="true" width="25.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" hidden="true" width="12.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="7" width="12.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="8" width="12.42578125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="11" width="13.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="9" width="17.42578125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
+    <col min="42" max="50" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="1" s="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
@@ -738,7 +739,7 @@
       <c r="AY1" s="27"/>
       <c r="AZ1" s="27"/>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="13.5" r="2" s="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -893,7 +894,7 @@
       <c r="AZ2" s="25"/>
       <c r="BA2" s="25"/>
     </row>
-    <row r="3" spans="1:53" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>51.55044638699291</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row hidden="1" r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1.5575755344315407</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>1.5697160593636135</v>
       </c>
       <c r="C9" s="9">
-        <v>49.412501410982458</v>
+        <v>49.4125014109825</v>
       </c>
       <c r="D9">
         <v>35.700000000000003</v>
@@ -1778,7 +1779,7 @@
         <v>51.582910895568055</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row hidden="1" r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2.0472493677323937</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>51.577056639923356</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row hidden="1" r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2.5837133164051429</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>51.588765151212769</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row hidden="1" r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>3.7967190429599631</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>51.574395614630319</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row hidden="1" r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>6.57998553715385</v>
       </c>
@@ -2266,8 +2267,1746 @@
         <v>51.562154898282309</v>
       </c>
     </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>0.11302811832074988</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.12518599243359302</v>
+      </c>
+      <c r="C14" s="9">
+        <v>49.374278623068264</v>
+      </c>
+      <c r="D14">
+        <v>36.6</v>
+      </c>
+      <c r="E14">
+        <v>6.7033115011721822</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.3</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>0.6</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
+      </c>
+      <c r="N14">
+        <v>0.6</v>
+      </c>
+      <c r="O14">
+        <v>0.4</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>18</v>
+      </c>
+      <c r="U14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>20</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>11</v>
+      </c>
+      <c r="AA14">
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>4</v>
+      </c>
+      <c r="AE14">
+        <v>10</v>
+      </c>
+      <c r="AF14">
+        <v>5</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>42.400611620795111</v>
+      </c>
+      <c r="AP14">
+        <v>49.521446295639841</v>
+      </c>
+      <c r="AQ14">
+        <v>50.367434115262085</v>
+      </c>
+      <c r="AR14">
+        <v>49.806982033679027</v>
+      </c>
+      <c r="AS14">
+        <v>49.570982405832858</v>
+      </c>
+      <c r="AT14">
+        <v>49.22962168714016</v>
+      </c>
+      <c r="AU14">
+        <v>50.357064895375302</v>
+      </c>
+      <c r="AV14">
+        <v>50.474154339786814</v>
+      </c>
+      <c r="AW14">
+        <v>50.446745785773686</v>
+      </c>
+      <c r="AX14">
+        <v>51.567743051397706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>0.11943774505072302</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.132616388273778</v>
+      </c>
+      <c r="C15" s="9">
+        <v>49.34002731186736</v>
+      </c>
+      <c r="D15">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E15">
+        <v>6.910226522478359</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.3</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>0.6</v>
+      </c>
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15">
+        <v>0.6</v>
+      </c>
+      <c r="O15">
+        <v>0.4</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>18</v>
+      </c>
+      <c r="U15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>11</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AE15">
+        <v>10</v>
+      </c>
+      <c r="AF15">
+        <v>5</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>42.155963302752291</v>
+      </c>
+      <c r="AP15">
+        <v>49.514629291304232</v>
+      </c>
+      <c r="AQ15">
+        <v>50.34209383145091</v>
+      </c>
+      <c r="AR15">
+        <v>49.763161738622372</v>
+      </c>
+      <c r="AS15">
+        <v>49.563202294021544</v>
+      </c>
+      <c r="AT15">
+        <v>49.222162653551202</v>
+      </c>
+      <c r="AU15">
+        <v>50.341862350703217</v>
+      </c>
+      <c r="AV15">
+        <v>50.478233086795733</v>
+      </c>
+      <c r="AW15">
+        <v>50.441907929548726</v>
+      </c>
+      <c r="AX15">
+        <v>51.577056639923356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>0.11319933623038887</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.12672528421712631</v>
+      </c>
+      <c r="C16" s="9">
+        <v>49.32587715643335</v>
+      </c>
+      <c r="D16">
+        <v>36.4</v>
+      </c>
+      <c r="E16">
+        <v>6.8008216139795055</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.3</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>0.6</v>
+      </c>
+      <c r="L16">
+        <v>0.3</v>
+      </c>
+      <c r="M16">
+        <v>0.1</v>
+      </c>
+      <c r="N16">
+        <v>0.6</v>
+      </c>
+      <c r="O16">
+        <v>0.4</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>18</v>
+      </c>
+      <c r="U16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>20</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>11</v>
+      </c>
+      <c r="AA16">
+        <v>5</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>10</v>
+      </c>
+      <c r="AF16">
+        <v>5</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>42.183486238532112</v>
+      </c>
+      <c r="AP16">
+        <v>49.449186049682325</v>
+      </c>
+      <c r="AQ16">
+        <v>50.309513466550825</v>
+      </c>
+      <c r="AR16">
+        <v>49.752728335037453</v>
+      </c>
+      <c r="AS16">
+        <v>49.570982405832858</v>
+      </c>
+      <c r="AT16">
+        <v>49.186732244003636</v>
+      </c>
+      <c r="AU16">
+        <v>50.336405026974774</v>
+      </c>
+      <c r="AV16">
+        <v>50.47721340004351</v>
+      </c>
+      <c r="AW16">
+        <v>50.432232217098793</v>
+      </c>
+      <c r="AX16">
+        <v>51.560292180577171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>0.11925939800124008</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.13435109612649085</v>
+      </c>
+      <c r="C17" s="9">
+        <v>49.284609555438955</v>
+      </c>
+      <c r="D17">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E17">
+        <v>6.3899920061762128</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.7</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.3</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>0.6</v>
+      </c>
+      <c r="L17">
+        <v>0.3</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>0.6</v>
+      </c>
+      <c r="O17">
+        <v>0.4</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>18</v>
+      </c>
+      <c r="U17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>20</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>11</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>10</v>
+      </c>
+      <c r="AF17">
+        <v>5</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>42.021406727828747</v>
+      </c>
+      <c r="AP17">
+        <v>49.405557221934394</v>
+      </c>
+      <c r="AQ17">
+        <v>50.269693020561832</v>
+      </c>
+      <c r="AR17">
+        <v>49.707516919502815</v>
+      </c>
+      <c r="AS17">
+        <v>49.529858957687303</v>
+      </c>
+      <c r="AT17">
+        <v>49.164355143236754</v>
+      </c>
+      <c r="AU17">
+        <v>50.305610128792843</v>
+      </c>
+      <c r="AV17">
+        <v>50.466676636937137</v>
+      </c>
+      <c r="AW17">
+        <v>50.438279537379991</v>
+      </c>
+      <c r="AX17">
+        <v>51.537141260527683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>0.12393651902204228</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.14219216441635046</v>
+      </c>
+      <c r="C18" s="9">
+        <v>49.28663848695232</v>
+      </c>
+      <c r="D18">
+        <v>41.1</v>
+      </c>
+      <c r="E18">
+        <v>5.9501058712308703</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.7</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.3</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>0.6</v>
+      </c>
+      <c r="L18">
+        <v>0.3</v>
+      </c>
+      <c r="M18">
+        <v>0.1</v>
+      </c>
+      <c r="N18">
+        <v>0.6</v>
+      </c>
+      <c r="O18">
+        <v>0.4</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>18</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>20</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>11</v>
+      </c>
+      <c r="AA18">
+        <v>5</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>8</v>
+      </c>
+      <c r="AE18">
+        <v>10</v>
+      </c>
+      <c r="AF18">
+        <v>5</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>42.009174311926607</v>
+      </c>
+      <c r="AP18">
+        <v>49.438278842745341</v>
+      </c>
+      <c r="AQ18">
+        <v>50.287793223284105</v>
+      </c>
+      <c r="AR18">
+        <v>49.709603600219801</v>
+      </c>
+      <c r="AS18">
+        <v>49.528191790870594</v>
+      </c>
+      <c r="AT18">
+        <v>49.189995571198807</v>
+      </c>
+      <c r="AU18">
+        <v>50.294305672498204</v>
+      </c>
+      <c r="AV18">
+        <v>50.446622797476614</v>
+      </c>
+      <c r="AW18">
+        <v>50.425277798775411</v>
+      </c>
+      <c r="AX18">
+        <v>51.537141260527683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>0.12121343340407002</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.14310003752631079</v>
+      </c>
+      <c r="C19" s="9">
+        <v>49.263129743255192</v>
+      </c>
+      <c r="D19">
+        <v>45.1</v>
+      </c>
+      <c r="E19">
+        <v>5.446732751863963</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.7</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.3</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>0.6</v>
+      </c>
+      <c r="L19">
+        <v>0.3</v>
+      </c>
+      <c r="M19">
+        <v>0.1</v>
+      </c>
+      <c r="N19">
+        <v>0.6</v>
+      </c>
+      <c r="O19">
+        <v>0.4</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>18</v>
+      </c>
+      <c r="U19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" t="s">
+        <v>49</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+      <c r="Z19">
+        <v>11</v>
+      </c>
+      <c r="AA19">
+        <v>5</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>9</v>
+      </c>
+      <c r="AE19">
+        <v>10</v>
+      </c>
+      <c r="AF19">
+        <v>5</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>42.003058103975533</v>
+      </c>
+      <c r="AP19">
+        <v>49.284214544760452</v>
+      </c>
+      <c r="AQ19">
+        <v>50.261547929336814</v>
+      </c>
+      <c r="AR19">
+        <v>49.672738907553089</v>
+      </c>
+      <c r="AS19">
+        <v>49.54097340313205</v>
+      </c>
+      <c r="AT19">
+        <v>49.193725087993286</v>
+      </c>
+      <c r="AU19">
+        <v>50.292746437147215</v>
+      </c>
+      <c r="AV19">
+        <v>50.427928540352404</v>
+      </c>
+      <c r="AW19">
+        <v>50.411368962128655</v>
+      </c>
+      <c r="AX19">
+        <v>51.542995516172383</v>
+      </c>
+    </row>
+    <row hidden="1" r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12.300166666666666</v>
+      </c>
+      <c r="B20">
+        <v>12.331666666666665</v>
+      </c>
+      <c r="C20">
+        <v>21.250449155587496</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>5.7277666666666773</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>0.6</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>0.1</v>
+      </c>
+      <c r="N20">
+        <v>0.6</v>
+      </c>
+      <c r="O20">
+        <v>0.4</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="U20" t="s">
+        <v>46</v>
+      </c>
+      <c r="V20" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>20</v>
+      </c>
+      <c r="Y20">
+        <v>7</v>
+      </c>
+      <c r="Z20">
+        <v>7.2</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>4</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <v>5</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>12.892561983471074</v>
+      </c>
+      <c r="AP20">
+        <v>29.608336327703917</v>
+      </c>
+    </row>
+    <row hidden="1" r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22.830833333333331</v>
+      </c>
+      <c r="B21">
+        <v>22.847333333333331</v>
+      </c>
+      <c r="C21">
+        <v>21.250449155587496</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>5.7277666666666773</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.7</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.3</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>0.6</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>0.1</v>
+      </c>
+      <c r="N21">
+        <v>0.6</v>
+      </c>
+      <c r="O21">
+        <v>0.4</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>18</v>
+      </c>
+      <c r="U21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s">
+        <v>49</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>20</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>7.2</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AE21">
+        <v>2</v>
+      </c>
+      <c r="AF21">
+        <v>5</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>12.892561983471074</v>
+      </c>
+      <c r="AP21">
+        <v>29.608336327703917</v>
+      </c>
+    </row>
+    <row hidden="1" r="22" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.11075</v>
+      </c>
+      <c r="B22">
+        <v>0.14224999999999999</v>
+      </c>
+      <c r="C22">
+        <v>21.412145167085878</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>7.7750000000000057</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.7</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.3</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>0.6</v>
+      </c>
+      <c r="L22">
+        <v>0.3</v>
+      </c>
+      <c r="M22">
+        <v>0.1</v>
+      </c>
+      <c r="N22">
+        <v>0.6</v>
+      </c>
+      <c r="O22">
+        <v>0.4</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <v>18</v>
+      </c>
+      <c r="U22" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22">
+        <v>7</v>
+      </c>
+      <c r="Z22">
+        <v>7.2</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AE22">
+        <v>2</v>
+      </c>
+      <c r="AF22">
+        <v>5</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>12.892561983471074</v>
+      </c>
+      <c r="AP22">
+        <v>29.931728350700681</v>
+      </c>
+    </row>
+    <row hidden="1" r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6.6896666666666675</v>
+      </c>
+      <c r="B23">
+        <v>6.7193333333333332</v>
+      </c>
+      <c r="C23">
+        <v>21.412145167085878</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>5.7277666666666773</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.7</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.3</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>0.6</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+      <c r="M23">
+        <v>0.1</v>
+      </c>
+      <c r="N23">
+        <v>0.6</v>
+      </c>
+      <c r="O23">
+        <v>0.4</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="U23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>20</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>7.2</v>
+      </c>
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23">
+        <v>3</v>
+      </c>
+      <c r="AE23">
+        <v>2</v>
+      </c>
+      <c r="AF23">
+        <v>5</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>12.892561983471074</v>
+      </c>
+      <c r="AP23">
+        <v>29.931728350700681</v>
+      </c>
+    </row>
+    <row hidden="1" r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12.816333333333334</v>
+      </c>
+      <c r="B24">
+        <v>12.847833333333334</v>
+      </c>
+      <c r="C24">
+        <v>21.250449155587496</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>5.7277666666666773</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.7</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.3</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>0.6</v>
+      </c>
+      <c r="L24">
+        <v>0.3</v>
+      </c>
+      <c r="M24">
+        <v>0.1</v>
+      </c>
+      <c r="N24">
+        <v>0.6</v>
+      </c>
+      <c r="O24">
+        <v>0.4</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>18</v>
+      </c>
+      <c r="U24" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>20</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
+      <c r="Z24">
+        <v>7.2</v>
+      </c>
+      <c r="AA24">
+        <v>5</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <v>5</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>12.892561983471074</v>
+      </c>
+      <c r="AP24">
+        <v>29.608336327703917</v>
+      </c>
+    </row>
+    <row hidden="1" r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5.840249475560559</v>
+      </c>
+      <c r="B25">
+        <v>5.8526081560965686</v>
+      </c>
+      <c r="C25">
+        <v>49.416675473218618</v>
+      </c>
+      <c r="D25">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E25">
+        <v>6.8832370595771959</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.7</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.3</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
+      <c r="L25">
+        <v>0.3</v>
+      </c>
+      <c r="M25">
+        <v>0.1</v>
+      </c>
+      <c r="N25">
+        <v>0.6</v>
+      </c>
+      <c r="O25">
+        <v>0.4</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25" t="s">
+        <v>45</v>
+      </c>
+      <c r="V25" t="s">
+        <v>49</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>20</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <v>11</v>
+      </c>
+      <c r="AA25">
+        <v>5</v>
+      </c>
+      <c r="AB25">
+        <v>2</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>10</v>
+      </c>
+      <c r="AF25">
+        <v>5</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>42.605504587155963</v>
+      </c>
+      <c r="AP25">
+        <v>49.590979739863116</v>
+      </c>
+      <c r="AQ25">
+        <v>50.372864176078771</v>
+      </c>
+      <c r="AR25">
+        <v>49.845933407062724</v>
+      </c>
+      <c r="AS25">
+        <v>49.61210585397842</v>
+      </c>
+      <c r="AT25">
+        <v>49.244539754318076</v>
+      </c>
+      <c r="AU25">
+        <v>50.368369351669941</v>
+      </c>
+      <c r="AV25">
+        <v>50.489109745486182</v>
+      </c>
+      <c r="AW25">
+        <v>50.464283014589164</v>
+      </c>
+      <c r="AX25">
+        <v>51.573065101983794</v>
+      </c>
+    </row>
+    <row hidden="1" r="26" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5.8573356790939144</v>
+      </c>
+      <c r="B26">
+        <v>5.8691253625971269</v>
+      </c>
+      <c r="C26">
+        <v>49.38668590961246</v>
+      </c>
+      <c r="D26">
+        <v>34.6</v>
+      </c>
+      <c r="E26">
+        <v>7.1118148291818928</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.3</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>0.6</v>
+      </c>
+      <c r="L26">
+        <v>0.3</v>
+      </c>
+      <c r="M26">
+        <v>0.1</v>
+      </c>
+      <c r="N26">
+        <v>0.6</v>
+      </c>
+      <c r="O26">
+        <v>0.4</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>20</v>
+      </c>
+      <c r="Y26">
+        <v>7</v>
+      </c>
+      <c r="Z26">
+        <v>11</v>
+      </c>
+      <c r="AA26">
+        <v>5</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>5</v>
+      </c>
+      <c r="AE26">
+        <v>10</v>
+      </c>
+      <c r="AF26">
+        <v>5</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>42.467889908256879</v>
+      </c>
+      <c r="AP26">
+        <v>49.540533907779569</v>
+      </c>
+      <c r="AQ26">
+        <v>50.354763973356498</v>
+      </c>
+      <c r="AR26">
+        <v>49.810459834873996</v>
+      </c>
+      <c r="AS26">
+        <v>49.615995909884077</v>
+      </c>
+      <c r="AT26">
+        <v>49.228689307941544</v>
+      </c>
+      <c r="AU26">
+        <v>50.350438145133623</v>
+      </c>
+      <c r="AV26">
+        <v>50.463617576680441</v>
+      </c>
+      <c r="AW26">
+        <v>50.449164713886162</v>
+      </c>
+      <c r="AX26">
+        <v>51.585305818331804</v>
+      </c>
+    </row>
+    <row hidden="1" r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5.9877963510760575</v>
+      </c>
+      <c r="B27">
+        <v>5.9972027434577431</v>
+      </c>
+      <c r="C27">
+        <v>49.38668590961246</v>
+      </c>
+      <c r="D27">
+        <v>34.6</v>
+      </c>
+      <c r="E27">
+        <v>7.1118148291818928</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.7</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.3</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
+        <v>0.3</v>
+      </c>
+      <c r="M27">
+        <v>0.1</v>
+      </c>
+      <c r="N27">
+        <v>0.6</v>
+      </c>
+      <c r="O27">
+        <v>0.4</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>18</v>
+      </c>
+      <c r="U27" t="s">
+        <v>46</v>
+      </c>
+      <c r="V27" t="s">
+        <v>49</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>20</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>11</v>
+      </c>
+      <c r="AA27">
+        <v>5</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>10</v>
+      </c>
+      <c r="AF27">
+        <v>5</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>42.467889908256879</v>
+      </c>
+      <c r="AP27">
+        <v>49.540533907779569</v>
+      </c>
+      <c r="AQ27">
+        <v>50.354763973356498</v>
+      </c>
+      <c r="AR27">
+        <v>49.810459834873996</v>
+      </c>
+      <c r="AS27">
+        <v>49.615995909884077</v>
+      </c>
+      <c r="AT27">
+        <v>49.228689307941544</v>
+      </c>
+      <c r="AU27">
+        <v>50.350438145133623</v>
+      </c>
+      <c r="AV27">
+        <v>50.463617576680441</v>
+      </c>
+      <c r="AW27">
+        <v>50.449164713886162</v>
+      </c>
+      <c r="AX27">
+        <v>51.585305818331804</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.10241451680951488</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.11323110439032069</v>
+      </c>
+      <c r="C28" t="n">
+        <v>49.392172044503496</v>
+      </c>
+      <c r="D28" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.016448804442026</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>47</v>
+      </c>
+      <c r="V28" t="s">
+        <v>49</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>42.415902140672785</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>49.54598751124806</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>50.39096437880104</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>49.810459834873996</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>49.60377001989485</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>49.249667839910494</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>50.37265724888515</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>50.48537089406134</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>50.45551440018142</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>51.591426176505806</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:AN3"/>
+  <autoFilter ref="A3:AN27">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="HEURISTIC_VERSION_3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="22">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="30">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="AO1:AZ1"/>
     <mergeCell ref="A1:E1"/>
@@ -2280,7 +4019,7 @@
     <mergeCell ref="U1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C7 C1 C9:C1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2292,7 +4031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2303,57 +4042,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.28515625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.7109375" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.7109375" style="20" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="9.140625" style="20" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="20" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9" style="20" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.28515625" style="20" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="1" collapsed="1"/>
-    <col min="35" max="16384" width="9.140625" style="20" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="20" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="20" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="20" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="20" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" style="20" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" style="20" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" hidden="true" style="20" width="10.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" style="20" width="10.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="20" width="8.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" style="20" width="10.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" hidden="true" style="20" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" hidden="true" style="20" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" hidden="true" style="20" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" hidden="true" style="1" width="12.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" hidden="true" style="20" width="13.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="20" width="12.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="20" width="14.5703125" collapsed="true"/>
+    <col min="22" max="23" style="20" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="20" width="11.140625" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="20" width="14.85546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="20" width="10.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="20" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="20" width="9.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="20" width="11.28515625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="20" width="12.140625" collapsed="true"/>
+    <col min="34" max="34" style="1" width="9.140625" collapsed="true"/>
+    <col min="35" max="16384" style="20" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>25</v>
       </c>
@@ -2404,7 +4143,7 @@
       <c r="AF1" s="27"/>
       <c r="AG1" s="27"/>
     </row>
-    <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>0</v>
       </c>
@@ -2505,7 +4244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="57.75" r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
@@ -4331,6 +6070,80 @@
         <v>0</v>
       </c>
       <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48.572</v>
+      </c>
+      <c r="B25" t="n">
+        <v>48.654</v>
+      </c>
+      <c r="C25" t="n">
+        <v>532.812</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4346,7 +6159,7 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="53">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -618,7 +618,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BB28"/>
+  <dimension ref="A1:BB44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="AB37" sqref="AB37"/>
@@ -3987,6 +3987,1850 @@
       </c>
       <c r="AX28" t="n">
         <v>51.591426176505806</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.5925646118149832</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.6066484280472824</v>
+      </c>
+      <c r="C29" t="n">
+        <v>49.412109630608725</v>
+      </c>
+      <c r="D29" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.882708827280152</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U29" t="s">
+        <v>45</v>
+      </c>
+      <c r="V29" t="s">
+        <v>49</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>42.58103975535168</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>49.60325034766722</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>50.345713871995365</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>49.853584569691655</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>49.5954341858113</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>49.240810237523604</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>50.3570648953753</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>50.49488797041549</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>50.46639957668758</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>51.582910895568055</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.1838990707593484</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.1994345675928555</v>
+      </c>
+      <c r="C30" t="n">
+        <v>49.21159120848249</v>
+      </c>
+      <c r="D30" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.909051962283855</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U30" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" t="s">
+        <v>49</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>41.715596330275226</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>49.27194393695634</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>50.16923689545323</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>49.6595232630122</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>49.463728007291074</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>49.190461760798115</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>50.27442542177316</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>50.43472645203394</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>50.404716909819335</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>51.531553107412286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.10852129685845631</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.12053781858556818</v>
+      </c>
+      <c r="C31" t="n">
+        <v>49.392172044503496</v>
+      </c>
+      <c r="D31" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.016448804442026</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U31" t="s">
+        <v>47</v>
+      </c>
+      <c r="V31" t="s">
+        <v>49</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>42.415902140672785</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>49.54598751124806</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>50.39096437880104</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>49.810459834873996</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>49.60377001989485</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>49.249667839910494</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>50.37265724888515</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>50.48537089406134</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>50.45551440018142</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>51.591426176505806</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.09770196833290642</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.10961910682574916</v>
+      </c>
+      <c r="C32" t="n">
+        <v>49.19882079775679</v>
+      </c>
+      <c r="D32" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.96671446410446</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>47</v>
+      </c>
+      <c r="V32" t="s">
+        <v>49</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>41.782874617737</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>49.19013988492897</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>50.17647697654214</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>49.66021882325119</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>49.48373400909162</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>49.11400666651127</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>50.26312096547853</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>50.40209647596259</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>50.38717968100386</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>51.52835987706064</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.09582224036721305</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.10794204875396037</v>
+      </c>
+      <c r="C33" t="n">
+        <v>49.04412740814528</v>
+      </c>
+      <c r="D33" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.360824991652946</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U33" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" t="s">
+        <v>49</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>41.162079510703364</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>49.00471736700025</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>50.02443527367506</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>49.544060263339105</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>49.36869949873851</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>49.049206312207176</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>50.180871300714124</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>50.31542310202306</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>50.33819638672613</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>51.453585066326056</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.09475856818776289</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.10634327749215296</v>
+      </c>
+      <c r="C34" t="n">
+        <v>48.99769098310232</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.008899266860702</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U34" t="s">
+        <v>47</v>
+      </c>
+      <c r="V34" t="s">
+        <v>49</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>41.19571865443425</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>48.95699833665094</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>49.926694178974806</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>49.46407083585474</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>49.32924321740967</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>49.01470828185823</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>50.106807621542394</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>50.2872117685447</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>50.27832791594224</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>51.417129019811334</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.07787530464476247</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.08957207337529129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>48.73203386341108</v>
+      </c>
+      <c r="D35" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.3853794577311214</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U35" t="s">
+        <v>47</v>
+      </c>
+      <c r="V35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>40.32415902140673</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>48.406184386333265</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>49.63709093541848</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>49.180977818583976</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>49.1252931434986</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>48.849210974103165</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>50.03859107493685</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>50.19883891668479</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>50.20273641242724</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>51.35725595071781</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.1229938101409865</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1498217646372369</v>
+      </c>
+      <c r="C36" t="n">
+        <v>48.62958229535274</v>
+      </c>
+      <c r="D36" t="n">
+        <v>92.6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.62624331514571</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U36" t="s">
+        <v>47</v>
+      </c>
+      <c r="V36" t="s">
+        <v>49</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>40.03363914373089</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>48.20985466146757</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>49.48776426295974</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>49.13646196328833</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>49.05082635901882</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>48.77788396540873</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>49.979340131599464</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>50.165529149445284</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>50.14649633381209</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>51.30802698279647</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.25507616390817595</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.3705772831669031</v>
+      </c>
+      <c r="C37" t="n">
+        <v>48.558587271961045</v>
+      </c>
+      <c r="D37" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.747529877115427</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U37" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" t="s">
+        <v>49</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>39.825688073394495</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>48.173042838055245</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>49.43527367506516</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>49.05855921652095</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>48.99025263134496</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>48.699097923125336</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>49.92866498269249</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>50.08769306069175</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>50.12321415072945</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>51.26438616799053</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.9733303344928661</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.6058117464301653</v>
+      </c>
+      <c r="C38" t="n">
+        <v>48.60814124348245</v>
+      </c>
+      <c r="D38" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.0071225932090258</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" t="s">
+        <v>49</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>39.87155963302752</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>48.2712077004881</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>49.508579496090356</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>49.09751058990464</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>49.05082635901882</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>48.75737162303909</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>49.960629307387656</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>50.12950021753318</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>50.13923954947464</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>51.29498795886055</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2.5708296950484844</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.5834069232692674</v>
+      </c>
+      <c r="C39" t="n">
+        <v>49.0699759643418</v>
+      </c>
+      <c r="D39" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.277087392235982</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" t="s">
+        <v>49</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>41.403669724770644</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>48.93245712104273</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>50.05701563857515</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>49.55032030549006</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>49.36536516510508</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>49.087900048949905</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>50.18632862444258</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>50.316102893191214</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>50.32519464812155</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>51.47540547372903</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.5925</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.62125</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.0311986863711</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.391667499999997</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U40" t="s">
+        <v>45</v>
+      </c>
+      <c r="V40" t="s">
+        <v>49</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>9.0311986863711</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2.9916666666666667</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.011777777777778</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19.705400981996725</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.7981411111111165</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U41" t="s">
+        <v>45</v>
+      </c>
+      <c r="V41" t="s">
+        <v>49</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>19.705400981996725</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2.3744285714285716</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2.3977142857142857</v>
+      </c>
+      <c r="C42" t="n">
+        <v>20.654664484451718</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.883328571428576</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U42" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" t="s">
+        <v>49</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>20.654664484451718</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2.307</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.3297142857142856</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20.78559738134206</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.764281428571427</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U43" t="s">
+        <v>45</v>
+      </c>
+      <c r="V43" t="s">
+        <v>49</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>20.78559738134206</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2.0325001086513312</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.039552501869406</v>
+      </c>
+      <c r="C44" t="n">
+        <v>49.39480212386825</v>
+      </c>
+      <c r="D44" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6.921283221730198</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V44" t="s">
+        <v>49</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>42.42201834862385</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>49.54598751124806</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>50.426259774109475</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>49.790984148182154</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>49.601547130805905</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>49.251066408708425</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>50.36603049864347</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>50.51188274961932</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>50.452793106054884</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>51.579451562687105</v>
       </c>
     </row>
   </sheetData>
@@ -4049,7 +5893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="X36" sqref="X36"/>
@@ -6147,6 +7991,1887 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.997</v>
+      </c>
+      <c r="C26" t="n">
+        <v>518.068</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>45</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20.626</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20.704</v>
+      </c>
+      <c r="C27" t="n">
+        <v>513.789</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="C28" t="n">
+        <v>516.593</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>47</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="C29" t="n">
+        <v>516.593</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>47</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="C30" t="n">
+        <v>501.133</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>47</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C31" t="n">
+        <v>511.476</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C32" t="n">
+        <v>511.476</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>47</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="C33" t="n">
+        <v>511.478</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>47</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="C34" t="n">
+        <v>506.85</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>47</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>515.056</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="C36" t="n">
+        <v>506.85</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>47</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="C37" t="n">
+        <v>516.593</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2.508</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.131</v>
+      </c>
+      <c r="C38" t="n">
+        <v>493.719</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>47</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.655</v>
+      </c>
+      <c r="C39" t="n">
+        <v>531.8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="C40" t="n">
+        <v>517.834</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4.895</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.961</v>
+      </c>
+      <c r="C41" t="n">
+        <v>506.878</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17.683</v>
+      </c>
+      <c r="B42" t="n">
+        <v>17.755</v>
+      </c>
+      <c r="C42" t="n">
+        <v>501.821</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="C43" t="n">
+        <v>500.467</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>47</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="C44" t="n">
+        <v>498.427</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>47</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="C45" t="n">
+        <v>493.719</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>47</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="C46" t="n">
+        <v>516.593</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>47</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5.001</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5.069</v>
+      </c>
+      <c r="C47" t="n">
+        <v>518.068</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>45</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4.914</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.979</v>
+      </c>
+      <c r="C48" t="n">
+        <v>518.068</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C49" t="n">
+        <v>518.068</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>45</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:AH3"/>
   <mergeCells count="8">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="54">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Average time to generating new routes (min)</t>
+  </si>
+  <si>
+    <t>EXACT_METHOD</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BB44"/>
+  <dimension ref="A1:BB70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="AB37" sqref="AB37"/>
@@ -5831,6 +5834,2566 @@
       </c>
       <c r="AX44" t="n">
         <v>51.579451562687105</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.06855000000000001</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.08585000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>29.803976335381606</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.136111111111111</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V45" t="s">
+        <v>49</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>20.78559738134206</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>38.822355289421154</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.06885714285714287</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.08800000000000002</v>
+      </c>
+      <c r="C46" t="n">
+        <v>29.544728639517785</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.872619047619046</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U46" t="s">
+        <v>47</v>
+      </c>
+      <c r="V46" t="s">
+        <v>49</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>20.523731587561375</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.06591964285714286</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.08251785714285716</v>
+      </c>
+      <c r="C47" t="n">
+        <v>29.495628803183905</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.758035714285715</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U47" t="s">
+        <v>47</v>
+      </c>
+      <c r="V47" t="s">
+        <v>49</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>20.425531914893615</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.06767857142857144</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.08349107142857144</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29.495628803183905</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.758035714285715</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U48" t="s">
+        <v>47</v>
+      </c>
+      <c r="V48" t="s">
+        <v>49</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>20.425531914893615</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.06715178571428572</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.08650892857142858</v>
+      </c>
+      <c r="C49" t="n">
+        <v>29.495628803183905</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.758035714285715</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U49" t="s">
+        <v>47</v>
+      </c>
+      <c r="V49" t="s">
+        <v>49</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>20.425531914893615</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7.731666666666667</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7.75375</v>
+      </c>
+      <c r="C50" t="n">
+        <v>29.904285420274718</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.254163333333333</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U50" t="s">
+        <v>45</v>
+      </c>
+      <c r="V50" t="s">
+        <v>49</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>21.01472995090016</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>38.793840889649275</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.06736111111111112</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.09684027777777776</v>
+      </c>
+      <c r="C51" t="n">
+        <v>29.39793781620766</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.6912037037037084</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U51" t="s">
+        <v>47</v>
+      </c>
+      <c r="V51" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>20.458265139116204</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>38.33761049329912</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.06391964285714286</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.07963392857142858</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29.495628803183905</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.758035714285715</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U52" t="s">
+        <v>47</v>
+      </c>
+      <c r="V52" t="s">
+        <v>49</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>20.425531914893615</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.07395000000000002</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.08681666666666668</v>
+      </c>
+      <c r="C53" t="n">
+        <v>29.803976335381606</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.136111111111111</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U53" t="s">
+        <v>47</v>
+      </c>
+      <c r="V53" t="s">
+        <v>49</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>20.78559738134206</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>38.822355289421154</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.06426785714285715</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.08525</v>
+      </c>
+      <c r="C54" t="n">
+        <v>29.495628803183905</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.758035714285715</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U54" t="s">
+        <v>47</v>
+      </c>
+      <c r="V54" t="s">
+        <v>49</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>20.425531914893615</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.06779166666666668</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.08880555555555555</v>
+      </c>
+      <c r="C55" t="n">
+        <v>29.39793781620766</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.6912037037037084</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U55" t="s">
+        <v>47</v>
+      </c>
+      <c r="V55" t="s">
+        <v>49</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>20.458265139116204</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>38.33761049329912</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.053787878787878794</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.06898484848484851</v>
+      </c>
+      <c r="C56" t="n">
+        <v>28.55632900670485</v>
+      </c>
+      <c r="D56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.7627525252525276</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U56" t="s">
+        <v>47</v>
+      </c>
+      <c r="V56" t="s">
+        <v>49</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>19.345335515548282</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>37.76732249786142</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.05653787878787879</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.07165530303030304</v>
+      </c>
+      <c r="C57" t="n">
+        <v>28.55632900670485</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.7627525252525276</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>47</v>
+      </c>
+      <c r="V57" t="s">
+        <v>49</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>19.345335515548282</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>37.76732249786142</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.05384848484848486</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.07052651515151517</v>
+      </c>
+      <c r="C58" t="n">
+        <v>28.55632900670485</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.7627525252525276</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U58" t="s">
+        <v>47</v>
+      </c>
+      <c r="V58" t="s">
+        <v>49</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>19.345335515548282</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>37.76732249786142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.06385</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.08416666666666667</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.803976335381606</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.136111111111111</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U59" t="s">
+        <v>47</v>
+      </c>
+      <c r="V59" t="s">
+        <v>49</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>20.78559738134206</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>38.822355289421154</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.06425</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.08141071428571428</v>
+      </c>
+      <c r="C60" t="n">
+        <v>29.495628803183905</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.758035714285715</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U60" t="s">
+        <v>47</v>
+      </c>
+      <c r="V60" t="s">
+        <v>49</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>20.425531914893615</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.06390178571428572</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.08070535714285715</v>
+      </c>
+      <c r="C61" t="n">
+        <v>29.495628803183905</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.758035714285715</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>47</v>
+      </c>
+      <c r="V61" t="s">
+        <v>49</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>20.425531914893615</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.06738194444444445</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.08388888888888889</v>
+      </c>
+      <c r="C62" t="n">
+        <v>29.39793781620766</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.6912037037037084</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U62" t="s">
+        <v>47</v>
+      </c>
+      <c r="V62" t="s">
+        <v>49</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>20.458265139116204</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>38.33761049329912</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3.18175</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.1954761904761906</v>
+      </c>
+      <c r="C63" t="n">
+        <v>29.991137668548802</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.40416190476191</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U63" t="s">
+        <v>45</v>
+      </c>
+      <c r="V63" t="s">
+        <v>49</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>21.145662847790508</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>38.8366124893071</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7.183678571428571</v>
+      </c>
+      <c r="B64" t="n">
+        <v>7.200553571428571</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29.610195087962957</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.609368303571433</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U64" t="s">
+        <v>45</v>
+      </c>
+      <c r="V64" t="s">
+        <v>49</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>20.654664484451718</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>14.241161111111111</v>
+      </c>
+      <c r="B65" t="n">
+        <v>14.257522222222224</v>
+      </c>
+      <c r="C65" t="n">
+        <v>28.86045771445185</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.1948225555555583</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U65" t="s">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s">
+        <v>49</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>19.639934533551553</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>38.08098089535215</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>18.746791666666667</v>
+      </c>
+      <c r="B66" t="n">
+        <v>18.793083333333332</v>
+      </c>
+      <c r="C66" t="n">
+        <v>28.349891285934092</v>
+      </c>
+      <c r="D66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.749305833333331</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U66" t="s">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s">
+        <v>49</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>19.018003273322424</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>37.68177929854576</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4.333916666666667</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.355666666666666</v>
+      </c>
+      <c r="C67" t="n">
+        <v>29.729271874768116</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6.043061666666668</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U67" t="s">
+        <v>46</v>
+      </c>
+      <c r="V67" t="s">
+        <v>49</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>20.621931260229132</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>38.8366124893071</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6.12725</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6.144500000000001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>29.610195087962957</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.414583750000006</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U68" t="s">
+        <v>46</v>
+      </c>
+      <c r="V68" t="s">
+        <v>49</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>20.654664484451718</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>38.56572569147419</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>13.06741111111111</v>
+      </c>
+      <c r="B69" t="n">
+        <v>13.088244444444445</v>
+      </c>
+      <c r="C69" t="n">
+        <v>28.84620051456591</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.5651908888888917</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U69" t="s">
+        <v>46</v>
+      </c>
+      <c r="V69" t="s">
+        <v>49</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>19.639934533551553</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>38.05246649558027</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>16.030499999999996</v>
+      </c>
+      <c r="B70" t="n">
+        <v>16.04720833333333</v>
+      </c>
+      <c r="C70" t="n">
+        <v>28.349891285934092</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.749305833333331</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U70" t="s">
+        <v>46</v>
+      </c>
+      <c r="V70" t="s">
+        <v>49</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>19.018003273322424</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>37.68177929854576</v>
       </c>
     </row>
   </sheetData>
@@ -5893,7 +8456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="X36" sqref="X36"/>
@@ -9872,6 +12435,2809 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.274</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.274</v>
+      </c>
+      <c r="C50" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>53</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="C51" t="n">
+        <v>58.3707</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>45</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="C52" t="n">
+        <v>60.7007</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>46</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="C53" t="n">
+        <v>58.0573</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>45</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="C54" t="n">
+        <v>56.0029</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S54" t="s">
+        <v>45</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="C55" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>45</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="C56" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S56" t="s">
+        <v>45</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="C57" t="n">
+        <v>59.072</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>45</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="C58" t="n">
+        <v>59.072</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S58" t="s">
+        <v>45</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C59" t="n">
+        <v>56.8071</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>45</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="C60" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>45</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="C61" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>47</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="C62" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>45</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="C63" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>53</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C64" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S64" t="s">
+        <v>47</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="C65" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>47</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C66" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>47</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="C67" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>47</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="C68" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>46</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.477</v>
+      </c>
+      <c r="C69" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S69" t="s">
+        <v>46</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="C70" t="n">
+        <v>55.9589</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S70" t="s">
+        <v>46</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="C71" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S71" t="s">
+        <v>46</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="C72" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>46</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.251</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="C73" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>46</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.309</v>
+      </c>
+      <c r="C74" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S74" t="s">
+        <v>46</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="C75" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S75" t="s">
+        <v>46</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="C76" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H76" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S76" t="s">
+        <v>46</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="C77" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S77" t="s">
+        <v>46</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="C78" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>46</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="C79" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S79" t="s">
+        <v>46</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="C80" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S80" t="s">
+        <v>46</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="C81" t="n">
+        <v>56.2089</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S81" t="s">
+        <v>46</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9.47</v>
+      </c>
+      <c r="B82" t="n">
+        <v>9.547</v>
+      </c>
+      <c r="C82" t="n">
+        <v>539.075</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H82" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>45</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>8.811</v>
+      </c>
+      <c r="B83" t="n">
+        <v>8.88</v>
+      </c>
+      <c r="C83" t="n">
+        <v>539.075</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S83" t="s">
+        <v>45</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>8.741</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8.817</v>
+      </c>
+      <c r="C84" t="n">
+        <v>539.075</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H84" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S84" t="s">
+        <v>45</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8.824</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8.895</v>
+      </c>
+      <c r="C85" t="n">
+        <v>539.075</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S85" t="s">
+        <v>45</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8.642</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.736</v>
+      </c>
+      <c r="C86" t="n">
+        <v>539.075</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S86" t="s">
+        <v>45</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>9.148</v>
+      </c>
+      <c r="B87" t="n">
+        <v>9.233</v>
+      </c>
+      <c r="C87" t="n">
+        <v>539.075</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S87" t="s">
+        <v>45</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:AH3"/>
   <mergeCells count="8">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="13215" windowWidth="28200" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="13215"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
-    <sheet name="One route" r:id="rId2" sheetId="3"/>
+    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
+    <sheet name="One route" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$3:$AH$3</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$3:$AN$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$3:$AH$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$3:$AN$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="53">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -173,9 +173,6 @@
     <t>T-test</t>
   </si>
   <si>
-    <t>EVERY_VEHICLE_ARRIVAL</t>
-  </si>
-  <si>
     <t>Computational time Xpress (sek)</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Average time to generating new routes (min)</t>
+  </si>
+  <si>
+    <t>EVERY_VEHICLE_ARRIVAL</t>
   </si>
 </sst>
 </file>
@@ -252,97 +252,97 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -359,10 +359,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -397,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -432,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -526,21 +526,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -557,7 +557,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -609,65 +609,65 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BB44"/>
+  <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="true" style="9" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="15.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" style="9" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" hidden="true" style="9" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" hidden="true" width="9.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" width="10.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" hidden="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="17" max="18" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" hidden="true" width="25.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" hidden="true" width="12.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="7" width="12.42578125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="8" width="12.42578125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="11" width="13.85546875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="9" width="17.42578125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
-    <col min="42" max="50" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" style="9" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="9.5703125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="25.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.85546875" style="11" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="7.85546875" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="50" width="0" hidden="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57" r="1" s="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="AY1" s="27"/>
       <c r="AZ1" s="27"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="2" s="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -894,12 +894,12 @@
       <c r="AZ2" s="25"/>
       <c r="BA2" s="25"/>
     </row>
-    <row ht="60" r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>28</v>
@@ -908,7 +908,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>1</v>
@@ -1047,21 +1047,21 @@
       </c>
       <c r="AY3" s="20"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>0.11112485827213767</v>
+    <row r="4" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.12214318269213584</v>
       </c>
       <c r="B4" s="9">
-        <v>0.12301523528780882</v>
+        <v>0.12903043525145302</v>
       </c>
       <c r="C4" s="9">
-        <v>49.34002731186736</v>
+        <v>49.382096524495054</v>
       </c>
       <c r="D4">
-        <v>35.299999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="E4">
-        <v>6.910226522478359</v>
+        <v>7.0798453551343403</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE4">
         <v>10</v>
@@ -1139,51 +1139,51 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>42.155963302752291</v>
+        <v>42.348623853211009</v>
       </c>
       <c r="AP4">
-        <v>49.514629291304232</v>
+        <v>49.545987511248057</v>
       </c>
       <c r="AQ4">
-        <v>50.34209383145091</v>
+        <v>50.38010425716768</v>
       </c>
       <c r="AR4">
-        <v>49.763161738622372</v>
+        <v>49.818806557741937</v>
       </c>
       <c r="AS4">
-        <v>49.563202294021544</v>
+        <v>49.605437186711569</v>
       </c>
       <c r="AT4">
-        <v>49.222162653551202</v>
+        <v>49.218899326356031</v>
       </c>
       <c r="AU4">
-        <v>50.341862350703217</v>
+        <v>50.376555337262609</v>
       </c>
       <c r="AV4">
-        <v>50.478233086795733</v>
+        <v>50.484691102893187</v>
       </c>
       <c r="AW4">
-        <v>50.441907929548726</v>
+        <v>50.459747524378265</v>
       </c>
       <c r="AX4">
-        <v>51.577056639923356</v>
+        <v>51.582112587980141</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>0.13246272979157742</v>
+    <row r="5" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.10794807033774752</v>
       </c>
       <c r="B5" s="9">
-        <v>0.15631802698708222</v>
+        <v>0.11652646183967559</v>
       </c>
       <c r="C5" s="9">
-        <v>49.265066753665153</v>
+        <v>49.359403000925873</v>
       </c>
       <c r="D5">
-        <v>47.1</v>
+        <v>36.9</v>
       </c>
       <c r="E5">
-        <v>5.1626436345377904</v>
+        <v>6.6918894365497632</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE5">
         <v>10</v>
@@ -1261,51 +1261,51 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>42.045871559633028</v>
+        <v>42.198776758409785</v>
       </c>
       <c r="AP5">
-        <v>49.280124342159084</v>
+        <v>49.506448886101488</v>
       </c>
       <c r="AQ5">
-        <v>50.262452939472922</v>
+        <v>50.337568780770347</v>
       </c>
       <c r="AR5">
-        <v>49.70543023878583</v>
+        <v>49.830631081804839</v>
       </c>
       <c r="AS5">
-        <v>49.507074344525584</v>
+        <v>49.600991408533673</v>
       </c>
       <c r="AT5">
-        <v>49.162024195240207</v>
+        <v>49.23661453112981</v>
       </c>
       <c r="AU5">
-        <v>50.298593569713411</v>
+        <v>50.36525088096797</v>
       </c>
       <c r="AV5">
-        <v>50.433026974113545</v>
+        <v>50.498626821840332</v>
       </c>
       <c r="AW5">
-        <v>50.418928112480152</v>
+        <v>50.454304936125183</v>
       </c>
       <c r="AX5">
-        <v>51.537141260527683</v>
+        <v>51.56481592357536</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>0.21875392473299132</v>
+    <row r="6" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.12530352879637388</v>
       </c>
       <c r="B6" s="9">
-        <v>0.30030807117427744</v>
+        <v>0.14644406532379337</v>
       </c>
       <c r="C6" s="9">
-        <v>49.281924974912741</v>
+        <v>49.269637884921018</v>
       </c>
       <c r="D6">
-        <v>45.9</v>
+        <v>45.1</v>
       </c>
       <c r="E6">
-        <v>5.2937821570624539</v>
+        <v>5.4205408814274048</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="AC6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE6">
         <v>10</v>
@@ -1383,51 +1383,51 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>42.137614678899084</v>
+        <v>42.064220183486242</v>
       </c>
       <c r="AP6">
-        <v>49.35374798898372</v>
+        <v>49.374199001990569</v>
       </c>
       <c r="AQ6">
-        <v>50.19638719953663</v>
+        <v>50.231682594845061</v>
       </c>
       <c r="AR6">
-        <v>49.737426009779576</v>
+        <v>49.697083515917896</v>
       </c>
       <c r="AS6">
-        <v>49.538750514043102</v>
+        <v>49.526524624053877</v>
       </c>
       <c r="AT6">
-        <v>49.174145124822267</v>
+        <v>49.159227057644344</v>
       </c>
       <c r="AU6">
-        <v>50.305999937630588</v>
+        <v>50.285340069230045</v>
       </c>
       <c r="AV6">
-        <v>50.433706765281705</v>
+        <v>50.424529584511632</v>
       </c>
       <c r="AW6">
-        <v>50.399274321566253</v>
+        <v>50.411066596114594</v>
       </c>
       <c r="AX6">
-        <v>51.542197208584476</v>
+        <v>51.522505621415924</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>0.57990543577198772</v>
+    <row r="7" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.25073365142833803</v>
       </c>
       <c r="B7" s="9">
-        <v>0.81702272896908601</v>
+        <v>0.34572234648047717</v>
       </c>
       <c r="C7" s="9">
-        <v>49.267974428199963</v>
+        <v>49.264818371547776</v>
       </c>
       <c r="D7">
-        <v>47.6</v>
+        <v>45.4</v>
       </c>
       <c r="E7">
-        <v>5.1352392923320185</v>
+        <v>5.3977338271491453</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>47</v>
       </c>
       <c r="V7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="AC7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE7">
         <v>10</v>
@@ -1505,51 +1505,51 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>41.960244648318039</v>
+        <v>42.048929663608561</v>
       </c>
       <c r="AP7">
-        <v>49.267853734354979</v>
+        <v>49.247402721348131</v>
       </c>
       <c r="AQ7">
-        <v>50.267883000289601</v>
+        <v>50.231682594845061</v>
       </c>
       <c r="AR7">
-        <v>49.726992606194656</v>
+        <v>49.715863642370749</v>
       </c>
       <c r="AS7">
-        <v>49.547642070398894</v>
+        <v>49.53097040223178</v>
       </c>
       <c r="AT7">
-        <v>49.197454604787765</v>
+        <v>49.165753712034679</v>
       </c>
       <c r="AU7">
-        <v>50.305610128792843</v>
+        <v>50.296254716686938</v>
       </c>
       <c r="AV7">
-        <v>50.435746138786165</v>
+        <v>50.452740917989992</v>
       </c>
       <c r="AW7">
-        <v>50.426789628845711</v>
+        <v>50.417718648423914</v>
       </c>
       <c r="AX7">
-        <v>51.543527721230987</v>
+        <v>51.54086669593795</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>1.8904670796001732</v>
+    <row r="8" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59688172803427442</v>
       </c>
       <c r="B8" s="9">
-        <v>2.5892789131377874</v>
+        <v>0.87271325331249583</v>
       </c>
       <c r="C8" s="9">
-        <v>49.282103714474154</v>
+        <v>49.292383000949158</v>
       </c>
       <c r="D8">
-        <v>50.9</v>
+        <v>45.6</v>
       </c>
       <c r="E8">
-        <v>4.7765860085833776</v>
+        <v>5.3261159844669326</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1612,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="AC8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AE8">
         <v>10</v>
@@ -1627,51 +1627,51 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>42.018348623853214</v>
+        <v>42.180428134556571</v>
       </c>
       <c r="AP8">
-        <v>49.325116570774142</v>
+        <v>49.319662967305646</v>
       </c>
       <c r="AQ8">
-        <v>50.274218071242395</v>
+        <v>50.254307848247905</v>
       </c>
       <c r="AR8">
-        <v>49.734643768823602</v>
+        <v>49.742294931452541</v>
       </c>
       <c r="AS8">
-        <v>49.528191790870594</v>
+        <v>49.519855956787033</v>
       </c>
       <c r="AT8">
-        <v>49.198853173585697</v>
+        <v>49.181137968811917</v>
       </c>
       <c r="AU8">
-        <v>50.306779555306079</v>
+        <v>50.307169364143824</v>
       </c>
       <c r="AV8">
-        <v>50.45885903850337</v>
+        <v>50.450021753317372</v>
       </c>
       <c r="AW8">
-        <v>50.425580164789473</v>
+        <v>50.419835210522336</v>
       </c>
       <c r="AX8">
-        <v>51.55044638699291</v>
+        <v>51.549115874346384</v>
       </c>
     </row>
-    <row hidden="1" r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>1.5575755344315407</v>
+    <row r="9" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.5601196062493279</v>
       </c>
       <c r="B9" s="9">
-        <v>1.5697160593636135</v>
+        <v>1.5684489075763071</v>
       </c>
       <c r="C9" s="9">
-        <v>49.4125014109825</v>
+        <v>49.416384156060033</v>
       </c>
       <c r="D9">
-        <v>35.700000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E9">
-        <v>6.8963638131344283</v>
+        <v>6.8448786818174181</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1749,51 +1749,51 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>42.581039755351682</v>
+        <v>42.501529051987767</v>
       </c>
       <c r="AP9">
-        <v>49.60325034766722</v>
+        <v>49.599160145065852</v>
       </c>
       <c r="AQ9">
-        <v>50.345713871995365</v>
+        <v>50.407254561251094</v>
       </c>
       <c r="AR9">
-        <v>49.859149051603616</v>
+        <v>49.843846726345738</v>
       </c>
       <c r="AS9">
-        <v>49.5954341858113</v>
+        <v>49.638780523045803</v>
       </c>
       <c r="AT9">
-        <v>49.240810237523604</v>
+        <v>49.283699680660128</v>
       </c>
       <c r="AU9">
-        <v>50.355115851186582</v>
+        <v>50.348878909782648</v>
       </c>
       <c r="AV9">
-        <v>50.49488797041549</v>
+        <v>50.491828910158802</v>
       </c>
       <c r="AW9">
-        <v>50.46670194270164</v>
+        <v>50.464887746617279</v>
       </c>
       <c r="AX9">
-        <v>51.582910895568055</v>
+        <v>51.583975305685279</v>
       </c>
     </row>
-    <row hidden="1" r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2.0472493677323937</v>
+    <row r="10" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.7301146820850382</v>
       </c>
       <c r="B10" s="9">
-        <v>2.058478510987491</v>
+        <v>2.7372900974113974</v>
       </c>
       <c r="C10" s="9">
-        <v>49.393507691030869</v>
+        <v>49.39270084317927</v>
       </c>
       <c r="D10">
-        <v>36.200000000000003</v>
+        <v>36.9</v>
       </c>
       <c r="E10">
-        <v>6.7687360612478589</v>
+        <v>6.6483537405976305</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -1856,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="AC10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE10">
         <v>10</v>
@@ -1871,51 +1871,51 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>42.525993883792054</v>
+        <v>42.535168195718654</v>
       </c>
       <c r="AP10">
-        <v>49.533716903443953</v>
+        <v>49.569165325989147</v>
       </c>
       <c r="AQ10">
-        <v>50.354763973356498</v>
+        <v>50.366529105125977</v>
       </c>
       <c r="AR10">
-        <v>49.814633196307966</v>
+        <v>49.777768503641255</v>
       </c>
       <c r="AS10">
-        <v>49.603770019894853</v>
+        <v>49.57709535082747</v>
       </c>
       <c r="AT10">
-        <v>49.241276427122912</v>
+        <v>49.230087876739468</v>
       </c>
       <c r="AU10">
-        <v>50.352387189322357</v>
+        <v>50.351607571646859</v>
       </c>
       <c r="AV10">
-        <v>50.479592669132046</v>
+        <v>50.495227865999567</v>
       </c>
       <c r="AW10">
-        <v>50.4518860080127</v>
+        <v>50.449164713886162</v>
       </c>
       <c r="AX10">
-        <v>51.577056639923356</v>
+        <v>51.575193922218233</v>
       </c>
     </row>
-    <row hidden="1" r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2.5837133164051429</v>
+    <row r="11" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6.0468491853727926</v>
       </c>
       <c r="B11" s="9">
-        <v>2.5947944362514175</v>
+        <v>6.055926897876696</v>
       </c>
       <c r="C11" s="9">
-        <v>49.370781909434449</v>
+        <v>49.324963067692899</v>
       </c>
       <c r="D11">
-        <v>35.4</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E11">
-        <v>6.9024514891936963</v>
+        <v>6.3358526644121023</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>45</v>
       </c>
       <c r="V11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="AC11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE11">
         <v>10</v>
@@ -1993,51 +1993,51 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>42.296636085626908</v>
+        <v>42.214067278287459</v>
       </c>
       <c r="AP11">
-        <v>49.528263299975464</v>
+        <v>49.443732446213836</v>
       </c>
       <c r="AQ11">
-        <v>50.38734433825659</v>
+        <v>50.290508253692444</v>
       </c>
       <c r="AR11">
-        <v>49.777768503641255</v>
+        <v>49.755510575993434</v>
       </c>
       <c r="AS11">
-        <v>49.599324241716957</v>
+        <v>49.579873962188657</v>
       </c>
       <c r="AT11">
-        <v>49.245472133516699</v>
+        <v>49.202116500780868</v>
       </c>
       <c r="AU11">
-        <v>50.340303115352235</v>
+        <v>50.325880188355633</v>
       </c>
       <c r="AV11">
-        <v>50.491149118990641</v>
+        <v>50.457499456167064</v>
       </c>
       <c r="AW11">
-        <v>50.452793106054884</v>
+        <v>50.418021014437976</v>
       </c>
       <c r="AX11">
-        <v>51.588765151212769</v>
+        <v>51.562421000811611</v>
       </c>
     </row>
-    <row hidden="1" r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>3.7967190429599631</v>
+    <row r="12" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.5811182806259274</v>
       </c>
       <c r="B12" s="9">
-        <v>3.809955058479531</v>
+        <v>1.5895778520957933</v>
       </c>
       <c r="C12" s="9">
-        <v>49.358437887105922</v>
+        <v>49.427933501140537</v>
       </c>
       <c r="D12">
-        <v>38.299999999999997</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>6.4838473976383257</v>
+        <v>6.9652857524673237</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         <v>18</v>
       </c>
       <c r="U12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -2100,7 +2100,10 @@
         <v>2</v>
       </c>
       <c r="AC12">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
       </c>
       <c r="AE12">
         <v>10</v>
@@ -2115,51 +2118,51 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>42.311926605504588</v>
+        <v>42.596330275229363</v>
       </c>
       <c r="AP12">
-        <v>49.456003054017941</v>
+        <v>49.629154964142558</v>
       </c>
       <c r="AQ12">
-        <v>50.341188821314795</v>
+        <v>50.385534317984359</v>
       </c>
       <c r="AR12">
-        <v>49.797244190333103</v>
+        <v>49.858453491364621</v>
       </c>
       <c r="AS12">
-        <v>49.586542629455508</v>
+        <v>49.638780523045803</v>
       </c>
       <c r="AT12">
-        <v>49.225892170345681</v>
+        <v>49.283699680660128</v>
       </c>
       <c r="AU12">
-        <v>50.362912027941498</v>
+        <v>50.347709483269412</v>
       </c>
       <c r="AV12">
-        <v>50.469735697193819</v>
+        <v>50.490809223406572</v>
       </c>
       <c r="AW12">
-        <v>50.45853806032202</v>
+        <v>50.464887746617279</v>
       </c>
       <c r="AX12">
-        <v>51.574395614630319</v>
+        <v>51.583975305685279</v>
       </c>
     </row>
-    <row hidden="1" r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>6.57998553715385</v>
+    <row r="13" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.9636566452991451</v>
       </c>
       <c r="B13" s="9">
-        <v>6.5928842834016548</v>
+        <v>2.9743988247863249</v>
       </c>
       <c r="C13" s="9">
-        <v>49.326936068780633</v>
+        <v>49.390784213334058</v>
       </c>
       <c r="D13">
-        <v>40.5</v>
+        <v>38</v>
       </c>
       <c r="E13">
-        <v>6.0928815311181257</v>
+        <v>6.466774545085471</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2198,10 +2201,10 @@
         <v>18</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -2222,7 +2225,10 @@
         <v>2</v>
       </c>
       <c r="AC13">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>12</v>
       </c>
       <c r="AE13">
         <v>10</v>
@@ -2237,51 +2243,51 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>42.217125382262999</v>
+        <v>42.409785932721711</v>
       </c>
       <c r="AP13">
-        <v>49.468273661822046</v>
+        <v>49.550077713849426</v>
       </c>
       <c r="AQ13">
-        <v>50.325803649000868</v>
+        <v>50.366529105125977</v>
       </c>
       <c r="AR13">
-        <v>49.77985518435824</v>
+        <v>49.834108882999814</v>
       </c>
       <c r="AS13">
-        <v>49.517077345425847</v>
+        <v>49.614328743067368</v>
       </c>
       <c r="AT13">
-        <v>49.205846017575347</v>
+        <v>49.245472133516699</v>
       </c>
       <c r="AU13">
-        <v>50.319253438113954</v>
+        <v>50.360183366077273</v>
       </c>
       <c r="AV13">
-        <v>50.457159560582987</v>
+        <v>50.489789536654342</v>
       </c>
       <c r="AW13">
-        <v>50.416811550381738</v>
+        <v>50.452793106054884</v>
       </c>
       <c r="AX13">
-        <v>51.562154898282309</v>
+        <v>51.584773613273192</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>0.11302811832074988</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.12518599243359302</v>
-      </c>
-      <c r="C14" s="9">
-        <v>49.374278623068264</v>
+    <row r="14" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7.2889285714285723</v>
+      </c>
+      <c r="B14">
+        <v>7.2981428571428575</v>
+      </c>
+      <c r="C14">
+        <v>28.015443279679207</v>
       </c>
       <c r="D14">
-        <v>36.6</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>6.7033115011721822</v>
+        <v>4.3273714285714311</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2320,10 +2326,10 @@
         <v>18</v>
       </c>
       <c r="U14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -2335,20 +2341,20 @@
         <v>7</v>
       </c>
       <c r="Z14">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AA14">
         <v>5</v>
       </c>
       <c r="AB14">
+        <v>3</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AE14">
         <v>2</v>
       </c>
-      <c r="AC14">
-        <v>4</v>
-      </c>
-      <c r="AE14">
-        <v>10</v>
-      </c>
       <c r="AF14">
         <v>5</v>
       </c>
@@ -2359,51 +2365,27 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>42.400611620795111</v>
+        <v>19.556285949055052</v>
       </c>
       <c r="AP14">
-        <v>49.521446295639841</v>
-      </c>
-      <c r="AQ14">
-        <v>50.367434115262085</v>
-      </c>
-      <c r="AR14">
-        <v>49.806982033679027</v>
-      </c>
-      <c r="AS14">
-        <v>49.570982405832858</v>
-      </c>
-      <c r="AT14">
-        <v>49.22962168714016</v>
-      </c>
-      <c r="AU14">
-        <v>50.357064895375302</v>
-      </c>
-      <c r="AV14">
-        <v>50.474154339786814</v>
-      </c>
-      <c r="AW14">
-        <v>50.446745785773686</v>
-      </c>
-      <c r="AX14">
-        <v>51.567743051397706</v>
+        <v>36.474600610303362</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>0.11943774505072302</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.132616388273778</v>
-      </c>
-      <c r="C15" s="9">
-        <v>49.34002731186736</v>
+    <row r="15" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.9781428571428572</v>
+      </c>
+      <c r="B15">
+        <v>3.9922261904761904</v>
+      </c>
+      <c r="C15">
+        <v>28.119353259565361</v>
       </c>
       <c r="D15">
-        <v>35.299999999999997</v>
+        <v>6.5</v>
       </c>
       <c r="E15">
-        <v>6.910226522478359</v>
+        <v>4.9785667857142872</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2442,10 +2424,10 @@
         <v>18</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -2457,20 +2439,20 @@
         <v>7</v>
       </c>
       <c r="Z15">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AA15">
         <v>5</v>
       </c>
       <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+      <c r="AE15">
         <v>2</v>
       </c>
-      <c r="AC15">
-        <v>5</v>
-      </c>
-      <c r="AE15">
-        <v>10</v>
-      </c>
       <c r="AF15">
         <v>5</v>
       </c>
@@ -2481,51 +2463,27 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>42.155963302752291</v>
+        <v>19.638455217748565</v>
       </c>
       <c r="AP15">
-        <v>49.514629291304232</v>
-      </c>
-      <c r="AQ15">
-        <v>50.34209383145091</v>
-      </c>
-      <c r="AR15">
-        <v>49.763161738622372</v>
-      </c>
-      <c r="AS15">
-        <v>49.563202294021544</v>
-      </c>
-      <c r="AT15">
-        <v>49.222162653551202</v>
-      </c>
-      <c r="AU15">
-        <v>50.341862350703217</v>
-      </c>
-      <c r="AV15">
-        <v>50.478233086795733</v>
-      </c>
-      <c r="AW15">
-        <v>50.441907929548726</v>
-      </c>
-      <c r="AX15">
-        <v>51.577056639923356</v>
+        <v>36.600251301382158</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>0.11319933623038887</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.12672528421712631</v>
-      </c>
-      <c r="C16" s="9">
-        <v>49.32587715643335</v>
+    <row r="16" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.12358333333333334</v>
+      </c>
+      <c r="B16">
+        <v>0.16050000000000003</v>
+      </c>
+      <c r="C16">
+        <v>28.278507360056707</v>
       </c>
       <c r="D16">
-        <v>36.4</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>6.8008216139795055</v>
+        <v>4.5819444444444457</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2567,7 +2525,7 @@
         <v>47</v>
       </c>
       <c r="V16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2579,20 +2537,20 @@
         <v>7</v>
       </c>
       <c r="Z16">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AA16">
         <v>5</v>
       </c>
       <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
         <v>2</v>
       </c>
-      <c r="AC16">
-        <v>6</v>
-      </c>
-      <c r="AE16">
-        <v>10</v>
-      </c>
       <c r="AF16">
         <v>5</v>
       </c>
@@ -2603,51 +2561,27 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>42.183486238532112</v>
+        <v>19.884963023829087</v>
       </c>
       <c r="AP16">
-        <v>49.449186049682325</v>
-      </c>
-      <c r="AQ16">
-        <v>50.309513466550825</v>
-      </c>
-      <c r="AR16">
-        <v>49.752728335037453</v>
-      </c>
-      <c r="AS16">
-        <v>49.570982405832858</v>
-      </c>
-      <c r="AT16">
-        <v>49.186732244003636</v>
-      </c>
-      <c r="AU16">
-        <v>50.336405026974774</v>
-      </c>
-      <c r="AV16">
-        <v>50.47721340004351</v>
-      </c>
-      <c r="AW16">
-        <v>50.432232217098793</v>
-      </c>
-      <c r="AX16">
-        <v>51.560292180577171</v>
+        <v>36.672051696284328</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>0.11925939800124008</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.13435109612649085</v>
-      </c>
-      <c r="C17" s="9">
-        <v>49.284609555438955</v>
+    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.2360714285714286</v>
+      </c>
+      <c r="B17">
+        <v>0.36242857142857143</v>
+      </c>
+      <c r="C17">
+        <v>27.935866229433529</v>
       </c>
       <c r="D17">
-        <v>38.200000000000003</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>6.3899920061762128</v>
+        <v>4.5749999999999966</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2689,7 +2623,7 @@
         <v>47</v>
       </c>
       <c r="V17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -2701,20 +2635,20 @@
         <v>7</v>
       </c>
       <c r="Z17">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AA17">
         <v>5</v>
       </c>
       <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <v>20</v>
+      </c>
+      <c r="AE17">
         <v>2</v>
       </c>
-      <c r="AC17">
-        <v>7</v>
-      </c>
-      <c r="AE17">
-        <v>10</v>
-      </c>
       <c r="AF17">
         <v>5</v>
       </c>
@@ -2725,51 +2659,27 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>42.021406727828747</v>
+        <v>19.433032046014791</v>
       </c>
       <c r="AP17">
-        <v>49.405557221934394</v>
-      </c>
-      <c r="AQ17">
-        <v>50.269693020561832</v>
-      </c>
-      <c r="AR17">
-        <v>49.707516919502815</v>
-      </c>
-      <c r="AS17">
-        <v>49.529858957687303</v>
-      </c>
-      <c r="AT17">
-        <v>49.164355143236754</v>
-      </c>
-      <c r="AU17">
-        <v>50.305610128792843</v>
-      </c>
-      <c r="AV17">
-        <v>50.466676636937137</v>
-      </c>
-      <c r="AW17">
-        <v>50.438279537379991</v>
-      </c>
-      <c r="AX17">
-        <v>51.537141260527683</v>
+        <v>36.43870041285227</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>0.12393651902204228</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0.14219216441635046</v>
-      </c>
-      <c r="C18" s="9">
-        <v>49.28663848695232</v>
+    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.0664374999999999</v>
+      </c>
+      <c r="B18">
+        <v>1.6527232142857142</v>
+      </c>
+      <c r="C18">
+        <v>27.953816328159078</v>
       </c>
       <c r="D18">
-        <v>41.1</v>
+        <v>7.5</v>
       </c>
       <c r="E18">
-        <v>5.9501058712308703</v>
+        <v>4.0449404761904759</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2811,7 +2721,7 @@
         <v>47</v>
       </c>
       <c r="V18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -2823,20 +2733,20 @@
         <v>7</v>
       </c>
       <c r="Z18">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AA18">
         <v>5</v>
       </c>
       <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <v>30</v>
+      </c>
+      <c r="AE18">
         <v>2</v>
       </c>
-      <c r="AC18">
-        <v>8</v>
-      </c>
-      <c r="AE18">
-        <v>10</v>
-      </c>
       <c r="AF18">
         <v>5</v>
       </c>
@@ -2847,51 +2757,27 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>42.009174311926607</v>
+        <v>19.433032046014791</v>
       </c>
       <c r="AP18">
-        <v>49.438278842745341</v>
-      </c>
-      <c r="AQ18">
-        <v>50.287793223284105</v>
-      </c>
-      <c r="AR18">
-        <v>49.709603600219801</v>
-      </c>
-      <c r="AS18">
-        <v>49.528191790870594</v>
-      </c>
-      <c r="AT18">
-        <v>49.189995571198807</v>
-      </c>
-      <c r="AU18">
-        <v>50.294305672498204</v>
-      </c>
-      <c r="AV18">
-        <v>50.446622797476614</v>
-      </c>
-      <c r="AW18">
-        <v>50.425277798775411</v>
-      </c>
-      <c r="AX18">
-        <v>51.537141260527683</v>
+        <v>36.474600610303362</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>0.12121343340407002</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.14310003752631079</v>
-      </c>
-      <c r="C19" s="9">
-        <v>49.263129743255192</v>
+    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.0918571428571431</v>
+      </c>
+      <c r="B19">
+        <v>3.1055000000000001</v>
+      </c>
+      <c r="C19">
+        <v>28.075871837180067</v>
       </c>
       <c r="D19">
-        <v>45.1</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>5.446732751863963</v>
+        <v>3.7249999999999943</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2930,10 +2816,10 @@
         <v>18</v>
       </c>
       <c r="U19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -2945,75 +2831,51 @@
         <v>7</v>
       </c>
       <c r="Z19">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AA19">
         <v>5</v>
       </c>
       <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
         <v>2</v>
       </c>
-      <c r="AC19">
+      <c r="AF19">
+        <v>5</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>19.802793755135578</v>
+      </c>
+      <c r="AP19">
+        <v>36.348949919224552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.8118888888888875</v>
+      </c>
+      <c r="B20">
+        <v>4.8296666666666663</v>
+      </c>
+      <c r="C20">
+        <v>19.679539852095314</v>
+      </c>
+      <c r="D20">
         <v>9</v>
       </c>
-      <c r="AE19">
-        <v>10</v>
-      </c>
-      <c r="AF19">
-        <v>5</v>
-      </c>
-      <c r="AG19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>42.003058103975533</v>
-      </c>
-      <c r="AP19">
-        <v>49.284214544760452</v>
-      </c>
-      <c r="AQ19">
-        <v>50.261547929336814</v>
-      </c>
-      <c r="AR19">
-        <v>49.672738907553089</v>
-      </c>
-      <c r="AS19">
-        <v>49.54097340313205</v>
-      </c>
-      <c r="AT19">
-        <v>49.193725087993286</v>
-      </c>
-      <c r="AU19">
-        <v>50.292746437147215</v>
-      </c>
-      <c r="AV19">
-        <v>50.427928540352404</v>
-      </c>
-      <c r="AW19">
-        <v>50.411368962128655</v>
-      </c>
-      <c r="AX19">
-        <v>51.542995516172383</v>
-      </c>
-    </row>
-    <row hidden="1" r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12.300166666666666</v>
-      </c>
-      <c r="B20">
-        <v>12.331666666666665</v>
-      </c>
-      <c r="C20">
-        <v>21.250449155587496</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
       <c r="E20">
-        <v>5.7277666666666773</v>
+        <v>3.6555555555555657</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3052,13 +2914,13 @@
         <v>18</v>
       </c>
       <c r="U20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>20</v>
@@ -3067,54 +2929,48 @@
         <v>7</v>
       </c>
       <c r="Z20">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA20">
         <v>5</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC20">
         <v>4</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>5</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>19.679539852095314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.1656363636363636</v>
+      </c>
+      <c r="B21">
+        <v>1.7935454545454546</v>
+      </c>
+      <c r="C21">
+        <v>18.940016433853739</v>
+      </c>
+      <c r="D21">
         <v>11</v>
       </c>
-      <c r="AE20">
-        <v>2</v>
-      </c>
-      <c r="AF20">
-        <v>5</v>
-      </c>
-      <c r="AG20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>12.892561983471074</v>
-      </c>
-      <c r="AP20">
-        <v>29.608336327703917</v>
-      </c>
-    </row>
-    <row hidden="1" r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>22.830833333333331</v>
-      </c>
-      <c r="B21">
-        <v>22.847333333333331</v>
-      </c>
-      <c r="C21">
-        <v>21.250449155587496</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
       <c r="E21">
-        <v>5.7277666666666773</v>
+        <v>2.7787878787878784</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3153,13 +3009,13 @@
         <v>18</v>
       </c>
       <c r="U21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>20</v>
@@ -3168,22 +3024,19 @@
         <v>7</v>
       </c>
       <c r="Z21">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA21">
         <v>5</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC21">
-        <v>5</v>
-      </c>
-      <c r="AD21">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>5</v>
@@ -3195,27 +3048,24 @@
         <v>0</v>
       </c>
       <c r="AO21">
-        <v>12.892561983471074</v>
-      </c>
-      <c r="AP21">
-        <v>29.608336327703917</v>
+        <v>18.940016433853739</v>
       </c>
     </row>
-    <row hidden="1" r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.11075</v>
+        <v>1.2819999999999998</v>
       </c>
       <c r="B22">
-        <v>0.14224999999999999</v>
+        <v>1.9229166666666668</v>
       </c>
       <c r="C22">
-        <v>21.412145167085878</v>
+        <v>18.282662284305669</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>7.7750000000000057</v>
+        <v>2.0347222222222237</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3257,7 +3107,7 @@
         <v>47</v>
       </c>
       <c r="V22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -3269,19 +3119,19 @@
         <v>7</v>
       </c>
       <c r="Z22">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA22">
         <v>5</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>5</v>
@@ -3293,27 +3143,24 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>12.892561983471074</v>
-      </c>
-      <c r="AP22">
-        <v>29.931728350700681</v>
+        <v>18.282662284305669</v>
       </c>
     </row>
-    <row hidden="1" r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6.6896666666666675</v>
+        <v>3.4664999999999995</v>
       </c>
       <c r="B23">
-        <v>6.7193333333333332</v>
+        <v>3.4871249999999998</v>
       </c>
       <c r="C23">
-        <v>21.412145167085878</v>
+        <v>19.350862777321282</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>5.7277666666666773</v>
+        <v>3.104162500000001</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3355,10 +3202,10 @@
         <v>45</v>
       </c>
       <c r="V23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>20</v>
@@ -3367,19 +3214,19 @@
         <v>7</v>
       </c>
       <c r="Z23">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA23">
         <v>5</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC23">
         <v>3</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>5</v>
@@ -3391,27 +3238,24 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>12.892561983471074</v>
-      </c>
-      <c r="AP23">
-        <v>29.931728350700681</v>
+        <v>19.350862777321282</v>
       </c>
     </row>
-    <row hidden="1" r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>12.816333333333334</v>
+        <v>5.8134999999999986</v>
       </c>
       <c r="B24">
-        <v>12.847833333333334</v>
+        <v>5.8304999999999989</v>
       </c>
       <c r="C24">
-        <v>21.250449155587496</v>
+        <v>18.981101068200491</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>5.7277666666666773</v>
+        <v>3.1249970000000018</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3453,10 +3297,10 @@
         <v>45</v>
       </c>
       <c r="V24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>20</v>
@@ -3465,19 +3309,19 @@
         <v>7</v>
       </c>
       <c r="Z24">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA24">
         <v>5</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC24">
         <v>4</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>5</v>
@@ -3489,27 +3333,24 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>12.892561983471074</v>
-      </c>
-      <c r="AP24">
-        <v>29.608336327703917</v>
+        <v>18.981101068200491</v>
       </c>
     </row>
-    <row hidden="1" r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5.840249475560559</v>
+        <v>1.9691107728485595</v>
       </c>
       <c r="B25">
-        <v>5.8526081560965686</v>
+        <v>1.9770844043227016</v>
       </c>
       <c r="C25">
-        <v>49.416675473218618</v>
+        <v>49.400577872365702</v>
       </c>
       <c r="D25">
-        <v>35.799999999999997</v>
+        <v>35.5</v>
       </c>
       <c r="E25">
-        <v>6.8832370595771959</v>
+        <v>6.9038466304387756</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3551,10 +3392,10 @@
         <v>45</v>
       </c>
       <c r="V25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>20</v>
@@ -3572,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="AC25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25">
         <v>10</v>
@@ -3587,51 +3428,51 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>42.605504587155963</v>
+        <v>42.428134556574925</v>
       </c>
       <c r="AP25">
-        <v>49.590979739863116</v>
+        <v>49.648242576282279</v>
       </c>
       <c r="AQ25">
-        <v>50.372864176078771</v>
+        <v>50.352953953084281</v>
       </c>
       <c r="AR25">
-        <v>49.845933407062724</v>
+        <v>49.811155395112991</v>
       </c>
       <c r="AS25">
-        <v>49.61210585397842</v>
+        <v>49.613773020795129</v>
       </c>
       <c r="AT25">
-        <v>49.244539754318076</v>
+        <v>49.251998787907041</v>
       </c>
       <c r="AU25">
-        <v>50.368369351669941</v>
+        <v>50.359013939564036</v>
       </c>
       <c r="AV25">
-        <v>50.489109745486182</v>
+        <v>50.493868283663254</v>
       </c>
       <c r="AW25">
-        <v>50.464283014589164</v>
+        <v>50.45521203416736</v>
       </c>
       <c r="AX25">
-        <v>51.573065101983794</v>
+        <v>51.591426176505806</v>
       </c>
     </row>
-    <row hidden="1" r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5.8573356790939144</v>
+        <v>2.0897879865360514</v>
       </c>
       <c r="B26">
-        <v>5.8691253625971269</v>
+        <v>2.1082890903409948</v>
       </c>
       <c r="C26">
-        <v>49.38668590961246</v>
+        <v>49.402710767768099</v>
       </c>
       <c r="D26">
-        <v>34.6</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E26">
-        <v>7.1118148291818928</v>
+        <v>6.9395937612070044</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3673,10 +3514,10 @@
         <v>46</v>
       </c>
       <c r="V26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>20</v>
@@ -3694,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD26">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE26">
         <v>10</v>
@@ -3712,51 +3553,51 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>42.467889908256879</v>
+        <v>42.428134556574925</v>
       </c>
       <c r="AP26">
-        <v>49.540533907779569</v>
+        <v>49.650969378016526</v>
       </c>
       <c r="AQ26">
-        <v>50.354763973356498</v>
+        <v>50.362004054445407</v>
       </c>
       <c r="AR26">
-        <v>49.810459834873996</v>
+        <v>49.827848840848858</v>
       </c>
       <c r="AS26">
-        <v>49.615995909884077</v>
+        <v>49.613773020795129</v>
       </c>
       <c r="AT26">
-        <v>49.228689307941544</v>
+        <v>49.242208806321528</v>
       </c>
       <c r="AU26">
-        <v>50.350438145133623</v>
+        <v>50.364081454454734</v>
       </c>
       <c r="AV26">
-        <v>50.463617576680441</v>
+        <v>50.493868283663254</v>
       </c>
       <c r="AW26">
-        <v>50.449164713886162</v>
+        <v>50.452793106054884</v>
       </c>
       <c r="AX26">
-        <v>51.585305818331804</v>
+        <v>51.591426176505806</v>
       </c>
     </row>
-    <row hidden="1" r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5.9877963510760575</v>
+        <v>0.11793238880832251</v>
       </c>
       <c r="B27">
-        <v>5.9972027434577431</v>
+        <v>0.12988061632207748</v>
       </c>
       <c r="C27">
-        <v>49.38668590961246</v>
+        <v>49.284182814360001</v>
       </c>
       <c r="D27">
-        <v>34.6</v>
+        <v>37.5</v>
       </c>
       <c r="E27">
-        <v>7.1118148291818928</v>
+        <v>6.5738196644607552</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3795,13 +3636,13 @@
         <v>18</v>
       </c>
       <c r="U27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>20</v>
@@ -3819,10 +3660,7 @@
         <v>2</v>
       </c>
       <c r="AC27">
-        <v>3</v>
-      </c>
-      <c r="AD27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE27">
         <v>10</v>
@@ -3837,120 +3675,123 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>42.467889908256879</v>
+        <v>42.048929663608561</v>
       </c>
       <c r="AP27">
-        <v>49.540533907779569</v>
+        <v>49.385106208927546</v>
       </c>
       <c r="AQ27">
-        <v>50.354763973356498</v>
+        <v>50.278743121922965</v>
       </c>
       <c r="AR27">
-        <v>49.810459834873996</v>
+        <v>49.70264799782985</v>
       </c>
       <c r="AS27">
-        <v>49.615995909884077</v>
+        <v>49.528747513142832</v>
       </c>
       <c r="AT27">
-        <v>49.228689307941544</v>
+        <v>49.164355143236754</v>
       </c>
       <c r="AU27">
-        <v>50.350438145133623</v>
+        <v>50.310287834845788</v>
       </c>
       <c r="AV27">
-        <v>50.463617576680441</v>
+        <v>50.456139873830764</v>
       </c>
       <c r="AW27">
-        <v>50.449164713886162</v>
+        <v>50.418021014437976</v>
       </c>
       <c r="AX27">
-        <v>51.585305818331804</v>
+        <v>51.548849771817082</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>0.10241451680951488</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.11323110439032069</v>
-      </c>
-      <c r="C28" t="n">
-        <v>49.392172044503496</v>
-      </c>
-      <c r="D28" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.016448804442026</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G28" t="n">
+    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6.5613664654467412</v>
+      </c>
+      <c r="B28">
+        <v>6.5742263359990272</v>
+      </c>
+      <c r="C28">
+        <v>49.326893477749806</v>
+      </c>
+      <c r="D28">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E28">
+        <v>6.2615255539509622</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0.7</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.3</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>0.6</v>
+      </c>
+      <c r="L28">
+        <v>0.3</v>
+      </c>
+      <c r="M28">
+        <v>0.1</v>
+      </c>
+      <c r="N28">
+        <v>0.6</v>
+      </c>
+      <c r="O28">
         <v>0.4</v>
       </c>
-      <c r="S28" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>18.0</v>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>18</v>
       </c>
       <c r="U28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V28" t="s">
-        <v>49</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>20</v>
+      </c>
+      <c r="Y28">
+        <v>7</v>
+      </c>
+      <c r="Z28">
+        <v>11</v>
+      </c>
+      <c r="AA28">
+        <v>5</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
+        <v>7</v>
+      </c>
+      <c r="AD28">
+        <v>12</v>
+      </c>
+      <c r="AE28">
+        <v>10</v>
+      </c>
+      <c r="AF28">
+        <v>5</v>
       </c>
       <c r="AG28" t="b">
         <v>0</v>
@@ -3958,121 +3799,121 @@
       <c r="AK28" t="b">
         <v>0</v>
       </c>
-      <c r="AO28" t="n">
-        <v>42.415902140672785</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>49.54598751124806</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>50.39096437880104</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>49.810459834873996</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>49.60377001989485</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>49.249667839910494</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>50.37265724888515</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>50.48537089406134</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>50.45551440018142</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>51.591426176505806</v>
+      <c r="AO28">
+        <v>42.204892966360859</v>
+      </c>
+      <c r="AP28">
+        <v>49.447822648815205</v>
+      </c>
+      <c r="AQ28">
+        <v>50.290508253692444</v>
+      </c>
+      <c r="AR28">
+        <v>49.745077172408514</v>
+      </c>
+      <c r="AS28">
+        <v>49.579873962188657</v>
+      </c>
+      <c r="AT28">
+        <v>49.202116500780868</v>
+      </c>
+      <c r="AU28">
+        <v>50.343031777216453</v>
+      </c>
+      <c r="AV28">
+        <v>50.457499456167064</v>
+      </c>
+      <c r="AW28">
+        <v>50.438884269408113</v>
+      </c>
+      <c r="AX28">
+        <v>51.559227770459955</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1.5925646118149832</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1.6066484280472824</v>
-      </c>
-      <c r="C29" t="n">
-        <v>49.412109630608725</v>
-      </c>
-      <c r="D29" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6.882708827280152</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G29" t="n">
+    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2.8784453179694132</v>
+      </c>
+      <c r="B29">
+        <v>2.8856249663348152</v>
+      </c>
+      <c r="C29">
+        <v>49.2271629023465</v>
+      </c>
+      <c r="D29">
+        <v>49.8</v>
+      </c>
+      <c r="E29">
+        <v>4.9276436592322428</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>0.7</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.3</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>0.6</v>
+      </c>
+      <c r="L29">
+        <v>0.3</v>
+      </c>
+      <c r="M29">
+        <v>0.1</v>
+      </c>
+      <c r="N29">
+        <v>0.6</v>
+      </c>
+      <c r="O29">
         <v>0.4</v>
       </c>
-      <c r="S29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>18.0</v>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>18</v>
       </c>
       <c r="U29" t="s">
         <v>45</v>
       </c>
       <c r="V29" t="s">
-        <v>49</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>20</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AB29">
+        <v>3</v>
+      </c>
+      <c r="AC29">
+        <v>4</v>
+      </c>
+      <c r="AE29">
+        <v>10</v>
+      </c>
+      <c r="AF29">
+        <v>5</v>
       </c>
       <c r="AG29" t="b">
         <v>0</v>
@@ -4080,121 +3921,121 @@
       <c r="AK29" t="b">
         <v>0</v>
       </c>
-      <c r="AO29" t="n">
-        <v>42.58103975535168</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>49.60325034766722</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>50.345713871995365</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>49.853584569691655</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>49.5954341858113</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>49.240810237523604</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>50.3570648953753</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>50.49488797041549</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>50.46639957668758</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>51.582910895568055</v>
+      <c r="AO29">
+        <v>41.847094801223236</v>
+      </c>
+      <c r="AP29">
+        <v>49.239222316145394</v>
+      </c>
+      <c r="AQ29">
+        <v>50.19638719953663</v>
+      </c>
+      <c r="AR29">
+        <v>49.658827702773202</v>
+      </c>
+      <c r="AS29">
+        <v>49.517077345425847</v>
+      </c>
+      <c r="AT29">
+        <v>49.163888953637446</v>
+      </c>
+      <c r="AU29">
+        <v>50.288458539932016</v>
+      </c>
+      <c r="AV29">
+        <v>50.432687078529483</v>
+      </c>
+      <c r="AW29">
+        <v>50.397762491495953</v>
+      </c>
+      <c r="AX29">
+        <v>51.53022259476576</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2.1838990707593484</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2.1994345675928555</v>
-      </c>
-      <c r="C30" t="n">
-        <v>49.21159120848249</v>
-      </c>
-      <c r="D30" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.909051962283855</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G30" t="n">
+    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3.5457473407321443</v>
+      </c>
+      <c r="B30">
+        <v>3.5546568212298517</v>
+      </c>
+      <c r="C30">
+        <v>49.084574242357419</v>
+      </c>
+      <c r="D30">
+        <v>62.3</v>
+      </c>
+      <c r="E30">
+        <v>3.940814101075746</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>0.7</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.3</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <v>0.3</v>
+      </c>
+      <c r="M30">
+        <v>0.1</v>
+      </c>
+      <c r="N30">
+        <v>0.6</v>
+      </c>
+      <c r="O30">
         <v>0.4</v>
       </c>
-      <c r="S30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>18.0</v>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>18</v>
       </c>
       <c r="U30" t="s">
         <v>45</v>
       </c>
       <c r="V30" t="s">
-        <v>49</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>20</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>11</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>4</v>
+      </c>
+      <c r="AE30">
+        <v>10</v>
+      </c>
+      <c r="AF30">
+        <v>5</v>
       </c>
       <c r="AG30" t="b">
         <v>0</v>
@@ -4202,121 +4043,121 @@
       <c r="AK30" t="b">
         <v>0</v>
       </c>
-      <c r="AO30" t="n">
-        <v>41.715596330275226</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>49.27194393695634</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>50.16923689545323</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>49.6595232630122</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>49.463728007291074</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>49.190461760798115</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>50.27442542177316</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>50.43472645203394</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>50.404716909819335</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>51.531553107412286</v>
+      <c r="AO30">
+        <v>41.480122324159019</v>
+      </c>
+      <c r="AP30">
+        <v>49.000627164398871</v>
+      </c>
+      <c r="AQ30">
+        <v>50.047060527077903</v>
+      </c>
+      <c r="AR30">
+        <v>49.525280136886259</v>
+      </c>
+      <c r="AS30">
+        <v>49.37481244373312</v>
+      </c>
+      <c r="AT30">
+        <v>49.055732966597517</v>
+      </c>
+      <c r="AU30">
+        <v>50.196853463061721</v>
+      </c>
+      <c r="AV30">
+        <v>50.349752556014792</v>
+      </c>
+      <c r="AW30">
+        <v>50.338498752740193</v>
+      </c>
+      <c r="AX30">
+        <v>51.477002088904854</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>0.10852129685845631</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.12053781858556818</v>
-      </c>
-      <c r="C31" t="n">
-        <v>49.392172044503496</v>
-      </c>
-      <c r="D31" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7.016448804442026</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G31" t="n">
+    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3.0819889293650329</v>
+      </c>
+      <c r="B31">
+        <v>3.0896526857408757</v>
+      </c>
+      <c r="C31">
+        <v>48.947554714064822</v>
+      </c>
+      <c r="D31">
+        <v>66.3</v>
+      </c>
+      <c r="E31">
+        <v>3.6627473912173594</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>0.7</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.3</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>0.6</v>
+      </c>
+      <c r="L31">
+        <v>0.3</v>
+      </c>
+      <c r="M31">
+        <v>0.1</v>
+      </c>
+      <c r="N31">
+        <v>0.6</v>
+      </c>
+      <c r="O31">
         <v>0.4</v>
       </c>
-      <c r="S31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>18.0</v>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>18</v>
       </c>
       <c r="U31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s">
-        <v>49</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31">
+        <v>7</v>
+      </c>
+      <c r="Z31">
+        <v>11</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31">
+        <v>5</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31">
+        <v>5</v>
       </c>
       <c r="AG31" t="b">
         <v>0</v>
@@ -4324,121 +4165,124 @@
       <c r="AK31" t="b">
         <v>0</v>
       </c>
-      <c r="AO31" t="n">
-        <v>42.415902140672785</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>49.54598751124806</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>50.39096437880104</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>49.810459834873996</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>49.60377001989485</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>49.249667839910494</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>50.37265724888515</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>50.48537089406134</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>50.45551440018142</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>51.591426176505806</v>
+      <c r="AO31">
+        <v>40.981651376146786</v>
+      </c>
+      <c r="AP31">
+        <v>48.74703460311401</v>
+      </c>
+      <c r="AQ31">
+        <v>49.867868520127423</v>
+      </c>
+      <c r="AR31">
+        <v>49.425119462471045</v>
+      </c>
+      <c r="AS31">
+        <v>49.305902881975705</v>
+      </c>
+      <c r="AT31">
+        <v>48.960630288338272</v>
+      </c>
+      <c r="AU31">
+        <v>50.159042005800359</v>
+      </c>
+      <c r="AV31">
+        <v>50.299448009571456</v>
+      </c>
+      <c r="AW31">
+        <v>50.314914203643511</v>
+      </c>
+      <c r="AX31">
+        <v>51.413935789459671</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.09770196833290642</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.10961910682574916</v>
-      </c>
-      <c r="C32" t="n">
-        <v>49.19882079775679</v>
-      </c>
-      <c r="D32" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.96671446410446</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G32" t="n">
+    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3.0999747020003943</v>
+      </c>
+      <c r="B32">
+        <v>3.1092248832026272</v>
+      </c>
+      <c r="C32">
+        <v>49.226153045567187</v>
+      </c>
+      <c r="D32">
+        <v>50.5</v>
+      </c>
+      <c r="E32">
+        <v>4.8265267647158421</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>0.7</v>
       </c>
-      <c r="H32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.3</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>0.6</v>
+      </c>
+      <c r="L32">
+        <v>0.3</v>
+      </c>
+      <c r="M32">
+        <v>0.1</v>
+      </c>
+      <c r="N32">
+        <v>0.6</v>
+      </c>
+      <c r="O32">
         <v>0.4</v>
       </c>
-      <c r="S32" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>18.0</v>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>18</v>
       </c>
       <c r="U32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V32" t="s">
-        <v>49</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>20</v>
+      </c>
+      <c r="Y32">
+        <v>7</v>
+      </c>
+      <c r="Z32">
+        <v>11</v>
+      </c>
+      <c r="AA32">
+        <v>5</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>12</v>
+      </c>
+      <c r="AE32">
+        <v>10</v>
+      </c>
+      <c r="AF32">
+        <v>5</v>
       </c>
       <c r="AG32" t="b">
         <v>0</v>
@@ -4446,121 +4290,124 @@
       <c r="AK32" t="b">
         <v>0</v>
       </c>
-      <c r="AO32" t="n">
-        <v>41.782874617737</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>49.19013988492897</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>50.17647697654214</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>49.66021882325119</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>49.48373400909162</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>49.11400666651127</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>50.26312096547853</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>50.40209647596259</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>50.38717968100386</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>51.52835987706064</v>
+      <c r="AO32">
+        <v>41.847094801223236</v>
+      </c>
+      <c r="AP32">
+        <v>49.243312518746762</v>
+      </c>
+      <c r="AQ32">
+        <v>50.186432088039389</v>
+      </c>
+      <c r="AR32">
+        <v>49.658827702773202</v>
+      </c>
+      <c r="AS32">
+        <v>49.517077345425847</v>
+      </c>
+      <c r="AT32">
+        <v>49.163888953637446</v>
+      </c>
+      <c r="AU32">
+        <v>50.295864907849186</v>
+      </c>
+      <c r="AV32">
+        <v>50.43132749619317</v>
+      </c>
+      <c r="AW32">
+        <v>50.387482047017919</v>
+      </c>
+      <c r="AX32">
+        <v>51.53022259476576</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.09582224036721305</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.10794204875396037</v>
-      </c>
-      <c r="C33" t="n">
-        <v>49.04412740814528</v>
-      </c>
-      <c r="D33" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.360824991652946</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G33" t="n">
+    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3.6367203266792942</v>
+      </c>
+      <c r="B33">
+        <v>3.646398427388319</v>
+      </c>
+      <c r="C33">
+        <v>49.058627723028387</v>
+      </c>
+      <c r="D33">
+        <v>63.7</v>
+      </c>
+      <c r="E33">
+        <v>3.838176493557218</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>0.7</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.3</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>0.6</v>
+      </c>
+      <c r="L33">
+        <v>0.3</v>
+      </c>
+      <c r="M33">
+        <v>0.1</v>
+      </c>
+      <c r="N33">
+        <v>0.6</v>
+      </c>
+      <c r="O33">
         <v>0.4</v>
       </c>
-      <c r="S33" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>18.0</v>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>18</v>
       </c>
       <c r="U33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V33" t="s">
-        <v>49</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>20</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
+      </c>
+      <c r="Z33">
+        <v>11</v>
+      </c>
+      <c r="AA33">
+        <v>5</v>
+      </c>
+      <c r="AB33">
+        <v>4</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>12</v>
+      </c>
+      <c r="AE33">
+        <v>10</v>
+      </c>
+      <c r="AF33">
+        <v>5</v>
       </c>
       <c r="AG33" t="b">
         <v>0</v>
@@ -4568,121 +4415,124 @@
       <c r="AK33" t="b">
         <v>0</v>
       </c>
-      <c r="AO33" t="n">
+      <c r="AO33">
         <v>41.162079510703364</v>
       </c>
-      <c r="AP33" t="n">
-        <v>49.00471736700025</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>50.02443527367506</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>49.544060263339105</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>49.36869949873851</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>49.049206312207176</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>50.180871300714124</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>50.31542310202306</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>50.33819638672613</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>51.453585066326056</v>
+      <c r="AP33">
+        <v>48.99790036266463</v>
+      </c>
+      <c r="AQ33">
+        <v>50.048870547350134</v>
+      </c>
+      <c r="AR33">
+        <v>49.525280136886259</v>
+      </c>
+      <c r="AS33">
+        <v>49.418158780967623</v>
+      </c>
+      <c r="AT33">
+        <v>49.075779119367844</v>
+      </c>
+      <c r="AU33">
+        <v>50.192955374684253</v>
+      </c>
+      <c r="AV33">
+        <v>50.349752556014792</v>
+      </c>
+      <c r="AW33">
+        <v>50.338498752740193</v>
+      </c>
+      <c r="AX33">
+        <v>51.477002088904854</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.09475856818776289</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.10634327749215296</v>
-      </c>
-      <c r="C34" t="n">
-        <v>48.99769098310232</v>
-      </c>
-      <c r="D34" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4.008899266860702</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G34" t="n">
+    <row r="34" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3.2543960691326506</v>
+      </c>
+      <c r="B34">
+        <v>3.2649171697602375</v>
+      </c>
+      <c r="C34">
+        <v>48.950642803097601</v>
+      </c>
+      <c r="D34">
+        <v>60.3</v>
+      </c>
+      <c r="E34">
+        <v>4.0416472180952603</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0.7</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.3</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>0.6</v>
+      </c>
+      <c r="L34">
+        <v>0.3</v>
+      </c>
+      <c r="M34">
+        <v>0.1</v>
+      </c>
+      <c r="N34">
+        <v>0.6</v>
+      </c>
+      <c r="O34">
         <v>0.4</v>
       </c>
-      <c r="S34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>18.0</v>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>18</v>
       </c>
       <c r="U34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V34" t="s">
-        <v>49</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>20</v>
+      </c>
+      <c r="Y34">
+        <v>7</v>
+      </c>
+      <c r="Z34">
+        <v>11</v>
+      </c>
+      <c r="AA34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>5</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>12</v>
+      </c>
+      <c r="AE34">
+        <v>10</v>
+      </c>
+      <c r="AF34">
+        <v>5</v>
       </c>
       <c r="AG34" t="b">
         <v>0</v>
@@ -4690,121 +4540,121 @@
       <c r="AK34" t="b">
         <v>0</v>
       </c>
-      <c r="AO34" t="n">
-        <v>41.19571865443425</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>48.95699833665094</v>
-      </c>
-      <c r="AQ34" t="n">
+      <c r="AO34">
+        <v>40.984709480122319</v>
+      </c>
+      <c r="AP34">
+        <v>48.685681564093471</v>
+      </c>
+      <c r="AQ34">
         <v>49.926694178974806</v>
       </c>
-      <c r="AR34" t="n">
-        <v>49.46407083585474</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>49.32924321740967</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>49.01470828185823</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>50.106807621542394</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>50.2872117685447</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>50.27832791594224</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>51.417129019811334</v>
+      <c r="AR34">
+        <v>49.47172199848368</v>
+      </c>
+      <c r="AS34">
+        <v>49.259222211107776</v>
+      </c>
+      <c r="AT34">
+        <v>49.002587352276173</v>
+      </c>
+      <c r="AU34">
+        <v>50.144229269966011</v>
+      </c>
+      <c r="AV34">
+        <v>50.280753752447247</v>
+      </c>
+      <c r="AW34">
+        <v>50.307355053292014</v>
+      </c>
+      <c r="AX34">
+        <v>51.443473170212485</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>0.07787530464476247</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.08957207337529129</v>
-      </c>
-      <c r="C35" t="n">
-        <v>48.73203386341108</v>
-      </c>
-      <c r="D35" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.3853794577311214</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="n">
+    <row r="35" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.26330253190661984</v>
+      </c>
+      <c r="B35">
+        <v>0.37244614491185829</v>
+      </c>
+      <c r="C35">
+        <v>49.02977207978735</v>
+      </c>
+      <c r="D35">
+        <v>67.2</v>
+      </c>
+      <c r="E35">
+        <v>3.6139934414495904</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>0.7</v>
       </c>
-      <c r="H35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.3</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>0.6</v>
+      </c>
+      <c r="L35">
+        <v>0.3</v>
+      </c>
+      <c r="M35">
+        <v>0.1</v>
+      </c>
+      <c r="N35">
+        <v>0.6</v>
+      </c>
+      <c r="O35">
         <v>0.4</v>
       </c>
-      <c r="S35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>18.0</v>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>18</v>
       </c>
       <c r="U35" t="s">
         <v>47</v>
       </c>
       <c r="V35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>20</v>
+      </c>
+      <c r="Y35">
+        <v>7</v>
+      </c>
+      <c r="Z35">
+        <v>11</v>
+      </c>
+      <c r="AA35">
+        <v>5</v>
+      </c>
+      <c r="AB35">
+        <v>3</v>
+      </c>
+      <c r="AC35">
+        <v>20</v>
+      </c>
+      <c r="AE35">
+        <v>10</v>
+      </c>
+      <c r="AF35">
+        <v>5</v>
       </c>
       <c r="AG35" t="b">
         <v>0</v>
@@ -4812,121 +4662,121 @@
       <c r="AK35" t="b">
         <v>0</v>
       </c>
-      <c r="AO35" t="n">
-        <v>40.32415902140673</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>48.406184386333265</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>49.63709093541848</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>49.180977818583976</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>49.1252931434986</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>48.849210974103165</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>50.03859107493685</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>50.19883891668479</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>50.20273641242724</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>51.35725595071781</v>
+      <c r="AO35">
+        <v>41.174311926605505</v>
+      </c>
+      <c r="AP35">
+        <v>48.888828293294793</v>
+      </c>
+      <c r="AQ35">
+        <v>50.002715030408339</v>
+      </c>
+      <c r="AR35">
+        <v>49.519020094735303</v>
+      </c>
+      <c r="AS35">
+        <v>49.360919386927186</v>
+      </c>
+      <c r="AT35">
+        <v>49.045942985012005</v>
+      </c>
+      <c r="AU35">
+        <v>50.194124801197489</v>
+      </c>
+      <c r="AV35">
+        <v>50.347713182510333</v>
+      </c>
+      <c r="AW35">
+        <v>50.311890543502912</v>
+      </c>
+      <c r="AX35">
+        <v>51.452254553679531</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>0.1229938101409865</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.1498217646372369</v>
-      </c>
-      <c r="C36" t="n">
-        <v>48.62958229535274</v>
-      </c>
-      <c r="D36" t="n">
-        <v>92.6</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2.62624331514571</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G36" t="n">
+    <row r="36" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.30810560318968938</v>
+      </c>
+      <c r="B36">
+        <v>0.43192961282899744</v>
+      </c>
+      <c r="C36">
+        <v>48.788200771627523</v>
+      </c>
+      <c r="D36">
+        <v>89.3</v>
+      </c>
+      <c r="E36">
+        <v>2.720097666484488</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>0.7</v>
       </c>
-      <c r="H36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.3</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>0.6</v>
+      </c>
+      <c r="L36">
+        <v>0.3</v>
+      </c>
+      <c r="M36">
+        <v>0.1</v>
+      </c>
+      <c r="N36">
+        <v>0.6</v>
+      </c>
+      <c r="O36">
         <v>0.4</v>
       </c>
-      <c r="S36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>18.0</v>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>18</v>
       </c>
       <c r="U36" t="s">
         <v>47</v>
       </c>
       <c r="V36" t="s">
-        <v>49</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>20</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>11</v>
+      </c>
+      <c r="AA36">
+        <v>5</v>
+      </c>
+      <c r="AB36">
+        <v>4</v>
+      </c>
+      <c r="AC36">
+        <v>20</v>
+      </c>
+      <c r="AE36">
+        <v>10</v>
+      </c>
+      <c r="AF36">
+        <v>5</v>
       </c>
       <c r="AG36" t="b">
         <v>0</v>
@@ -4934,121 +4784,121 @@
       <c r="AK36" t="b">
         <v>0</v>
       </c>
-      <c r="AO36" t="n">
-        <v>40.03363914373089</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>48.20985466146757</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>49.48776426295974</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>49.13646196328833</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>49.05082635901882</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>48.77788396540873</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>49.979340131599464</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>50.165529149445284</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>50.14649633381209</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>51.30802698279647</v>
+      <c r="AO36">
+        <v>40.345565749235476</v>
+      </c>
+      <c r="AP36">
+        <v>48.482534834892157</v>
+      </c>
+      <c r="AQ36">
+        <v>49.760172313929921</v>
+      </c>
+      <c r="AR36">
+        <v>49.271400649653266</v>
+      </c>
+      <c r="AS36">
+        <v>49.219210207506698</v>
+      </c>
+      <c r="AT36">
+        <v>48.914477518006571</v>
+      </c>
+      <c r="AU36">
+        <v>50.065098075903578</v>
+      </c>
+      <c r="AV36">
+        <v>50.237926908853602</v>
+      </c>
+      <c r="AW36">
+        <v>50.221180739284911</v>
+      </c>
+      <c r="AX36">
+        <v>51.364440719009032</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0.25507616390817595</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.3705772831669031</v>
-      </c>
-      <c r="C37" t="n">
-        <v>48.558587271961045</v>
-      </c>
-      <c r="D37" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2.747529877115427</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n">
+    <row r="37" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.36035243019371699</v>
+      </c>
+      <c r="B37">
+        <v>0.50264032200267694</v>
+      </c>
+      <c r="C37">
+        <v>48.554078255641095</v>
+      </c>
+      <c r="D37">
+        <v>109.6</v>
+      </c>
+      <c r="E37">
+        <v>2.2138983900864231</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>0.7</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.3</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>0.6</v>
+      </c>
+      <c r="L37">
+        <v>0.3</v>
+      </c>
+      <c r="M37">
+        <v>0.1</v>
+      </c>
+      <c r="N37">
+        <v>0.6</v>
+      </c>
+      <c r="O37">
         <v>0.4</v>
       </c>
-      <c r="S37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>18.0</v>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>18</v>
       </c>
       <c r="U37" t="s">
         <v>47</v>
       </c>
       <c r="V37" t="s">
-        <v>49</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>20</v>
+      </c>
+      <c r="Y37">
+        <v>7</v>
+      </c>
+      <c r="Z37">
+        <v>11</v>
+      </c>
+      <c r="AA37">
+        <v>5</v>
+      </c>
+      <c r="AB37">
+        <v>5</v>
+      </c>
+      <c r="AC37">
+        <v>20</v>
+      </c>
+      <c r="AE37">
+        <v>10</v>
+      </c>
+      <c r="AF37">
+        <v>5</v>
       </c>
       <c r="AG37" t="b">
         <v>0</v>
@@ -5056,121 +4906,121 @@
       <c r="AK37" t="b">
         <v>0</v>
       </c>
-      <c r="AO37" t="n">
-        <v>39.825688073394495</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>48.173042838055245</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>49.43527367506516</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>49.05855921652095</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>48.99025263134496</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>48.699097923125336</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>49.92866498269249</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>50.08769306069175</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>50.12321415072945</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>51.26438616799053</v>
+      <c r="AO37">
+        <v>39.62691131498471</v>
+      </c>
+      <c r="AP37">
+        <v>48.14168461811142</v>
+      </c>
+      <c r="AQ37">
+        <v>49.481429192006949</v>
+      </c>
+      <c r="AR37">
+        <v>49.036301288873126</v>
+      </c>
+      <c r="AS37">
+        <v>48.999699909972996</v>
+      </c>
+      <c r="AT37">
+        <v>48.738724039066689</v>
+      </c>
+      <c r="AU37">
+        <v>49.967645866467088</v>
+      </c>
+      <c r="AV37">
+        <v>50.118283663258644</v>
+      </c>
+      <c r="AW37">
+        <v>50.142565575629291</v>
+      </c>
+      <c r="AX37">
+        <v>51.287537088040025</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>0.9733303344928661</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.6058117464301653</v>
-      </c>
-      <c r="C38" t="n">
-        <v>48.60814124348245</v>
-      </c>
-      <c r="D38" t="n">
-        <v>80.8</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.0071225932090258</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G38" t="n">
+    <row r="38" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.10266206284373007</v>
+      </c>
+      <c r="B38">
+        <v>0.11694559904716958</v>
+      </c>
+      <c r="C38">
+        <v>48.674420968323282</v>
+      </c>
+      <c r="D38">
+        <v>115.5</v>
+      </c>
+      <c r="E38">
+        <v>2.0964658940944205</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>0.7</v>
       </c>
-      <c r="H38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.3</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>0.6</v>
+      </c>
+      <c r="L38">
+        <v>0.3</v>
+      </c>
+      <c r="M38">
+        <v>0.1</v>
+      </c>
+      <c r="N38">
+        <v>0.6</v>
+      </c>
+      <c r="O38">
         <v>0.4</v>
       </c>
-      <c r="S38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>18.0</v>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>18</v>
       </c>
       <c r="U38" t="s">
         <v>47</v>
       </c>
       <c r="V38" t="s">
-        <v>49</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Y38">
+        <v>7</v>
+      </c>
+      <c r="Z38">
+        <v>11</v>
+      </c>
+      <c r="AA38">
+        <v>5</v>
+      </c>
+      <c r="AB38">
+        <v>5</v>
+      </c>
+      <c r="AC38">
+        <v>20</v>
+      </c>
+      <c r="AE38">
+        <v>10</v>
+      </c>
+      <c r="AF38">
+        <v>5</v>
       </c>
       <c r="AG38" t="b">
         <v>0</v>
@@ -5178,121 +5028,121 @@
       <c r="AK38" t="b">
         <v>0</v>
       </c>
-      <c r="AO38" t="n">
-        <v>39.87155963302752</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>48.2712077004881</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>49.508579496090356</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>49.09751058990464</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>49.05082635901882</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>48.75737162303909</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>49.960629307387656</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>50.12950021753318</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>50.13923954947464</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>51.29498795886055</v>
+      <c r="AO38">
+        <v>39.886850152905204</v>
+      </c>
+      <c r="AP38">
+        <v>48.456630218416819</v>
+      </c>
+      <c r="AQ38">
+        <v>49.613560671879526</v>
+      </c>
+      <c r="AR38">
+        <v>49.18932454145191</v>
+      </c>
+      <c r="AS38">
+        <v>49.114734420326101</v>
+      </c>
+      <c r="AT38">
+        <v>48.818908650148011</v>
+      </c>
+      <c r="AU38">
+        <v>49.993373249758314</v>
+      </c>
+      <c r="AV38">
+        <v>50.172327061126822</v>
+      </c>
+      <c r="AW38">
+        <v>50.173709275077485</v>
+      </c>
+      <c r="AX38">
+        <v>51.324791442142661</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2.5708296950484844</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2.5834069232692674</v>
-      </c>
-      <c r="C39" t="n">
-        <v>49.0699759643418</v>
-      </c>
-      <c r="D39" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.277087392235982</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G39" t="n">
+    <row r="39" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.36127396419733299</v>
+      </c>
+      <c r="B39">
+        <v>0.50573344538440324</v>
+      </c>
+      <c r="C39">
+        <v>48.554078255641095</v>
+      </c>
+      <c r="D39">
+        <v>109.6</v>
+      </c>
+      <c r="E39">
+        <v>2.2138983900864231</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>0.7</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.3</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>0.6</v>
+      </c>
+      <c r="L39">
+        <v>0.3</v>
+      </c>
+      <c r="M39">
+        <v>0.1</v>
+      </c>
+      <c r="N39">
+        <v>0.6</v>
+      </c>
+      <c r="O39">
         <v>0.4</v>
       </c>
-      <c r="S39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>18.0</v>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>18</v>
       </c>
       <c r="U39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V39" t="s">
-        <v>49</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>20</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+      <c r="Z39">
+        <v>11</v>
+      </c>
+      <c r="AA39">
+        <v>5</v>
+      </c>
+      <c r="AB39">
+        <v>5</v>
+      </c>
+      <c r="AC39">
+        <v>20</v>
+      </c>
+      <c r="AE39">
+        <v>10</v>
+      </c>
+      <c r="AF39">
+        <v>5</v>
       </c>
       <c r="AG39" t="b">
         <v>0</v>
@@ -5300,121 +5150,121 @@
       <c r="AK39" t="b">
         <v>0</v>
       </c>
-      <c r="AO39" t="n">
-        <v>41.403669724770644</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>48.93245712104273</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>50.05701563857515</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>49.55032030549006</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>49.36536516510508</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>49.087900048949905</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>50.18632862444258</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>50.316102893191214</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>50.32519464812155</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>51.47540547372903</v>
+      <c r="AO39">
+        <v>39.62691131498471</v>
+      </c>
+      <c r="AP39">
+        <v>48.14168461811142</v>
+      </c>
+      <c r="AQ39">
+        <v>49.481429192006949</v>
+      </c>
+      <c r="AR39">
+        <v>49.036301288873126</v>
+      </c>
+      <c r="AS39">
+        <v>48.999699909972996</v>
+      </c>
+      <c r="AT39">
+        <v>48.738724039066689</v>
+      </c>
+      <c r="AU39">
+        <v>49.967645866467088</v>
+      </c>
+      <c r="AV39">
+        <v>50.118283663258644</v>
+      </c>
+      <c r="AW39">
+        <v>50.142565575629291</v>
+      </c>
+      <c r="AX39">
+        <v>51.287537088040025</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>3.5925</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.62125</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9.0311986863711</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2.391667499999997</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G40" t="n">
+    <row r="40" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.6249920013196171</v>
+      </c>
+      <c r="B40">
+        <v>4.2143288949826054</v>
+      </c>
+      <c r="C40">
+        <v>48.439906051585737</v>
+      </c>
+      <c r="D40">
+        <v>95.6</v>
+      </c>
+      <c r="E40">
+        <v>2.5284035628200323</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>0.7</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.3</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>0.6</v>
+      </c>
+      <c r="L40">
+        <v>0.3</v>
+      </c>
+      <c r="M40">
+        <v>0.1</v>
+      </c>
+      <c r="N40">
+        <v>0.6</v>
+      </c>
+      <c r="O40">
         <v>0.4</v>
       </c>
-      <c r="S40" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>18.0</v>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>18</v>
       </c>
       <c r="U40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V40" t="s">
-        <v>49</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>30</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+      <c r="Z40">
+        <v>11</v>
+      </c>
+      <c r="AA40">
+        <v>5</v>
+      </c>
+      <c r="AB40">
+        <v>5</v>
+      </c>
+      <c r="AC40">
+        <v>20</v>
+      </c>
+      <c r="AE40">
+        <v>10</v>
+      </c>
+      <c r="AF40">
+        <v>5</v>
       </c>
       <c r="AG40" t="b">
         <v>0</v>
@@ -5422,432 +5272,197 @@
       <c r="AK40" t="b">
         <v>0</v>
       </c>
-      <c r="AO40" t="n">
-        <v>9.0311986863711</v>
+      <c r="AO40">
+        <v>39.461773700305805</v>
+      </c>
+      <c r="AP40">
+        <v>47.997164126196381</v>
+      </c>
+      <c r="AQ40">
+        <v>49.297712134375907</v>
+      </c>
+      <c r="AR40">
+        <v>48.906927084420147</v>
+      </c>
+      <c r="AS40">
+        <v>48.912451513231744</v>
+      </c>
+      <c r="AT40">
+        <v>48.643155171208129</v>
+      </c>
+      <c r="AU40">
+        <v>49.855770730033996</v>
+      </c>
+      <c r="AV40">
+        <v>50.054723189036331</v>
+      </c>
+      <c r="AW40">
+        <v>50.062740947917447</v>
+      </c>
+      <c r="AX40">
+        <v>51.206641919131442</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2.9916666666666667</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.011777777777778</v>
-      </c>
-      <c r="C41" t="n">
-        <v>19.705400981996725</v>
-      </c>
-      <c r="D41" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3.7981411111111165</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G41" t="n">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.34231854782455523</v>
+      </c>
+      <c r="B41">
+        <v>0.47794582620630671</v>
+      </c>
+      <c r="C41">
+        <v>48.625364519740131</v>
+      </c>
+      <c r="D41">
+        <v>118.4</v>
+      </c>
+      <c r="E41">
+        <v>2.0406745935901891</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>0.7</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.3</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>0.6</v>
+      </c>
+      <c r="L41">
+        <v>0.3</v>
+      </c>
+      <c r="M41">
+        <v>0.1</v>
+      </c>
+      <c r="N41">
+        <v>0.6</v>
+      </c>
+      <c r="O41">
         <v>0.4</v>
       </c>
-      <c r="S41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>18.0</v>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>18</v>
       </c>
       <c r="U41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V41" t="s">
-        <v>49</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>5.0</v>
+        <v>52</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>20</v>
+      </c>
+      <c r="Y41">
+        <v>7</v>
+      </c>
+      <c r="Z41">
+        <v>11</v>
+      </c>
+      <c r="AA41">
+        <v>5</v>
+      </c>
+      <c r="AB41">
+        <v>5</v>
+      </c>
+      <c r="AC41">
+        <v>20</v>
+      </c>
+      <c r="AE41">
+        <v>10</v>
+      </c>
+      <c r="AF41">
+        <v>5</v>
       </c>
       <c r="AG41" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>35</v>
+      </c>
+      <c r="AJ41">
+        <v>4.5</v>
       </c>
       <c r="AK41" t="b">
         <v>0</v>
       </c>
-      <c r="AO41" t="n">
-        <v>19.705400981996725</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2.3744285714285716</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2.3977142857142857</v>
-      </c>
-      <c r="C42" t="n">
-        <v>20.654664484451718</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4.883328571428576</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U42" t="s">
-        <v>45</v>
-      </c>
-      <c r="V42" t="s">
-        <v>49</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AG42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>20.654664484451718</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2.307</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2.3297142857142856</v>
-      </c>
-      <c r="C43" t="n">
-        <v>20.78559738134206</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.764281428571427</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U43" t="s">
-        <v>45</v>
-      </c>
-      <c r="V43" t="s">
-        <v>49</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AG43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>20.78559738134206</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2.0325001086513312</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2.039552501869406</v>
-      </c>
-      <c r="C44" t="n">
-        <v>49.39480212386825</v>
-      </c>
-      <c r="D44" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6.921283221730198</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U44" t="s">
-        <v>45</v>
-      </c>
-      <c r="V44" t="s">
-        <v>49</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AG44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>42.42201834862385</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>49.54598751124806</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>50.426259774109475</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>49.790984148182154</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>49.601547130805905</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>49.251066408708425</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>50.36603049864347</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>50.51188274961932</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>50.452793106054884</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>51.579451562687105</v>
+      <c r="AO41">
+        <v>40</v>
+      </c>
+      <c r="AP41">
+        <v>48.246666484879889</v>
+      </c>
+      <c r="AQ41">
+        <v>49.532109759629307</v>
+      </c>
+      <c r="AR41">
+        <v>49.11907295731347</v>
+      </c>
+      <c r="AS41">
+        <v>49.018594467229057</v>
+      </c>
+      <c r="AT41">
+        <v>48.774620638213563</v>
+      </c>
+      <c r="AU41">
+        <v>49.959070072036674</v>
+      </c>
+      <c r="AV41">
+        <v>50.153632804002612</v>
+      </c>
+      <c r="AW41">
+        <v>50.154357850177647</v>
+      </c>
+      <c r="AX41">
+        <v>51.295520163919164</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AN27">
+  <autoFilter ref="A3:AN40">
     <filterColumn colId="20">
       <filters>
-        <filter val="HEURISTIC_VERSION_3"/>
+        <filter val="HEURISTIC_VERSION_1"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="22">
+    <filterColumn colId="25">
       <filters>
-        <filter val="1"/>
+        <filter val="11"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="30">
+    <filterColumn colId="27">
       <filters>
-        <filter val="10"/>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="32">
+      <filters>
+        <filter val="TRUE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5862,8 +5477,8 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:AF1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C7 C1 C9:C1048576">
-    <cfRule priority="2" type="colorScale">
+  <conditionalFormatting sqref="C3:C1048576 C1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5874,69 +5489,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C8">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="20" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="20" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" hidden="true" style="20" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" hidden="true" style="20" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" style="20" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" hidden="true" style="20" width="10.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" hidden="true" style="1" width="10.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" style="20" width="10.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" hidden="true" style="20" width="8.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" hidden="true" style="20" width="10.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" hidden="true" style="20" width="10.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" hidden="true" style="20" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" hidden="true" style="20" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" hidden="true" style="1" width="12.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" hidden="true" style="20" width="13.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="20" width="12.7109375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="20" width="14.5703125" collapsed="true"/>
-    <col min="22" max="23" style="20" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="20" width="11.140625" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" style="20" width="14.85546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="20" width="10.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="20" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="20" width="9.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="20" width="11.28515625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="20" width="12.140625" collapsed="true"/>
-    <col min="34" max="34" style="1" width="9.140625" collapsed="true"/>
-    <col min="35" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.28515625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.7109375" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="9.140625" style="20" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9" style="20" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="1" collapsed="1"/>
+    <col min="35" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="32.25" r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>25</v>
       </c>
@@ -5987,7 +5590,7 @@
       <c r="AF1" s="27"/>
       <c r="AG1" s="27"/>
     </row>
-    <row customHeight="1" ht="16.5" r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>0</v>
       </c>
@@ -6088,7 +5691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.75" r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
@@ -7917,72 +7520,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>48.572</v>
-      </c>
-      <c r="B25" t="n">
-        <v>48.654</v>
-      </c>
-      <c r="C25" t="n">
-        <v>532.812</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E25" t="n">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>48.572000000000003</v>
+      </c>
+      <c r="B25">
+        <v>48.654000000000003</v>
+      </c>
+      <c r="C25">
+        <v>532.81200000000001</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0.7</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0.3</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>0.6</v>
+      </c>
+      <c r="J25">
+        <v>0.3</v>
+      </c>
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+      <c r="L25">
+        <v>0.6</v>
+      </c>
+      <c r="M25">
         <v>0.4</v>
       </c>
-      <c r="Q25" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>18.0</v>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>18</v>
       </c>
       <c r="S25" t="s">
         <v>45</v>
       </c>
-      <c r="T25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>5.0</v>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>20</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>8</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
       </c>
       <c r="AA25" t="b">
         <v>0</v>
@@ -7991,72 +7594,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4.997</v>
-      </c>
-      <c r="C26" t="n">
-        <v>518.068</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="n">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4.9139999999999997</v>
+      </c>
+      <c r="B26">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="C26">
+        <v>518.06799999999998</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>0.7</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>0.6</v>
+      </c>
+      <c r="J26">
+        <v>0.3</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <v>0.6</v>
+      </c>
+      <c r="M26">
         <v>0.4</v>
       </c>
-      <c r="Q26" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>18.0</v>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>18</v>
       </c>
       <c r="S26" t="s">
         <v>45</v>
       </c>
-      <c r="T26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>5.0</v>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>20</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
       </c>
       <c r="AA26" t="b">
         <v>0</v>
@@ -8065,72 +7668,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>20.626</v>
-      </c>
-      <c r="B27" t="n">
-        <v>20.704</v>
-      </c>
-      <c r="C27" t="n">
-        <v>513.789</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20.626000000000001</v>
+      </c>
+      <c r="B27">
+        <v>20.704000000000001</v>
+      </c>
+      <c r="C27">
+        <v>513.78899999999999</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0.7</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.3</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>0.6</v>
+      </c>
+      <c r="J27">
+        <v>0.3</v>
+      </c>
+      <c r="K27">
+        <v>0.1</v>
+      </c>
+      <c r="L27">
+        <v>0.6</v>
+      </c>
+      <c r="M27">
         <v>0.4</v>
       </c>
-      <c r="Q27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>18.0</v>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>18</v>
       </c>
       <c r="S27" t="s">
         <v>45</v>
       </c>
-      <c r="T27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>5.0</v>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>20</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
       </c>
       <c r="AA27" t="b">
         <v>0</v>
@@ -8139,72 +7742,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0.184</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.247</v>
       </c>
-      <c r="C28" t="n">
-        <v>516.593</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="C28">
+        <v>516.59299999999996</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>0.7</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.3</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>0.6</v>
+      </c>
+      <c r="J28">
+        <v>0.3</v>
+      </c>
+      <c r="K28">
+        <v>0.1</v>
+      </c>
+      <c r="L28">
+        <v>0.6</v>
+      </c>
+      <c r="M28">
         <v>0.4</v>
       </c>
-      <c r="Q28" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>18.0</v>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>18</v>
       </c>
       <c r="S28" t="s">
         <v>47</v>
       </c>
-      <c r="T28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>5.0</v>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>20</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>5</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>5</v>
       </c>
       <c r="AA28" t="b">
         <v>0</v>
@@ -8213,72 +7816,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>0.192</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="C29" t="n">
-        <v>516.593</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="B29">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C29">
+        <v>516.59299999999996</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0.7</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.3</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>0.6</v>
+      </c>
+      <c r="J29">
+        <v>0.3</v>
+      </c>
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+      <c r="L29">
+        <v>0.6</v>
+      </c>
+      <c r="M29">
         <v>0.4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>18.0</v>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>18</v>
       </c>
       <c r="S29" t="s">
         <v>47</v>
       </c>
-      <c r="T29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>5.0</v>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>20</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29">
+        <v>5</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
       </c>
       <c r="AA29" t="b">
         <v>0</v>
@@ -8287,695 +7890,695 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="B30">
         <v>0.254</v>
       </c>
-      <c r="C30" t="n">
-        <v>501.133</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="C30">
+        <v>501.13299999999998</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>0.7</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.3</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>0.6</v>
+      </c>
+      <c r="J30">
+        <v>0.3</v>
+      </c>
+      <c r="K30">
+        <v>0.1</v>
+      </c>
+      <c r="L30">
+        <v>0.6</v>
+      </c>
+      <c r="M30">
         <v>0.4</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="N30">
+        <v>0.1</v>
+      </c>
+      <c r="O30">
+        <v>0.3</v>
+      </c>
+      <c r="P30">
         <v>0.4</v>
       </c>
-      <c r="Q30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>18.0</v>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>18</v>
       </c>
       <c r="S30" t="s">
         <v>47</v>
       </c>
-      <c r="T30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>5.0</v>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>20</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>5</v>
       </c>
       <c r="AA30" t="b">
         <v>1</v>
       </c>
-      <c r="AB30" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="AB30">
+        <v>35</v>
+      </c>
+      <c r="AC30">
         <v>11.5</v>
       </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="C31" t="n">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="B31">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C31">
         <v>511.476</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0.7</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.3</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>0.6</v>
+      </c>
+      <c r="J31">
+        <v>0.3</v>
+      </c>
+      <c r="K31">
+        <v>0.1</v>
+      </c>
+      <c r="L31">
+        <v>0.6</v>
+      </c>
+      <c r="M31">
         <v>0.4</v>
       </c>
-      <c r="N31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="N31">
+        <v>0.1</v>
+      </c>
+      <c r="O31">
+        <v>0.3</v>
+      </c>
+      <c r="P31">
         <v>0.4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>18.0</v>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>18</v>
       </c>
       <c r="S31" t="s">
         <v>47</v>
       </c>
-      <c r="T31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>5.0</v>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Z31">
+        <v>5</v>
       </c>
       <c r="AA31" t="b">
         <v>1</v>
       </c>
-      <c r="AB31" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AB31">
+        <v>30</v>
+      </c>
+      <c r="AC31">
         <v>2.5</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="B32">
         <v>0.23</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>511.476</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0.7</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H32" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.3</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0.6</v>
+      </c>
+      <c r="J32">
+        <v>0.3</v>
+      </c>
+      <c r="K32">
+        <v>0.1</v>
+      </c>
+      <c r="L32">
+        <v>0.6</v>
+      </c>
+      <c r="M32">
         <v>0.4</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P32" t="n">
+      <c r="N32">
+        <v>0.1</v>
+      </c>
+      <c r="O32">
+        <v>0.3</v>
+      </c>
+      <c r="P32">
         <v>0.4</v>
       </c>
-      <c r="Q32" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>18.0</v>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>18</v>
       </c>
       <c r="S32" t="s">
         <v>47</v>
       </c>
-      <c r="T32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>5.0</v>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>20</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <v>5</v>
       </c>
       <c r="AA32" t="b">
         <v>1</v>
       </c>
-      <c r="AB32" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>10.0</v>
+      <c r="AB32">
+        <v>30</v>
+      </c>
+      <c r="AC32">
+        <v>10</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="C33" t="n">
-        <v>511.478</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B33">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C33">
+        <v>511.47800000000001</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>0.7</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.3</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0.6</v>
+      </c>
+      <c r="J33">
+        <v>0.3</v>
+      </c>
+      <c r="K33">
+        <v>0.1</v>
+      </c>
+      <c r="L33">
+        <v>0.6</v>
+      </c>
+      <c r="M33">
         <v>0.4</v>
       </c>
-      <c r="N33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P33" t="n">
+      <c r="N33">
+        <v>0.1</v>
+      </c>
+      <c r="O33">
+        <v>0.3</v>
+      </c>
+      <c r="P33">
         <v>0.4</v>
       </c>
-      <c r="Q33" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>18.0</v>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>18</v>
       </c>
       <c r="S33" t="s">
         <v>47</v>
       </c>
-      <c r="T33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>5.0</v>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>20</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>5</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>5</v>
       </c>
       <c r="AA33" t="b">
         <v>1</v>
       </c>
-      <c r="AB33" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10.0</v>
+      <c r="AB33">
+        <v>35</v>
+      </c>
+      <c r="AC33">
+        <v>10</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="B34">
         <v>0.224</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>506.85</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>0.7</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.3</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0.6</v>
+      </c>
+      <c r="J34">
+        <v>0.3</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <v>0.6</v>
+      </c>
+      <c r="M34">
         <v>0.4</v>
       </c>
-      <c r="N34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="N34">
+        <v>0.1</v>
+      </c>
+      <c r="O34">
+        <v>0.3</v>
+      </c>
+      <c r="P34">
         <v>0.4</v>
       </c>
-      <c r="Q34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>18.0</v>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>18</v>
       </c>
       <c r="S34" t="s">
         <v>47</v>
       </c>
-      <c r="T34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>5.0</v>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>20</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>5</v>
       </c>
       <c r="AA34" t="b">
         <v>1</v>
       </c>
-      <c r="AB34" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12.0</v>
+      <c r="AB34">
+        <v>50</v>
+      </c>
+      <c r="AC34">
+        <v>12</v>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>515.056</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.1</v>
+      </c>
+      <c r="C35">
+        <v>515.05600000000004</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>0.7</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.3</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0.6</v>
+      </c>
+      <c r="J35">
+        <v>0.3</v>
+      </c>
+      <c r="K35">
+        <v>0.1</v>
+      </c>
+      <c r="L35">
+        <v>0.6</v>
+      </c>
+      <c r="M35">
         <v>0.4</v>
       </c>
-      <c r="N35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="N35">
+        <v>0.1</v>
+      </c>
+      <c r="O35">
+        <v>0.3</v>
+      </c>
+      <c r="P35">
         <v>0.4</v>
       </c>
-      <c r="Q35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>18.0</v>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>18</v>
       </c>
       <c r="S35" t="s">
         <v>47</v>
       </c>
-      <c r="T35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>5.0</v>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>20</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>5</v>
       </c>
       <c r="AA35" t="b">
         <v>1</v>
       </c>
-      <c r="AB35" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>12.0</v>
+      <c r="AB35">
+        <v>100</v>
+      </c>
+      <c r="AC35">
+        <v>12</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="C36" t="n">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="B36">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="C36">
         <v>506.85</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>0.7</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H36" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0.3</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0.6</v>
+      </c>
+      <c r="J36">
+        <v>0.3</v>
+      </c>
+      <c r="K36">
+        <v>0.1</v>
+      </c>
+      <c r="L36">
+        <v>0.6</v>
+      </c>
+      <c r="M36">
         <v>0.4</v>
       </c>
-      <c r="N36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="N36">
+        <v>0.1</v>
+      </c>
+      <c r="O36">
+        <v>0.3</v>
+      </c>
+      <c r="P36">
         <v>0.4</v>
       </c>
-      <c r="Q36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>18.0</v>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>18</v>
       </c>
       <c r="S36" t="s">
         <v>47</v>
       </c>
-      <c r="T36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>5.0</v>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>20</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+      <c r="W36">
+        <v>5</v>
+      </c>
+      <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
       </c>
       <c r="AA36" t="b">
         <v>1</v>
       </c>
-      <c r="AB36" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>12.0</v>
+      <c r="AB36">
+        <v>50</v>
+      </c>
+      <c r="AC36">
+        <v>12</v>
       </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="C37" t="n">
-        <v>516.593</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E37" t="n">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="B37">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C37">
+        <v>516.59299999999996</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>0.7</v>
       </c>
-      <c r="F37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.3</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0.6</v>
+      </c>
+      <c r="J37">
+        <v>0.3</v>
+      </c>
+      <c r="K37">
+        <v>0.1</v>
+      </c>
+      <c r="L37">
+        <v>0.6</v>
+      </c>
+      <c r="M37">
         <v>0.4</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>18.0</v>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>18</v>
       </c>
       <c r="S37" t="s">
         <v>47</v>
       </c>
-      <c r="T37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>5.0</v>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>20</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+      <c r="W37">
+        <v>5</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Z37">
+        <v>5</v>
       </c>
       <c r="AA37" t="b">
         <v>0</v>
@@ -8984,72 +8587,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2.508</v>
       </c>
-      <c r="B38" t="n">
-        <v>4.131</v>
-      </c>
-      <c r="C38" t="n">
-        <v>493.719</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="B38">
+        <v>4.1310000000000002</v>
+      </c>
+      <c r="C38">
+        <v>493.71899999999999</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>0.7</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0.3</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>0.6</v>
+      </c>
+      <c r="J38">
+        <v>0.3</v>
+      </c>
+      <c r="K38">
+        <v>0.1</v>
+      </c>
+      <c r="L38">
+        <v>0.6</v>
+      </c>
+      <c r="M38">
         <v>0.4</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>18.0</v>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>18</v>
       </c>
       <c r="S38" t="s">
         <v>47</v>
       </c>
-      <c r="T38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>5.0</v>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>20</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>5</v>
+      </c>
+      <c r="X38">
+        <v>30</v>
+      </c>
+      <c r="Z38">
+        <v>5</v>
       </c>
       <c r="AA38" t="b">
         <v>0</v>
@@ -9058,72 +8661,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2.588</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2.655</v>
-      </c>
-      <c r="C39" t="n">
-        <v>531.8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="B39">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="C39">
+        <v>531.79999999999995</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>0.7</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H39" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0.3</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0.6</v>
+      </c>
+      <c r="J39">
+        <v>0.3</v>
+      </c>
+      <c r="K39">
+        <v>0.1</v>
+      </c>
+      <c r="L39">
+        <v>0.6</v>
+      </c>
+      <c r="M39">
         <v>0.4</v>
       </c>
-      <c r="Q39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>18.0</v>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>18</v>
       </c>
       <c r="S39" t="s">
         <v>45</v>
       </c>
-      <c r="T39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>5.0</v>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>20</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
       </c>
       <c r="AA39" t="b">
         <v>0</v>
@@ -9132,72 +8735,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>3.817</v>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.8170000000000002</v>
+      </c>
+      <c r="B40">
         <v>3.879</v>
       </c>
-      <c r="C40" t="n">
-        <v>517.834</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="C40">
+        <v>517.83399999999995</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>0.7</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H40" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0.3</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0.6</v>
+      </c>
+      <c r="J40">
+        <v>0.3</v>
+      </c>
+      <c r="K40">
+        <v>0.1</v>
+      </c>
+      <c r="L40">
+        <v>0.6</v>
+      </c>
+      <c r="M40">
         <v>0.4</v>
       </c>
-      <c r="Q40" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>18.0</v>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>18</v>
       </c>
       <c r="S40" t="s">
         <v>45</v>
       </c>
-      <c r="T40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>5.0</v>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>20</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>5</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>5</v>
       </c>
       <c r="AA40" t="b">
         <v>0</v>
@@ -9206,72 +8809,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>4.895</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.961</v>
-      </c>
-      <c r="C41" t="n">
-        <v>506.878</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="B41">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="C41">
+        <v>506.87799999999999</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>0.7</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.3</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0.6</v>
+      </c>
+      <c r="J41">
+        <v>0.3</v>
+      </c>
+      <c r="K41">
+        <v>0.1</v>
+      </c>
+      <c r="L41">
+        <v>0.6</v>
+      </c>
+      <c r="M41">
         <v>0.4</v>
       </c>
-      <c r="Q41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>18.0</v>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>18</v>
       </c>
       <c r="S41" t="s">
         <v>45</v>
       </c>
-      <c r="T41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>5.0</v>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>20</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
       </c>
       <c r="AA41" t="b">
         <v>0</v>
@@ -9280,72 +8883,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>17.683</v>
       </c>
-      <c r="B42" t="n">
-        <v>17.755</v>
-      </c>
-      <c r="C42" t="n">
-        <v>501.821</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="B42">
+        <v>17.754999999999999</v>
+      </c>
+      <c r="C42">
+        <v>501.82100000000003</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>0.7</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0.3</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0.6</v>
+      </c>
+      <c r="J42">
+        <v>0.3</v>
+      </c>
+      <c r="K42">
+        <v>0.1</v>
+      </c>
+      <c r="L42">
+        <v>0.6</v>
+      </c>
+      <c r="M42">
         <v>0.4</v>
       </c>
-      <c r="Q42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>18.0</v>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>18</v>
       </c>
       <c r="S42" t="s">
         <v>45</v>
       </c>
-      <c r="T42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>5.0</v>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>20</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42">
+        <v>5</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+      <c r="Z42">
+        <v>5</v>
       </c>
       <c r="AA42" t="b">
         <v>0</v>
@@ -9354,72 +8957,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="C43" t="n">
-        <v>500.467</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="B43">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C43">
+        <v>500.46699999999998</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>0.7</v>
       </c>
-      <c r="F43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H43" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.3</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0.6</v>
+      </c>
+      <c r="J43">
+        <v>0.3</v>
+      </c>
+      <c r="K43">
+        <v>0.1</v>
+      </c>
+      <c r="L43">
+        <v>0.6</v>
+      </c>
+      <c r="M43">
         <v>0.4</v>
       </c>
-      <c r="Q43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>18.0</v>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>18</v>
       </c>
       <c r="S43" t="s">
         <v>47</v>
       </c>
-      <c r="T43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>5.0</v>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>20</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+      <c r="W43">
+        <v>5</v>
+      </c>
+      <c r="X43">
+        <v>10</v>
+      </c>
+      <c r="Z43">
+        <v>5</v>
       </c>
       <c r="AA43" t="b">
         <v>0</v>
@@ -9428,72 +9031,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.402</v>
-      </c>
-      <c r="C44" t="n">
-        <v>498.427</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="B44">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="C44">
+        <v>498.42700000000002</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>0.7</v>
       </c>
-      <c r="F44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H44" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0.3</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0.6</v>
+      </c>
+      <c r="J44">
+        <v>0.3</v>
+      </c>
+      <c r="K44">
+        <v>0.1</v>
+      </c>
+      <c r="L44">
+        <v>0.6</v>
+      </c>
+      <c r="M44">
         <v>0.4</v>
       </c>
-      <c r="Q44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>18.0</v>
+      <c r="Q44">
+        <v>5</v>
+      </c>
+      <c r="R44">
+        <v>18</v>
       </c>
       <c r="S44" t="s">
         <v>47</v>
       </c>
-      <c r="T44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>5.0</v>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>20</v>
+      </c>
+      <c r="V44">
+        <v>5</v>
+      </c>
+      <c r="W44">
+        <v>5</v>
+      </c>
+      <c r="X44">
+        <v>20</v>
+      </c>
+      <c r="Z44">
+        <v>5</v>
       </c>
       <c r="AA44" t="b">
         <v>0</v>
@@ -9502,72 +9105,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2.495</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="C45" t="n">
-        <v>493.719</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="B45">
+        <v>4.1210000000000004</v>
+      </c>
+      <c r="C45">
+        <v>493.71899999999999</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>0.7</v>
       </c>
-      <c r="F45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.3</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0.6</v>
+      </c>
+      <c r="J45">
+        <v>0.3</v>
+      </c>
+      <c r="K45">
+        <v>0.1</v>
+      </c>
+      <c r="L45">
+        <v>0.6</v>
+      </c>
+      <c r="M45">
         <v>0.4</v>
       </c>
-      <c r="Q45" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>18.0</v>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>18</v>
       </c>
       <c r="S45" t="s">
         <v>47</v>
       </c>
-      <c r="T45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>5.0</v>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>20</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+      <c r="W45">
+        <v>5</v>
+      </c>
+      <c r="X45">
+        <v>30</v>
+      </c>
+      <c r="Z45">
+        <v>5</v>
       </c>
       <c r="AA45" t="b">
         <v>0</v>
@@ -9576,72 +9179,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="C46" t="n">
-        <v>516.593</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="B46">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C46">
+        <v>516.59299999999996</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>0.7</v>
       </c>
-      <c r="F46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.3</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0.6</v>
+      </c>
+      <c r="J46">
+        <v>0.3</v>
+      </c>
+      <c r="K46">
+        <v>0.1</v>
+      </c>
+      <c r="L46">
+        <v>0.6</v>
+      </c>
+      <c r="M46">
         <v>0.4</v>
       </c>
-      <c r="Q46" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>18.0</v>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>18</v>
       </c>
       <c r="S46" t="s">
         <v>47</v>
       </c>
-      <c r="T46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>5.0</v>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>20</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Z46">
+        <v>5</v>
       </c>
       <c r="AA46" t="b">
         <v>0</v>
@@ -9650,72 +9253,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>5.001</v>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5.0010000000000003</v>
+      </c>
+      <c r="B47">
         <v>5.069</v>
       </c>
-      <c r="C47" t="n">
-        <v>518.068</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="C47">
+        <v>518.06799999999998</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>0.7</v>
       </c>
-      <c r="F47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.3</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>0.6</v>
+      </c>
+      <c r="J47">
+        <v>0.3</v>
+      </c>
+      <c r="K47">
+        <v>0.1</v>
+      </c>
+      <c r="L47">
+        <v>0.6</v>
+      </c>
+      <c r="M47">
         <v>0.4</v>
       </c>
-      <c r="Q47" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>18.0</v>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>18</v>
       </c>
       <c r="S47" t="s">
         <v>45</v>
       </c>
-      <c r="T47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>5.0</v>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>20</v>
+      </c>
+      <c r="V47">
+        <v>5</v>
+      </c>
+      <c r="W47">
+        <v>4</v>
+      </c>
+      <c r="X47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>5</v>
       </c>
       <c r="AA47" t="b">
         <v>0</v>
@@ -9724,72 +9327,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>4.914</v>
-      </c>
-      <c r="B48" t="n">
-        <v>4.979</v>
-      </c>
-      <c r="C48" t="n">
-        <v>518.068</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E48" t="n">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4.9139999999999997</v>
+      </c>
+      <c r="B48">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="C48">
+        <v>518.06799999999998</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>0.7</v>
       </c>
-      <c r="F48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.3</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>0.6</v>
+      </c>
+      <c r="J48">
+        <v>0.3</v>
+      </c>
+      <c r="K48">
+        <v>0.1</v>
+      </c>
+      <c r="L48">
+        <v>0.6</v>
+      </c>
+      <c r="M48">
         <v>0.4</v>
       </c>
-      <c r="Q48" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>18.0</v>
+      <c r="Q48">
+        <v>5</v>
+      </c>
+      <c r="R48">
+        <v>18</v>
       </c>
       <c r="S48" t="s">
         <v>45</v>
       </c>
-      <c r="T48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>5.0</v>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>20</v>
+      </c>
+      <c r="V48">
+        <v>5</v>
+      </c>
+      <c r="W48">
+        <v>4</v>
+      </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>5</v>
       </c>
       <c r="AA48" t="b">
         <v>0</v>
@@ -9798,77 +9401,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="C49" t="n">
-        <v>518.068</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E49" t="n">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C49">
+        <v>518.06799999999998</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
         <v>0.7</v>
       </c>
-      <c r="F49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H49" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.3</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0.6</v>
+      </c>
+      <c r="J49">
+        <v>0.3</v>
+      </c>
+      <c r="K49">
+        <v>0.1</v>
+      </c>
+      <c r="L49">
+        <v>0.6</v>
+      </c>
+      <c r="M49">
         <v>0.4</v>
       </c>
-      <c r="Q49" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>18.0</v>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>18</v>
       </c>
       <c r="S49" t="s">
         <v>45</v>
       </c>
-      <c r="T49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>5.0</v>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>20</v>
+      </c>
+      <c r="V49">
+        <v>5</v>
+      </c>
+      <c r="W49">
+        <v>4</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Z49">
+        <v>5</v>
       </c>
       <c r="AA49" t="b">
         <v>0</v>
       </c>
       <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="B50">
+        <v>7.3470000000000004</v>
+      </c>
+      <c r="C50">
+        <v>534.06799999999998</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.7</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0.3</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>0.6</v>
+      </c>
+      <c r="J50">
+        <v>0.3</v>
+      </c>
+      <c r="K50">
+        <v>0.1</v>
+      </c>
+      <c r="L50">
+        <v>0.6</v>
+      </c>
+      <c r="M50">
+        <v>0.4</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>18</v>
+      </c>
+      <c r="S50" t="s">
+        <v>45</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>20</v>
+      </c>
+      <c r="V50">
+        <v>5</v>
+      </c>
+      <c r="W50">
+        <v>3</v>
+      </c>
+      <c r="X50">
+        <v>5</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+      <c r="AA50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9884,7 +9561,7 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="54">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -14772,7 +14772,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI108"/>
+  <dimension ref="A1:AI140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="T53" sqref="T53"/>
@@ -23294,6 +23294,2470 @@
         <v>17.0</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="C109" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S109" t="s">
+        <v>47</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C110" t="n">
+        <v>27.1529</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S110" t="s">
+        <v>47</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="C111" t="n">
+        <v>217.517</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S111" t="s">
+        <v>47</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="C112" t="n">
+        <v>168.943</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S112" t="s">
+        <v>47</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="C113" t="n">
+        <v>395.854</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S113" t="s">
+        <v>47</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="C114" t="n">
+        <v>243.739</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S114" t="s">
+        <v>47</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="C115" t="n">
+        <v>540.204</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S115" t="s">
+        <v>47</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="C116" t="n">
+        <v>372.207</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S116" t="s">
+        <v>47</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="C117" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S117" t="s">
+        <v>47</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="C118" t="n">
+        <v>27.1529</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H118" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S118" t="s">
+        <v>47</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="C119" t="n">
+        <v>217.517</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H119" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S119" t="s">
+        <v>47</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="C120" t="n">
+        <v>167.83</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H120" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S120" t="s">
+        <v>47</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="C121" t="n">
+        <v>391.14</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S121" t="s">
+        <v>47</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="C122" t="n">
+        <v>240.106</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S122" t="s">
+        <v>47</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W122" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="C123" t="n">
+        <v>538.53</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S123" t="s">
+        <v>47</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="C124" t="n">
+        <v>369.389</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S124" t="s">
+        <v>47</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W124" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C125" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S125" t="s">
+        <v>47</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W125" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="C126" t="n">
+        <v>27.1529</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S126" t="s">
+        <v>47</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W126" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="C127" t="n">
+        <v>214.738</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S127" t="s">
+        <v>47</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W127" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="C128" t="n">
+        <v>167.83</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S128" t="s">
+        <v>47</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W128" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="C129" t="n">
+        <v>391.14</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R129" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S129" t="s">
+        <v>47</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W129" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="C130" t="n">
+        <v>240.106</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H130" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S130" t="s">
+        <v>47</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA130" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD130" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C131" t="n">
+        <v>535.56</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H131" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S131" t="s">
+        <v>47</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W131" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA131" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="C132" t="n">
+        <v>369.389</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S132" t="s">
+        <v>47</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V132" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W132" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X132" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA132" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD132" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="C133" t="n">
+        <v>56.3418</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S133" t="s">
+        <v>47</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W133" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="C134" t="n">
+        <v>27.1529</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S134" t="s">
+        <v>47</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="C135" t="n">
+        <v>214.738</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S135" t="s">
+        <v>47</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="C136" t="n">
+        <v>167.83</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S136" t="s">
+        <v>47</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W136" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="C137" t="n">
+        <v>391.14</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S137" t="s">
+        <v>47</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="C138" t="n">
+        <v>240.106</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S138" t="s">
+        <v>47</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W138" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.629</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="C139" t="n">
+        <v>535.56</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S139" t="s">
+        <v>47</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="C140" t="n">
+        <v>369.389</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S140" t="s">
+        <v>47</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:AH3"/>
   <mergeCells count="8">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="14100" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="One route" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
+    <sheet name="One route" r:id="rId2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$3:$AH$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$3:$AN$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$3:$AH$3</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$3:$AN$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="55">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -309,117 +309,117 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,10 +436,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -474,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -509,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -603,21 +603,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -634,7 +634,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -686,66 +686,66 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BA107"/>
+  <dimension ref="A1:BB107"/>
   <sheetViews>
-    <sheetView topLeftCell="B56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B56" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="9" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.5703125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="12.42578125" style="8" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="50" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" hidden="true" style="9" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" hidden="true" width="9.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" width="10.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="20" width="14.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" hidden="true" width="25.85546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="7" width="12.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="8" width="12.42578125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="11" width="13.85546875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="9" width="17.42578125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
+    <col min="42" max="50" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="57" r="1" s="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>25</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="AY1" s="38"/>
       <c r="AZ1" s="38"/>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="13.5" r="2" s="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="AZ2" s="25"/>
       <c r="BA2" s="25"/>
     </row>
-    <row r="3" spans="1:53" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="AY3" s="20"/>
     </row>
-    <row r="4" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.12214318269213584</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>51.582112587980141</v>
       </c>
     </row>
-    <row r="5" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.10794807033774752</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>51.56481592357536</v>
       </c>
     </row>
-    <row r="6" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.12530352879637388</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>51.522505621415924</v>
       </c>
     </row>
-    <row r="7" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.25073365142833803</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>51.54086669593795</v>
       </c>
     </row>
-    <row r="8" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.59688172803427442</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>51.549115874346384</v>
       </c>
     </row>
-    <row r="9" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5601196062493279</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>51.583975305685279</v>
       </c>
     </row>
-    <row r="10" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.7301146820850382</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>51.575193922218233</v>
       </c>
     </row>
-    <row r="11" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.0468491853727926</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>51.562421000811611</v>
       </c>
     </row>
-    <row r="12" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.5811182806259274</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>51.583975305685279</v>
       </c>
     </row>
-    <row r="13" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.9636566452991451</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>51.584773613273192</v>
       </c>
     </row>
-    <row r="14" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.2889285714285723</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>36.474600610303362</v>
       </c>
     </row>
-    <row r="15" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.9781428571428572</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>36.600251301382158</v>
       </c>
     </row>
-    <row r="16" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.12358333333333334</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>36.672051696284328</v>
       </c>
     </row>
-    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.2360714285714286</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>36.43870041285227</v>
       </c>
     </row>
-    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.0664374999999999</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>36.474600610303362</v>
       </c>
     </row>
-    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.0918571428571431</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>36.348949919224552</v>
       </c>
     </row>
-    <row r="20" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.8118888888888875</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>19.679539852095314</v>
       </c>
     </row>
-    <row r="21" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.1656363636363636</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>18.940016433853739</v>
       </c>
     </row>
-    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.2819999999999998</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>18.282662284305669</v>
       </c>
     </row>
-    <row r="23" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.4664999999999995</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>19.350862777321282</v>
       </c>
     </row>
-    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.8134999999999986</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>18.981101068200491</v>
       </c>
     </row>
-    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.9691107728485595</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>51.591426176505806</v>
       </c>
     </row>
-    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.0897879865360514</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>51.591426176505806</v>
       </c>
     </row>
-    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.11793238880832251</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>51.548849771817082</v>
       </c>
     </row>
-    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6.5613664654467412</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>51.559227770459955</v>
       </c>
     </row>
-    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.8784453179694132</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>51.53022259476576</v>
       </c>
     </row>
-    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.5457473407321443</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>51.477002088904854</v>
       </c>
     </row>
-    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.0819889293650329</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>51.413935789459671</v>
       </c>
     </row>
-    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.0999747020003943</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>51.53022259476576</v>
       </c>
     </row>
-    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.6367203266792942</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>51.477002088904854</v>
       </c>
     </row>
-    <row r="34" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.2543960691326506</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>51.443473170212485</v>
       </c>
     </row>
-    <row r="35" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.26330253190661984</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>51.452254553679531</v>
       </c>
     </row>
-    <row r="36" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.30810560318968938</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>51.364440719009032</v>
       </c>
     </row>
-    <row r="37" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36035243019371699</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>51.287537088040025</v>
       </c>
     </row>
-    <row r="38" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.10266206284373007</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>51.324791442142661</v>
       </c>
     </row>
-    <row r="39" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.36127396419733299</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>51.287537088040025</v>
       </c>
     </row>
-    <row r="40" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row hidden="1" r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.6249920013196171</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>51.285142165276277</v>
       </c>
     </row>
-    <row r="106" spans="1:50" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" s="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -14768,7 +14768,7 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C1048576 C1">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14780,7 +14780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C106">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14791,57 +14791,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="X168" sqref="X168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.28515625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.7109375" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.7109375" style="20" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="9.140625" style="20" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="25" max="26" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="10.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="20" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9" style="20" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.28515625" style="20" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="1" collapsed="1"/>
-    <col min="35" max="16384" width="9.140625" style="20" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="20" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="20" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="20" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" hidden="true" style="20" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" hidden="true" style="20" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" style="20" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" hidden="true" style="20" width="10.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" hidden="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" hidden="true" style="20" width="10.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" hidden="true" style="20" width="8.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" style="20" width="10.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" hidden="true" style="20" width="10.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" hidden="true" style="20" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" hidden="true" style="20" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" hidden="true" style="1" width="12.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" hidden="true" style="20" width="13.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="20" width="12.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="20" width="14.5703125" collapsed="true"/>
+    <col min="22" max="23" style="20" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="20" width="11.140625" collapsed="true"/>
+    <col min="25" max="26" customWidth="true" style="20" width="14.85546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="20" width="10.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="20" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="20" width="9.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="20" width="11.28515625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="20" width="12.140625" collapsed="true"/>
+    <col min="34" max="34" style="1" width="9.140625" collapsed="true"/>
+    <col min="35" max="16384" style="20" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>25</v>
       </c>
@@ -14892,7 +14892,7 @@
       <c r="AF1" s="38"/>
       <c r="AG1" s="38"/>
     </row>
-    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>0</v>
       </c>
@@ -14993,7 +14993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="57.75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
@@ -25806,7 +25806,7 @@
       <c r="AD142" s="20"/>
       <c r="AH142" s="20"/>
     </row>
-    <row r="143" spans="1:34" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" s="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="43">
         <v>1.042</v>
       </c>
@@ -28365,6 +28365,1926 @@
       </c>
       <c r="AH174">
         <v>17</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>4.555</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.617</v>
+      </c>
+      <c r="C175" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R175" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S175" t="s">
+        <v>46</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U175" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W175" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA175" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD175" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="C176" t="n">
+        <v>18.005</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S176" t="s">
+        <v>46</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA176" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD176" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2.459</v>
+      </c>
+      <c r="C177" t="n">
+        <v>213.31</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H177" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R177" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S177" t="s">
+        <v>46</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W177" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA177" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD177" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2.071</v>
+      </c>
+      <c r="C178" t="n">
+        <v>166.336</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H178" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S178" t="s">
+        <v>46</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W178" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA178" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD178" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>3.533</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3.542</v>
+      </c>
+      <c r="C179" t="n">
+        <v>396.503</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S179" t="s">
+        <v>46</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W179" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA179" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD179" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3.276</v>
+      </c>
+      <c r="C180" t="n">
+        <v>244.866</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S180" t="s">
+        <v>46</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U180" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA180" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD180" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>5.607</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.615</v>
+      </c>
+      <c r="C181" t="n">
+        <v>541.949</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S181" t="s">
+        <v>46</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V181" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W181" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA181" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD181" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.136</v>
+      </c>
+      <c r="C182" t="n">
+        <v>377.533</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R182" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S182" t="s">
+        <v>46</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U182" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V182" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W182" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA182" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD182" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>5.273</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.282</v>
+      </c>
+      <c r="C183" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R183" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S183" t="s">
+        <v>46</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U183" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W183" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X183" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA183" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD183" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.581</v>
+      </c>
+      <c r="C184" t="n">
+        <v>18.005</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R184" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S184" t="s">
+        <v>46</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U184" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V184" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W184" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA184" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD184" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>15.653</v>
+      </c>
+      <c r="B185" t="n">
+        <v>15.667</v>
+      </c>
+      <c r="C185" t="n">
+        <v>213.31</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R185" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S185" t="s">
+        <v>46</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U185" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W185" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X185" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA185" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD185" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>13.403</v>
+      </c>
+      <c r="B186" t="n">
+        <v>13.413</v>
+      </c>
+      <c r="C186" t="n">
+        <v>159.201</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R186" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S186" t="s">
+        <v>46</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U186" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W186" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>8.085</v>
+      </c>
+      <c r="B187" t="n">
+        <v>8.094</v>
+      </c>
+      <c r="C187" t="n">
+        <v>395.524</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S187" t="s">
+        <v>46</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U187" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W187" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA187" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD187" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.873</v>
+      </c>
+      <c r="C188" t="n">
+        <v>240.851</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R188" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S188" t="s">
+        <v>46</v>
+      </c>
+      <c r="T188" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U188" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W188" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X188" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>13.728</v>
+      </c>
+      <c r="B189" t="n">
+        <v>13.737</v>
+      </c>
+      <c r="C189" t="n">
+        <v>540.697</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R189" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S189" t="s">
+        <v>46</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U189" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V189" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W189" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X189" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>15.738</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15.754</v>
+      </c>
+      <c r="C190" t="n">
+        <v>370.506</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R190" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S190" t="s">
+        <v>46</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U190" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V190" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W190" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X190" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA190" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD190" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.387</v>
+      </c>
+      <c r="C191" t="n">
+        <v>55.6689</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R191" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S191" t="s">
+        <v>46</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U191" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W191" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X191" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA191" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD191" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.598</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.604</v>
+      </c>
+      <c r="C192" t="n">
+        <v>18.005</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R192" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S192" t="s">
+        <v>46</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U192" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W192" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X192" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA192" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD192" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>309.16</v>
+      </c>
+      <c r="B193" t="n">
+        <v>309.191</v>
+      </c>
+      <c r="C193" t="n">
+        <v>213.31</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H193" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R193" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S193" t="s">
+        <v>46</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U193" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W193" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X193" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA193" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD193" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>68.577</v>
+      </c>
+      <c r="B194" t="n">
+        <v>68.595</v>
+      </c>
+      <c r="C194" t="n">
+        <v>158.807</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H194" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R194" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S194" t="s">
+        <v>46</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U194" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V194" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W194" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X194" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA194" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD194" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>75.903</v>
+      </c>
+      <c r="B195" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="C195" t="n">
+        <v>390.401</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H195" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R195" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S195" t="s">
+        <v>46</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U195" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W195" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X195" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA195" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD195" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>45.814</v>
+      </c>
+      <c r="B196" t="n">
+        <v>45.835</v>
+      </c>
+      <c r="C196" t="n">
+        <v>239.251</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R196" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S196" t="s">
+        <v>46</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U196" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W196" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X196" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA196" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD196" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>55.882</v>
+      </c>
+      <c r="B197" t="n">
+        <v>55.893</v>
+      </c>
+      <c r="C197" t="n">
+        <v>540.683</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R197" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S197" t="s">
+        <v>46</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U197" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V197" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W197" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA197" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD197" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>70.443</v>
+      </c>
+      <c r="B198" t="n">
+        <v>70.459</v>
+      </c>
+      <c r="C198" t="n">
+        <v>365.594</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H198" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R198" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S198" t="s">
+        <v>46</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U198" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W198" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X198" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA198" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD198" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -28379,7 +30299,7 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="14100" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation" r:id="rId1" sheetId="1"/>
-    <sheet name="One route" r:id="rId2" sheetId="3"/>
+    <sheet name="Simulation" sheetId="1" r:id="rId1"/>
+    <sheet name="One route" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'One route'!$A$3:$AH$3</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Simulation!$A$3:$AN$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One route'!$A$201:$AH$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Simulation!$A$3:$AN$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="56">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -190,6 +190,9 @@
   <si>
     <t>Branching constant V2</t>
   </si>
+  <si>
+    <t>Branching constant V3</t>
+  </si>
 </sst>
 </file>
 
@@ -309,117 +312,118 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
-    <xf applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,10 +440,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -474,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -509,7 +513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -603,21 +607,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -634,7 +638,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -686,138 +690,138 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BB107"/>
+  <dimension ref="A1:BA107"/>
   <sheetViews>
-    <sheetView topLeftCell="B56" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+    <sheetView topLeftCell="B56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="true" style="9" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="15.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" hidden="true" width="9.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" width="10.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" hidden="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" hidden="true" width="10.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" hidden="true" width="11.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" hidden="true" width="14.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="20" width="14.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" hidden="true" style="1" width="11.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" hidden="true" width="11.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" hidden="true" width="25.85546875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="7" width="12.42578125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="8" width="12.42578125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="11" width="13.85546875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="9" width="17.42578125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" hidden="true" style="1" width="0.0" collapsed="true"/>
-    <col min="42" max="50" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" style="9" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="9.5703125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.42578125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="25.85546875" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.85546875" style="11" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="7.85546875" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="11" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="0" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="50" width="0" hidden="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57" r="1" s="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:53" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="39" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="39" t="s">
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="39" t="s">
+      <c r="T1" s="45"/>
+      <c r="U1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="37" t="s">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="37" t="s">
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="37" t="s">
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="2" s="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+    </row>
+    <row r="2" spans="1:53" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -972,7 +976,7 @@
       <c r="AZ2" s="25"/>
       <c r="BA2" s="25"/>
     </row>
-    <row ht="60" r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -1125,7 +1129,7 @@
       </c>
       <c r="AY3" s="20"/>
     </row>
-    <row hidden="1" r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.12214318269213584</v>
       </c>
@@ -1249,7 +1253,7 @@
         <v>51.582112587980141</v>
       </c>
     </row>
-    <row hidden="1" r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.10794807033774752</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>51.56481592357536</v>
       </c>
     </row>
-    <row hidden="1" r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.12530352879637388</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>51.522505621415924</v>
       </c>
     </row>
-    <row hidden="1" r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.25073365142833803</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>51.54086669593795</v>
       </c>
     </row>
-    <row hidden="1" r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.59688172803427442</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>51.549115874346384</v>
       </c>
     </row>
-    <row hidden="1" r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.5601196062493279</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>51.583975305685279</v>
       </c>
     </row>
-    <row hidden="1" r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.7301146820850382</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>51.575193922218233</v>
       </c>
     </row>
-    <row hidden="1" r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6.0468491853727926</v>
       </c>
@@ -2117,7 +2121,7 @@
         <v>51.562421000811611</v>
       </c>
     </row>
-    <row hidden="1" r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.5811182806259274</v>
       </c>
@@ -2244,7 +2248,7 @@
         <v>51.583975305685279</v>
       </c>
     </row>
-    <row hidden="1" r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.9636566452991451</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>51.584773613273192</v>
       </c>
     </row>
-    <row hidden="1" r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.2889285714285723</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>36.474600610303362</v>
       </c>
     </row>
-    <row hidden="1" r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.9781428571428572</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>36.600251301382158</v>
       </c>
     </row>
-    <row hidden="1" r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.12358333333333334</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>36.672051696284328</v>
       </c>
     </row>
-    <row hidden="1" r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.2360714285714286</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>36.43870041285227</v>
       </c>
     </row>
-    <row hidden="1" r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.0664374999999999</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>36.474600610303362</v>
       </c>
     </row>
-    <row hidden="1" r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.0918571428571431</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>36.348949919224552</v>
       </c>
     </row>
-    <row hidden="1" r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.8118888888888875</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>19.679539852095314</v>
       </c>
     </row>
-    <row hidden="1" r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.1656363636363636</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>18.940016433853739</v>
       </c>
     </row>
-    <row hidden="1" r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.2819999999999998</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>18.282662284305669</v>
       </c>
     </row>
-    <row hidden="1" r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.4664999999999995</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>19.350862777321282</v>
       </c>
     </row>
-    <row hidden="1" r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.8134999999999986</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>18.981101068200491</v>
       </c>
     </row>
-    <row hidden="1" r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.9691107728485595</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>51.591426176505806</v>
       </c>
     </row>
-    <row hidden="1" r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.0897879865360514</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>51.591426176505806</v>
       </c>
     </row>
-    <row hidden="1" r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.11793238880832251</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>51.548849771817082</v>
       </c>
     </row>
-    <row hidden="1" r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6.5613664654467412</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>51.559227770459955</v>
       </c>
     </row>
-    <row hidden="1" r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.8784453179694132</v>
       </c>
@@ -4082,7 +4086,7 @@
         <v>51.53022259476576</v>
       </c>
     </row>
-    <row hidden="1" r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.5457473407321443</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>51.477002088904854</v>
       </c>
     </row>
-    <row hidden="1" r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.0819889293650329</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>51.413935789459671</v>
       </c>
     </row>
-    <row hidden="1" r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.0999747020003943</v>
       </c>
@@ -4457,7 +4461,7 @@
         <v>51.53022259476576</v>
       </c>
     </row>
-    <row hidden="1" r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.6367203266792942</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>51.477002088904854</v>
       </c>
     </row>
-    <row hidden="1" r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.2543960691326506</v>
       </c>
@@ -4711,7 +4715,7 @@
         <v>51.443473170212485</v>
       </c>
     </row>
-    <row hidden="1" r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.26330253190661984</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>51.452254553679531</v>
       </c>
     </row>
-    <row hidden="1" r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.30810560318968938</v>
       </c>
@@ -4959,7 +4963,7 @@
         <v>51.364440719009032</v>
       </c>
     </row>
-    <row hidden="1" r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36035243019371699</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>51.287537088040025</v>
       </c>
     </row>
-    <row hidden="1" r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.10266206284373007</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>51.324791442142661</v>
       </c>
     </row>
-    <row hidden="1" r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.36127396419733299</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>51.287537088040025</v>
       </c>
     </row>
-    <row hidden="1" r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.6249920013196171</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>51.285142165276277</v>
       </c>
     </row>
-    <row customFormat="1" r="106" s="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -14768,7 +14772,7 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C1048576 C1">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14780,7 +14784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C106">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14791,108 +14795,108 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="X168" sqref="X168"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U218" sqref="U218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="20" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="20" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" hidden="true" style="20" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" hidden="true" style="20" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" hidden="true" style="20" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" hidden="true" style="20" width="10.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" hidden="true" style="1" width="10.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" hidden="true" style="20" width="10.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" hidden="true" style="20" width="8.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" hidden="true" style="20" width="10.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" hidden="true" style="20" width="10.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" hidden="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" hidden="true" style="20" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" hidden="true" style="20" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" hidden="true" style="1" width="12.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" hidden="true" style="20" width="13.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="20" width="12.7109375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="20" width="14.5703125" collapsed="true"/>
-    <col min="22" max="23" style="20" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="20" width="11.140625" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" style="20" width="14.85546875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="20" width="10.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="20" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="20" width="9.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="20" width="11.28515625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="20" width="12.140625" collapsed="true"/>
-    <col min="34" max="34" style="1" width="9.140625" collapsed="true"/>
-    <col min="35" max="16384" style="20" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.28515625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.7109375" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.140625" style="20" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="9.140625" style="20" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.5703125" style="20" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9" style="20" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.28515625" style="20" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="1" collapsed="1"/>
+    <col min="35" max="16384" width="9.140625" style="20" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="32.25" r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="39" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="37" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-    </row>
-    <row customHeight="1" ht="16.5" r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+    </row>
+    <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>0</v>
       </c>
@@ -14993,7 +14997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.75" r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
@@ -25795,7 +25799,7 @@
       <c r="AH141" s="20"/>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A142" s="45" t="s">
+      <c r="A142" s="39" t="s">
         <v>54</v>
       </c>
       <c r="D142" s="20"/>
@@ -25806,84 +25810,84 @@
       <c r="AD142" s="20"/>
       <c r="AH142" s="20"/>
     </row>
-    <row customFormat="1" r="143" s="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A143" s="43">
+    <row r="143" spans="1:34" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="37">
         <v>1.042</v>
       </c>
-      <c r="B143" s="43">
+      <c r="B143" s="37">
         <v>1.1060000000000001</v>
       </c>
-      <c r="C143" s="43">
+      <c r="C143" s="37">
         <v>55.668900000000001</v>
       </c>
-      <c r="D143" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="E143" s="43">
+      <c r="D143" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E143" s="37">
         <v>0.8</v>
       </c>
-      <c r="F143" s="43">
-        <v>0</v>
-      </c>
-      <c r="G143" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="H143" s="43">
-        <v>5</v>
-      </c>
-      <c r="I143" s="43">
-        <v>0.6</v>
-      </c>
-      <c r="J143" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K143" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="L143" s="43">
-        <v>0.6</v>
-      </c>
-      <c r="M143" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="N143" s="44"/>
-      <c r="Q143" s="43">
-        <v>5</v>
-      </c>
-      <c r="R143" s="43">
+      <c r="F143" s="37">
+        <v>0</v>
+      </c>
+      <c r="G143" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="H143" s="37">
+        <v>5</v>
+      </c>
+      <c r="I143" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="J143" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="K143" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="L143" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="M143" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="N143" s="38"/>
+      <c r="Q143" s="37">
+        <v>5</v>
+      </c>
+      <c r="R143" s="37">
         <v>18</v>
       </c>
-      <c r="S143" s="43" t="s">
+      <c r="S143" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="T143" s="43">
-        <v>1</v>
-      </c>
-      <c r="U143" s="43">
-        <v>20</v>
-      </c>
-      <c r="V143" s="43">
-        <v>1</v>
-      </c>
-      <c r="W143" s="43">
+      <c r="T143" s="37">
+        <v>1</v>
+      </c>
+      <c r="U143" s="37">
+        <v>20</v>
+      </c>
+      <c r="V143" s="37">
+        <v>1</v>
+      </c>
+      <c r="W143" s="37">
         <v>2</v>
       </c>
-      <c r="X143" s="43">
+      <c r="X143" s="37">
         <v>3</v>
       </c>
-      <c r="Y143" s="43">
+      <c r="Y143" s="37">
         <v>12</v>
       </c>
-      <c r="Z143" s="43">
-        <v>5</v>
-      </c>
-      <c r="AA143" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD143" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH143" s="43">
+      <c r="Z143" s="37">
+        <v>5</v>
+      </c>
+      <c r="AA143" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD143" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH143" s="37">
         <v>7</v>
       </c>
     </row>
@@ -28367,75 +28371,75 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>4.555</v>
-      </c>
-      <c r="B175" t="n">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4.5549999999999997</v>
+      </c>
+      <c r="B175">
         <v>4.617</v>
       </c>
-      <c r="C175" t="n">
-        <v>55.6689</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E175" t="n">
+      <c r="C175">
+        <v>55.668900000000001</v>
+      </c>
+      <c r="D175">
+        <v>0.1</v>
+      </c>
+      <c r="E175">
         <v>0.8</v>
       </c>
-      <c r="F175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H175" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R175" t="n">
-        <v>18.0</v>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0.1</v>
+      </c>
+      <c r="H175">
+        <v>5</v>
+      </c>
+      <c r="I175">
+        <v>0.6</v>
+      </c>
+      <c r="J175">
+        <v>0.3</v>
+      </c>
+      <c r="K175">
+        <v>0.1</v>
+      </c>
+      <c r="L175">
+        <v>0.6</v>
+      </c>
+      <c r="M175">
+        <v>0.4</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>18</v>
       </c>
       <c r="S175" t="s">
         <v>46</v>
       </c>
-      <c r="T175" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U175" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V175" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W175" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X175" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y175" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z175" t="n">
-        <v>5.0</v>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>20</v>
+      </c>
+      <c r="V175">
+        <v>1</v>
+      </c>
+      <c r="W175">
+        <v>2</v>
+      </c>
+      <c r="X175">
+        <v>3</v>
+      </c>
+      <c r="Y175">
+        <v>12</v>
+      </c>
+      <c r="Z175">
+        <v>5</v>
       </c>
       <c r="AA175" t="b">
         <v>0</v>
@@ -28443,79 +28447,79 @@
       <c r="AD175" t="b">
         <v>0</v>
       </c>
-      <c r="AH175" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
+      <c r="AH175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>1.254</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>1.26</v>
       </c>
-      <c r="C176" t="n">
-        <v>18.005</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E176" t="n">
+      <c r="C176">
+        <v>18.004999999999999</v>
+      </c>
+      <c r="D176">
+        <v>0.1</v>
+      </c>
+      <c r="E176">
         <v>0.8</v>
       </c>
-      <c r="F176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H176" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M176" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q176" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R176" t="n">
-        <v>18.0</v>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0.1</v>
+      </c>
+      <c r="H176">
+        <v>5</v>
+      </c>
+      <c r="I176">
+        <v>0.6</v>
+      </c>
+      <c r="J176">
+        <v>0.3</v>
+      </c>
+      <c r="K176">
+        <v>0.1</v>
+      </c>
+      <c r="L176">
+        <v>0.6</v>
+      </c>
+      <c r="M176">
+        <v>0.4</v>
+      </c>
+      <c r="Q176">
+        <v>5</v>
+      </c>
+      <c r="R176">
+        <v>18</v>
       </c>
       <c r="S176" t="s">
         <v>46</v>
       </c>
-      <c r="T176" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U176" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V176" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W176" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X176" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y176" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z176" t="n">
-        <v>5.0</v>
+      <c r="T176">
+        <v>2</v>
+      </c>
+      <c r="U176">
+        <v>20</v>
+      </c>
+      <c r="V176">
+        <v>1</v>
+      </c>
+      <c r="W176">
+        <v>2</v>
+      </c>
+      <c r="X176">
+        <v>3</v>
+      </c>
+      <c r="Y176">
+        <v>12</v>
+      </c>
+      <c r="Z176">
+        <v>5</v>
       </c>
       <c r="AA176" t="b">
         <v>0</v>
@@ -28523,79 +28527,79 @@
       <c r="AD176" t="b">
         <v>0</v>
       </c>
-      <c r="AH176" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="B177" t="n">
-        <v>2.459</v>
-      </c>
-      <c r="C177" t="n">
+      <c r="AH176">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B177">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="C177">
         <v>213.31</v>
       </c>
-      <c r="D177" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E177" t="n">
+      <c r="D177">
+        <v>0.1</v>
+      </c>
+      <c r="E177">
         <v>0.8</v>
       </c>
-      <c r="F177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H177" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q177" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R177" t="n">
-        <v>18.0</v>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0.1</v>
+      </c>
+      <c r="H177">
+        <v>5</v>
+      </c>
+      <c r="I177">
+        <v>0.6</v>
+      </c>
+      <c r="J177">
+        <v>0.3</v>
+      </c>
+      <c r="K177">
+        <v>0.1</v>
+      </c>
+      <c r="L177">
+        <v>0.6</v>
+      </c>
+      <c r="M177">
+        <v>0.4</v>
+      </c>
+      <c r="Q177">
+        <v>5</v>
+      </c>
+      <c r="R177">
+        <v>18</v>
       </c>
       <c r="S177" t="s">
         <v>46</v>
       </c>
-      <c r="T177" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U177" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V177" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W177" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X177" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y177" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z177" t="n">
-        <v>5.0</v>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>20</v>
+      </c>
+      <c r="V177">
+        <v>2</v>
+      </c>
+      <c r="W177">
+        <v>2</v>
+      </c>
+      <c r="X177">
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <v>12</v>
+      </c>
+      <c r="Z177">
+        <v>5</v>
       </c>
       <c r="AA177" t="b">
         <v>0</v>
@@ -28603,79 +28607,79 @@
       <c r="AD177" t="b">
         <v>0</v>
       </c>
-      <c r="AH177" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>2.062</v>
-      </c>
-      <c r="B178" t="n">
-        <v>2.071</v>
-      </c>
-      <c r="C178" t="n">
-        <v>166.336</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E178" t="n">
+      <c r="AH177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="B178">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="C178">
+        <v>166.33600000000001</v>
+      </c>
+      <c r="D178">
+        <v>0.1</v>
+      </c>
+      <c r="E178">
         <v>0.8</v>
       </c>
-      <c r="F178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H178" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R178" t="n">
-        <v>18.0</v>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0.1</v>
+      </c>
+      <c r="H178">
+        <v>5</v>
+      </c>
+      <c r="I178">
+        <v>0.6</v>
+      </c>
+      <c r="J178">
+        <v>0.3</v>
+      </c>
+      <c r="K178">
+        <v>0.1</v>
+      </c>
+      <c r="L178">
+        <v>0.6</v>
+      </c>
+      <c r="M178">
+        <v>0.4</v>
+      </c>
+      <c r="Q178">
+        <v>5</v>
+      </c>
+      <c r="R178">
+        <v>18</v>
       </c>
       <c r="S178" t="s">
         <v>46</v>
       </c>
-      <c r="T178" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U178" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V178" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W178" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X178" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y178" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z178" t="n">
-        <v>5.0</v>
+      <c r="T178">
+        <v>2</v>
+      </c>
+      <c r="U178">
+        <v>20</v>
+      </c>
+      <c r="V178">
+        <v>2</v>
+      </c>
+      <c r="W178">
+        <v>2</v>
+      </c>
+      <c r="X178">
+        <v>3</v>
+      </c>
+      <c r="Y178">
+        <v>12</v>
+      </c>
+      <c r="Z178">
+        <v>5</v>
       </c>
       <c r="AA178" t="b">
         <v>0</v>
@@ -28683,79 +28687,79 @@
       <c r="AD178" t="b">
         <v>0</v>
       </c>
-      <c r="AH178" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>3.533</v>
-      </c>
-      <c r="B179" t="n">
-        <v>3.542</v>
-      </c>
-      <c r="C179" t="n">
-        <v>396.503</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E179" t="n">
+      <c r="AH178">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="B179">
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="C179">
+        <v>396.50299999999999</v>
+      </c>
+      <c r="D179">
+        <v>0.1</v>
+      </c>
+      <c r="E179">
         <v>0.8</v>
       </c>
-      <c r="F179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H179" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R179" t="n">
-        <v>18.0</v>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0.1</v>
+      </c>
+      <c r="H179">
+        <v>5</v>
+      </c>
+      <c r="I179">
+        <v>0.6</v>
+      </c>
+      <c r="J179">
+        <v>0.3</v>
+      </c>
+      <c r="K179">
+        <v>0.1</v>
+      </c>
+      <c r="L179">
+        <v>0.6</v>
+      </c>
+      <c r="M179">
+        <v>0.4</v>
+      </c>
+      <c r="Q179">
+        <v>5</v>
+      </c>
+      <c r="R179">
+        <v>18</v>
       </c>
       <c r="S179" t="s">
         <v>46</v>
       </c>
-      <c r="T179" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U179" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V179" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W179" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X179" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y179" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z179" t="n">
-        <v>5.0</v>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>20</v>
+      </c>
+      <c r="V179">
+        <v>3</v>
+      </c>
+      <c r="W179">
+        <v>2</v>
+      </c>
+      <c r="X179">
+        <v>3</v>
+      </c>
+      <c r="Y179">
+        <v>12</v>
+      </c>
+      <c r="Z179">
+        <v>5</v>
       </c>
       <c r="AA179" t="b">
         <v>0</v>
@@ -28763,79 +28767,79 @@
       <c r="AD179" t="b">
         <v>0</v>
       </c>
-      <c r="AH179" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>3.261</v>
-      </c>
-      <c r="B180" t="n">
-        <v>3.276</v>
-      </c>
-      <c r="C180" t="n">
-        <v>244.866</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E180" t="n">
+      <c r="AH179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3.2610000000000001</v>
+      </c>
+      <c r="B180">
+        <v>3.2759999999999998</v>
+      </c>
+      <c r="C180">
+        <v>244.86600000000001</v>
+      </c>
+      <c r="D180">
+        <v>0.1</v>
+      </c>
+      <c r="E180">
         <v>0.8</v>
       </c>
-      <c r="F180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H180" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R180" t="n">
-        <v>18.0</v>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0.1</v>
+      </c>
+      <c r="H180">
+        <v>5</v>
+      </c>
+      <c r="I180">
+        <v>0.6</v>
+      </c>
+      <c r="J180">
+        <v>0.3</v>
+      </c>
+      <c r="K180">
+        <v>0.1</v>
+      </c>
+      <c r="L180">
+        <v>0.6</v>
+      </c>
+      <c r="M180">
+        <v>0.4</v>
+      </c>
+      <c r="Q180">
+        <v>5</v>
+      </c>
+      <c r="R180">
+        <v>18</v>
       </c>
       <c r="S180" t="s">
         <v>46</v>
       </c>
-      <c r="T180" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U180" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V180" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W180" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X180" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y180" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z180" t="n">
-        <v>5.0</v>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>20</v>
+      </c>
+      <c r="V180">
+        <v>3</v>
+      </c>
+      <c r="W180">
+        <v>2</v>
+      </c>
+      <c r="X180">
+        <v>3</v>
+      </c>
+      <c r="Y180">
+        <v>12</v>
+      </c>
+      <c r="Z180">
+        <v>5</v>
       </c>
       <c r="AA180" t="b">
         <v>0</v>
@@ -28843,79 +28847,79 @@
       <c r="AD180" t="b">
         <v>0</v>
       </c>
-      <c r="AH180" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>5.607</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.615</v>
-      </c>
-      <c r="C181" t="n">
-        <v>541.949</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E181" t="n">
+      <c r="AH180">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>5.6070000000000002</v>
+      </c>
+      <c r="B181">
+        <v>5.6150000000000002</v>
+      </c>
+      <c r="C181">
+        <v>541.94899999999996</v>
+      </c>
+      <c r="D181">
+        <v>0.1</v>
+      </c>
+      <c r="E181">
         <v>0.8</v>
       </c>
-      <c r="F181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H181" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R181" t="n">
-        <v>18.0</v>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0.1</v>
+      </c>
+      <c r="H181">
+        <v>5</v>
+      </c>
+      <c r="I181">
+        <v>0.6</v>
+      </c>
+      <c r="J181">
+        <v>0.3</v>
+      </c>
+      <c r="K181">
+        <v>0.1</v>
+      </c>
+      <c r="L181">
+        <v>0.6</v>
+      </c>
+      <c r="M181">
+        <v>0.4</v>
+      </c>
+      <c r="Q181">
+        <v>5</v>
+      </c>
+      <c r="R181">
+        <v>18</v>
       </c>
       <c r="S181" t="s">
         <v>46</v>
       </c>
-      <c r="T181" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U181" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V181" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W181" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X181" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y181" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z181" t="n">
-        <v>5.0</v>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>20</v>
+      </c>
+      <c r="V181">
+        <v>4</v>
+      </c>
+      <c r="W181">
+        <v>2</v>
+      </c>
+      <c r="X181">
+        <v>3</v>
+      </c>
+      <c r="Y181">
+        <v>12</v>
+      </c>
+      <c r="Z181">
+        <v>5</v>
       </c>
       <c r="AA181" t="b">
         <v>0</v>
@@ -28923,79 +28927,79 @@
       <c r="AD181" t="b">
         <v>0</v>
       </c>
-      <c r="AH181" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
+      <c r="AH181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>5.125</v>
       </c>
-      <c r="B182" t="n">
-        <v>5.136</v>
-      </c>
-      <c r="C182" t="n">
-        <v>377.533</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E182" t="n">
+      <c r="B182">
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="C182">
+        <v>377.53300000000002</v>
+      </c>
+      <c r="D182">
+        <v>0.1</v>
+      </c>
+      <c r="E182">
         <v>0.8</v>
       </c>
-      <c r="F182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H182" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R182" t="n">
-        <v>18.0</v>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0.1</v>
+      </c>
+      <c r="H182">
+        <v>5</v>
+      </c>
+      <c r="I182">
+        <v>0.6</v>
+      </c>
+      <c r="J182">
+        <v>0.3</v>
+      </c>
+      <c r="K182">
+        <v>0.1</v>
+      </c>
+      <c r="L182">
+        <v>0.6</v>
+      </c>
+      <c r="M182">
+        <v>0.4</v>
+      </c>
+      <c r="Q182">
+        <v>5</v>
+      </c>
+      <c r="R182">
+        <v>18</v>
       </c>
       <c r="S182" t="s">
         <v>46</v>
       </c>
-      <c r="T182" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U182" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V182" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W182" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X182" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y182" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z182" t="n">
-        <v>5.0</v>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>20</v>
+      </c>
+      <c r="V182">
+        <v>4</v>
+      </c>
+      <c r="W182">
+        <v>2</v>
+      </c>
+      <c r="X182">
+        <v>3</v>
+      </c>
+      <c r="Y182">
+        <v>12</v>
+      </c>
+      <c r="Z182">
+        <v>5</v>
       </c>
       <c r="AA182" t="b">
         <v>0</v>
@@ -29003,79 +29007,79 @@
       <c r="AD182" t="b">
         <v>0</v>
       </c>
-      <c r="AH182" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>5.273</v>
-      </c>
-      <c r="B183" t="n">
+      <c r="AH182">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>5.2729999999999997</v>
+      </c>
+      <c r="B183">
         <v>5.282</v>
       </c>
-      <c r="C183" t="n">
-        <v>55.6689</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E183" t="n">
+      <c r="C183">
+        <v>55.668900000000001</v>
+      </c>
+      <c r="D183">
+        <v>0.1</v>
+      </c>
+      <c r="E183">
         <v>0.8</v>
       </c>
-      <c r="F183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H183" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R183" t="n">
-        <v>18.0</v>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0.1</v>
+      </c>
+      <c r="H183">
+        <v>5</v>
+      </c>
+      <c r="I183">
+        <v>0.6</v>
+      </c>
+      <c r="J183">
+        <v>0.3</v>
+      </c>
+      <c r="K183">
+        <v>0.1</v>
+      </c>
+      <c r="L183">
+        <v>0.6</v>
+      </c>
+      <c r="M183">
+        <v>0.4</v>
+      </c>
+      <c r="Q183">
+        <v>5</v>
+      </c>
+      <c r="R183">
+        <v>18</v>
       </c>
       <c r="S183" t="s">
         <v>46</v>
       </c>
-      <c r="T183" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U183" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V183" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W183" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X183" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y183" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>5.0</v>
+      <c r="T183">
+        <v>2</v>
+      </c>
+      <c r="U183">
+        <v>20</v>
+      </c>
+      <c r="V183">
+        <v>1</v>
+      </c>
+      <c r="W183">
+        <v>2</v>
+      </c>
+      <c r="X183">
+        <v>5</v>
+      </c>
+      <c r="Y183">
+        <v>12</v>
+      </c>
+      <c r="Z183">
+        <v>5</v>
       </c>
       <c r="AA183" t="b">
         <v>0</v>
@@ -29083,79 +29087,79 @@
       <c r="AD183" t="b">
         <v>0</v>
       </c>
-      <c r="AH183" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1.574</v>
-      </c>
-      <c r="B184" t="n">
+      <c r="AH183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="B184">
         <v>1.581</v>
       </c>
-      <c r="C184" t="n">
-        <v>18.005</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E184" t="n">
+      <c r="C184">
+        <v>18.004999999999999</v>
+      </c>
+      <c r="D184">
+        <v>0.1</v>
+      </c>
+      <c r="E184">
         <v>0.8</v>
       </c>
-      <c r="F184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H184" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R184" t="n">
-        <v>18.0</v>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0.1</v>
+      </c>
+      <c r="H184">
+        <v>5</v>
+      </c>
+      <c r="I184">
+        <v>0.6</v>
+      </c>
+      <c r="J184">
+        <v>0.3</v>
+      </c>
+      <c r="K184">
+        <v>0.1</v>
+      </c>
+      <c r="L184">
+        <v>0.6</v>
+      </c>
+      <c r="M184">
+        <v>0.4</v>
+      </c>
+      <c r="Q184">
+        <v>5</v>
+      </c>
+      <c r="R184">
+        <v>18</v>
       </c>
       <c r="S184" t="s">
         <v>46</v>
       </c>
-      <c r="T184" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U184" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V184" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W184" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X184" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y184" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z184" t="n">
-        <v>5.0</v>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
+        <v>20</v>
+      </c>
+      <c r="V184">
+        <v>1</v>
+      </c>
+      <c r="W184">
+        <v>2</v>
+      </c>
+      <c r="X184">
+        <v>5</v>
+      </c>
+      <c r="Y184">
+        <v>12</v>
+      </c>
+      <c r="Z184">
+        <v>5</v>
       </c>
       <c r="AA184" t="b">
         <v>0</v>
@@ -29163,79 +29167,79 @@
       <c r="AD184" t="b">
         <v>0</v>
       </c>
-      <c r="AH184" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
+      <c r="AH184">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>15.653</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>15.667</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>213.31</v>
       </c>
-      <c r="D185" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E185" t="n">
+      <c r="D185">
+        <v>0.1</v>
+      </c>
+      <c r="E185">
         <v>0.8</v>
       </c>
-      <c r="F185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H185" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M185" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q185" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R185" t="n">
-        <v>18.0</v>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0.1</v>
+      </c>
+      <c r="H185">
+        <v>5</v>
+      </c>
+      <c r="I185">
+        <v>0.6</v>
+      </c>
+      <c r="J185">
+        <v>0.3</v>
+      </c>
+      <c r="K185">
+        <v>0.1</v>
+      </c>
+      <c r="L185">
+        <v>0.6</v>
+      </c>
+      <c r="M185">
+        <v>0.4</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>18</v>
       </c>
       <c r="S185" t="s">
         <v>46</v>
       </c>
-      <c r="T185" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U185" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V185" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W185" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X185" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y185" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z185" t="n">
-        <v>5.0</v>
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
+        <v>20</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>2</v>
+      </c>
+      <c r="X185">
+        <v>5</v>
+      </c>
+      <c r="Y185">
+        <v>12</v>
+      </c>
+      <c r="Z185">
+        <v>5</v>
       </c>
       <c r="AA185" t="b">
         <v>0</v>
@@ -29243,79 +29247,79 @@
       <c r="AD185" t="b">
         <v>0</v>
       </c>
-      <c r="AH185" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
+      <c r="AH185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>13.403</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>13.413</v>
       </c>
-      <c r="C186" t="n">
-        <v>159.201</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E186" t="n">
+      <c r="C186">
+        <v>159.20099999999999</v>
+      </c>
+      <c r="D186">
+        <v>0.1</v>
+      </c>
+      <c r="E186">
         <v>0.8</v>
       </c>
-      <c r="F186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H186" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M186" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R186" t="n">
-        <v>18.0</v>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0.1</v>
+      </c>
+      <c r="H186">
+        <v>5</v>
+      </c>
+      <c r="I186">
+        <v>0.6</v>
+      </c>
+      <c r="J186">
+        <v>0.3</v>
+      </c>
+      <c r="K186">
+        <v>0.1</v>
+      </c>
+      <c r="L186">
+        <v>0.6</v>
+      </c>
+      <c r="M186">
+        <v>0.4</v>
+      </c>
+      <c r="Q186">
+        <v>5</v>
+      </c>
+      <c r="R186">
+        <v>18</v>
       </c>
       <c r="S186" t="s">
         <v>46</v>
       </c>
-      <c r="T186" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U186" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V186" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W186" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X186" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y186" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z186" t="n">
-        <v>5.0</v>
+      <c r="T186">
+        <v>2</v>
+      </c>
+      <c r="U186">
+        <v>20</v>
+      </c>
+      <c r="V186">
+        <v>2</v>
+      </c>
+      <c r="W186">
+        <v>2</v>
+      </c>
+      <c r="X186">
+        <v>5</v>
+      </c>
+      <c r="Y186">
+        <v>12</v>
+      </c>
+      <c r="Z186">
+        <v>5</v>
       </c>
       <c r="AA186" t="b">
         <v>0</v>
@@ -29323,79 +29327,79 @@
       <c r="AD186" t="b">
         <v>0</v>
       </c>
-      <c r="AH186" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>8.085</v>
-      </c>
-      <c r="B187" t="n">
-        <v>8.094</v>
-      </c>
-      <c r="C187" t="n">
+      <c r="AH186">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>8.0850000000000009</v>
+      </c>
+      <c r="B187">
+        <v>8.0939999999999994</v>
+      </c>
+      <c r="C187">
         <v>395.524</v>
       </c>
-      <c r="D187" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E187" t="n">
+      <c r="D187">
+        <v>0.1</v>
+      </c>
+      <c r="E187">
         <v>0.8</v>
       </c>
-      <c r="F187" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H187" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M187" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q187" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R187" t="n">
-        <v>18.0</v>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0.1</v>
+      </c>
+      <c r="H187">
+        <v>5</v>
+      </c>
+      <c r="I187">
+        <v>0.6</v>
+      </c>
+      <c r="J187">
+        <v>0.3</v>
+      </c>
+      <c r="K187">
+        <v>0.1</v>
+      </c>
+      <c r="L187">
+        <v>0.6</v>
+      </c>
+      <c r="M187">
+        <v>0.4</v>
+      </c>
+      <c r="Q187">
+        <v>5</v>
+      </c>
+      <c r="R187">
+        <v>18</v>
       </c>
       <c r="S187" t="s">
         <v>46</v>
       </c>
-      <c r="T187" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U187" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V187" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W187" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X187" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y187" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z187" t="n">
-        <v>5.0</v>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>20</v>
+      </c>
+      <c r="V187">
+        <v>3</v>
+      </c>
+      <c r="W187">
+        <v>2</v>
+      </c>
+      <c r="X187">
+        <v>5</v>
+      </c>
+      <c r="Y187">
+        <v>12</v>
+      </c>
+      <c r="Z187">
+        <v>5</v>
       </c>
       <c r="AA187" t="b">
         <v>0</v>
@@ -29403,79 +29407,79 @@
       <c r="AD187" t="b">
         <v>0</v>
       </c>
-      <c r="AH187" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
+      <c r="AH187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>12.86</v>
       </c>
-      <c r="B188" t="n">
-        <v>12.873</v>
-      </c>
-      <c r="C188" t="n">
+      <c r="B188">
+        <v>12.872999999999999</v>
+      </c>
+      <c r="C188">
         <v>240.851</v>
       </c>
-      <c r="D188" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E188" t="n">
+      <c r="D188">
+        <v>0.1</v>
+      </c>
+      <c r="E188">
         <v>0.8</v>
       </c>
-      <c r="F188" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H188" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L188" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M188" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q188" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R188" t="n">
-        <v>18.0</v>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0.1</v>
+      </c>
+      <c r="H188">
+        <v>5</v>
+      </c>
+      <c r="I188">
+        <v>0.6</v>
+      </c>
+      <c r="J188">
+        <v>0.3</v>
+      </c>
+      <c r="K188">
+        <v>0.1</v>
+      </c>
+      <c r="L188">
+        <v>0.6</v>
+      </c>
+      <c r="M188">
+        <v>0.4</v>
+      </c>
+      <c r="Q188">
+        <v>5</v>
+      </c>
+      <c r="R188">
+        <v>18</v>
       </c>
       <c r="S188" t="s">
         <v>46</v>
       </c>
-      <c r="T188" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U188" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V188" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W188" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X188" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y188" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z188" t="n">
-        <v>5.0</v>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>20</v>
+      </c>
+      <c r="V188">
+        <v>3</v>
+      </c>
+      <c r="W188">
+        <v>2</v>
+      </c>
+      <c r="X188">
+        <v>5</v>
+      </c>
+      <c r="Y188">
+        <v>12</v>
+      </c>
+      <c r="Z188">
+        <v>5</v>
       </c>
       <c r="AA188" t="b">
         <v>0</v>
@@ -29483,79 +29487,79 @@
       <c r="AD188" t="b">
         <v>0</v>
       </c>
-      <c r="AH188" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
+      <c r="AH188">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>13.728</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>13.737</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>540.697</v>
       </c>
-      <c r="D189" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E189" t="n">
+      <c r="D189">
+        <v>0.1</v>
+      </c>
+      <c r="E189">
         <v>0.8</v>
       </c>
-      <c r="F189" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H189" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q189" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R189" t="n">
-        <v>18.0</v>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0.1</v>
+      </c>
+      <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="I189">
+        <v>0.6</v>
+      </c>
+      <c r="J189">
+        <v>0.3</v>
+      </c>
+      <c r="K189">
+        <v>0.1</v>
+      </c>
+      <c r="L189">
+        <v>0.6</v>
+      </c>
+      <c r="M189">
+        <v>0.4</v>
+      </c>
+      <c r="Q189">
+        <v>5</v>
+      </c>
+      <c r="R189">
+        <v>18</v>
       </c>
       <c r="S189" t="s">
         <v>46</v>
       </c>
-      <c r="T189" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U189" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V189" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W189" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X189" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y189" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z189" t="n">
-        <v>5.0</v>
+      <c r="T189">
+        <v>2</v>
+      </c>
+      <c r="U189">
+        <v>20</v>
+      </c>
+      <c r="V189">
+        <v>4</v>
+      </c>
+      <c r="W189">
+        <v>2</v>
+      </c>
+      <c r="X189">
+        <v>5</v>
+      </c>
+      <c r="Y189">
+        <v>12</v>
+      </c>
+      <c r="Z189">
+        <v>5</v>
       </c>
       <c r="AA189" t="b">
         <v>0</v>
@@ -29563,79 +29567,79 @@
       <c r="AD189" t="b">
         <v>0</v>
       </c>
-      <c r="AH189" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
+      <c r="AH189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>15.738</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>15.754</v>
       </c>
-      <c r="C190" t="n">
-        <v>370.506</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E190" t="n">
+      <c r="C190">
+        <v>370.50599999999997</v>
+      </c>
+      <c r="D190">
+        <v>0.1</v>
+      </c>
+      <c r="E190">
         <v>0.8</v>
       </c>
-      <c r="F190" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H190" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L190" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M190" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q190" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R190" t="n">
-        <v>18.0</v>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0.1</v>
+      </c>
+      <c r="H190">
+        <v>5</v>
+      </c>
+      <c r="I190">
+        <v>0.6</v>
+      </c>
+      <c r="J190">
+        <v>0.3</v>
+      </c>
+      <c r="K190">
+        <v>0.1</v>
+      </c>
+      <c r="L190">
+        <v>0.6</v>
+      </c>
+      <c r="M190">
+        <v>0.4</v>
+      </c>
+      <c r="Q190">
+        <v>5</v>
+      </c>
+      <c r="R190">
+        <v>18</v>
       </c>
       <c r="S190" t="s">
         <v>46</v>
       </c>
-      <c r="T190" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U190" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V190" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W190" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X190" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y190" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z190" t="n">
-        <v>5.0</v>
+      <c r="T190">
+        <v>2</v>
+      </c>
+      <c r="U190">
+        <v>20</v>
+      </c>
+      <c r="V190">
+        <v>4</v>
+      </c>
+      <c r="W190">
+        <v>2</v>
+      </c>
+      <c r="X190">
+        <v>5</v>
+      </c>
+      <c r="Y190">
+        <v>12</v>
+      </c>
+      <c r="Z190">
+        <v>5</v>
       </c>
       <c r="AA190" t="b">
         <v>0</v>
@@ -29643,79 +29647,79 @@
       <c r="AD190" t="b">
         <v>0</v>
       </c>
-      <c r="AH190" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
+      <c r="AH190">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>5.38</v>
       </c>
-      <c r="B191" t="n">
-        <v>5.387</v>
-      </c>
-      <c r="C191" t="n">
-        <v>55.6689</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E191" t="n">
+      <c r="B191">
+        <v>5.3869999999999996</v>
+      </c>
+      <c r="C191">
+        <v>55.668900000000001</v>
+      </c>
+      <c r="D191">
+        <v>0.1</v>
+      </c>
+      <c r="E191">
         <v>0.8</v>
       </c>
-      <c r="F191" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H191" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L191" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M191" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q191" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R191" t="n">
-        <v>18.0</v>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0.1</v>
+      </c>
+      <c r="H191">
+        <v>5</v>
+      </c>
+      <c r="I191">
+        <v>0.6</v>
+      </c>
+      <c r="J191">
+        <v>0.3</v>
+      </c>
+      <c r="K191">
+        <v>0.1</v>
+      </c>
+      <c r="L191">
+        <v>0.6</v>
+      </c>
+      <c r="M191">
+        <v>0.4</v>
+      </c>
+      <c r="Q191">
+        <v>5</v>
+      </c>
+      <c r="R191">
+        <v>18</v>
       </c>
       <c r="S191" t="s">
         <v>46</v>
       </c>
-      <c r="T191" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U191" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V191" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W191" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X191" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y191" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z191" t="n">
-        <v>5.0</v>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>20</v>
+      </c>
+      <c r="V191">
+        <v>1</v>
+      </c>
+      <c r="W191">
+        <v>2</v>
+      </c>
+      <c r="X191">
+        <v>7</v>
+      </c>
+      <c r="Y191">
+        <v>12</v>
+      </c>
+      <c r="Z191">
+        <v>5</v>
       </c>
       <c r="AA191" t="b">
         <v>0</v>
@@ -29723,79 +29727,79 @@
       <c r="AD191" t="b">
         <v>0</v>
       </c>
-      <c r="AH191" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>1.598</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1.604</v>
-      </c>
-      <c r="C192" t="n">
-        <v>18.005</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E192" t="n">
+      <c r="AH191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="B192">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="C192">
+        <v>18.004999999999999</v>
+      </c>
+      <c r="D192">
+        <v>0.1</v>
+      </c>
+      <c r="E192">
         <v>0.8</v>
       </c>
-      <c r="F192" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H192" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L192" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M192" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q192" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R192" t="n">
-        <v>18.0</v>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0.1</v>
+      </c>
+      <c r="H192">
+        <v>5</v>
+      </c>
+      <c r="I192">
+        <v>0.6</v>
+      </c>
+      <c r="J192">
+        <v>0.3</v>
+      </c>
+      <c r="K192">
+        <v>0.1</v>
+      </c>
+      <c r="L192">
+        <v>0.6</v>
+      </c>
+      <c r="M192">
+        <v>0.4</v>
+      </c>
+      <c r="Q192">
+        <v>5</v>
+      </c>
+      <c r="R192">
+        <v>18</v>
       </c>
       <c r="S192" t="s">
         <v>46</v>
       </c>
-      <c r="T192" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U192" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V192" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W192" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X192" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y192" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z192" t="n">
-        <v>5.0</v>
+      <c r="T192">
+        <v>2</v>
+      </c>
+      <c r="U192">
+        <v>20</v>
+      </c>
+      <c r="V192">
+        <v>1</v>
+      </c>
+      <c r="W192">
+        <v>2</v>
+      </c>
+      <c r="X192">
+        <v>7</v>
+      </c>
+      <c r="Y192">
+        <v>12</v>
+      </c>
+      <c r="Z192">
+        <v>5</v>
       </c>
       <c r="AA192" t="b">
         <v>0</v>
@@ -29803,79 +29807,79 @@
       <c r="AD192" t="b">
         <v>0</v>
       </c>
-      <c r="AH192" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>309.16</v>
-      </c>
-      <c r="B193" t="n">
-        <v>309.191</v>
-      </c>
-      <c r="C193" t="n">
+      <c r="AH192">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>309.16000000000003</v>
+      </c>
+      <c r="B193">
+        <v>309.19099999999997</v>
+      </c>
+      <c r="C193">
         <v>213.31</v>
       </c>
-      <c r="D193" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E193" t="n">
+      <c r="D193">
+        <v>0.1</v>
+      </c>
+      <c r="E193">
         <v>0.8</v>
       </c>
-      <c r="F193" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H193" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L193" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M193" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q193" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R193" t="n">
-        <v>18.0</v>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0.1</v>
+      </c>
+      <c r="H193">
+        <v>5</v>
+      </c>
+      <c r="I193">
+        <v>0.6</v>
+      </c>
+      <c r="J193">
+        <v>0.3</v>
+      </c>
+      <c r="K193">
+        <v>0.1</v>
+      </c>
+      <c r="L193">
+        <v>0.6</v>
+      </c>
+      <c r="M193">
+        <v>0.4</v>
+      </c>
+      <c r="Q193">
+        <v>5</v>
+      </c>
+      <c r="R193">
+        <v>18</v>
       </c>
       <c r="S193" t="s">
         <v>46</v>
       </c>
-      <c r="T193" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U193" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V193" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W193" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X193" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y193" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z193" t="n">
-        <v>5.0</v>
+      <c r="T193">
+        <v>2</v>
+      </c>
+      <c r="U193">
+        <v>20</v>
+      </c>
+      <c r="V193">
+        <v>2</v>
+      </c>
+      <c r="W193">
+        <v>2</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>12</v>
+      </c>
+      <c r="Z193">
+        <v>5</v>
       </c>
       <c r="AA193" t="b">
         <v>0</v>
@@ -29883,79 +29887,79 @@
       <c r="AD193" t="b">
         <v>0</v>
       </c>
-      <c r="AH193" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>68.577</v>
-      </c>
-      <c r="B194" t="n">
-        <v>68.595</v>
-      </c>
-      <c r="C194" t="n">
-        <v>158.807</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E194" t="n">
+      <c r="AH193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>68.576999999999998</v>
+      </c>
+      <c r="B194">
+        <v>68.594999999999999</v>
+      </c>
+      <c r="C194">
+        <v>158.80699999999999</v>
+      </c>
+      <c r="D194">
+        <v>0.1</v>
+      </c>
+      <c r="E194">
         <v>0.8</v>
       </c>
-      <c r="F194" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H194" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L194" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M194" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q194" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R194" t="n">
-        <v>18.0</v>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0.1</v>
+      </c>
+      <c r="H194">
+        <v>5</v>
+      </c>
+      <c r="I194">
+        <v>0.6</v>
+      </c>
+      <c r="J194">
+        <v>0.3</v>
+      </c>
+      <c r="K194">
+        <v>0.1</v>
+      </c>
+      <c r="L194">
+        <v>0.6</v>
+      </c>
+      <c r="M194">
+        <v>0.4</v>
+      </c>
+      <c r="Q194">
+        <v>5</v>
+      </c>
+      <c r="R194">
+        <v>18</v>
       </c>
       <c r="S194" t="s">
         <v>46</v>
       </c>
-      <c r="T194" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U194" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V194" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W194" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X194" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y194" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z194" t="n">
-        <v>5.0</v>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
+        <v>20</v>
+      </c>
+      <c r="V194">
+        <v>2</v>
+      </c>
+      <c r="W194">
+        <v>2</v>
+      </c>
+      <c r="X194">
+        <v>7</v>
+      </c>
+      <c r="Y194">
+        <v>12</v>
+      </c>
+      <c r="Z194">
+        <v>5</v>
       </c>
       <c r="AA194" t="b">
         <v>0</v>
@@ -29963,79 +29967,79 @@
       <c r="AD194" t="b">
         <v>0</v>
       </c>
-      <c r="AH194" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>75.903</v>
-      </c>
-      <c r="B195" t="n">
+      <c r="AH194">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>75.903000000000006</v>
+      </c>
+      <c r="B195">
         <v>75.92</v>
       </c>
-      <c r="C195" t="n">
-        <v>390.401</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E195" t="n">
+      <c r="C195">
+        <v>390.40100000000001</v>
+      </c>
+      <c r="D195">
+        <v>0.1</v>
+      </c>
+      <c r="E195">
         <v>0.8</v>
       </c>
-      <c r="F195" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H195" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L195" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M195" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q195" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R195" t="n">
-        <v>18.0</v>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0.1</v>
+      </c>
+      <c r="H195">
+        <v>5</v>
+      </c>
+      <c r="I195">
+        <v>0.6</v>
+      </c>
+      <c r="J195">
+        <v>0.3</v>
+      </c>
+      <c r="K195">
+        <v>0.1</v>
+      </c>
+      <c r="L195">
+        <v>0.6</v>
+      </c>
+      <c r="M195">
+        <v>0.4</v>
+      </c>
+      <c r="Q195">
+        <v>5</v>
+      </c>
+      <c r="R195">
+        <v>18</v>
       </c>
       <c r="S195" t="s">
         <v>46</v>
       </c>
-      <c r="T195" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U195" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V195" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W195" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X195" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y195" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z195" t="n">
-        <v>5.0</v>
+      <c r="T195">
+        <v>2</v>
+      </c>
+      <c r="U195">
+        <v>20</v>
+      </c>
+      <c r="V195">
+        <v>3</v>
+      </c>
+      <c r="W195">
+        <v>2</v>
+      </c>
+      <c r="X195">
+        <v>7</v>
+      </c>
+      <c r="Y195">
+        <v>12</v>
+      </c>
+      <c r="Z195">
+        <v>5</v>
       </c>
       <c r="AA195" t="b">
         <v>0</v>
@@ -30043,79 +30047,79 @@
       <c r="AD195" t="b">
         <v>0</v>
       </c>
-      <c r="AH195" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
+      <c r="AH195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>45.814</v>
       </c>
-      <c r="B196" t="n">
-        <v>45.835</v>
-      </c>
-      <c r="C196" t="n">
+      <c r="B196">
+        <v>45.835000000000001</v>
+      </c>
+      <c r="C196">
         <v>239.251</v>
       </c>
-      <c r="D196" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E196" t="n">
+      <c r="D196">
+        <v>0.1</v>
+      </c>
+      <c r="E196">
         <v>0.8</v>
       </c>
-      <c r="F196" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H196" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L196" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M196" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q196" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R196" t="n">
-        <v>18.0</v>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0.1</v>
+      </c>
+      <c r="H196">
+        <v>5</v>
+      </c>
+      <c r="I196">
+        <v>0.6</v>
+      </c>
+      <c r="J196">
+        <v>0.3</v>
+      </c>
+      <c r="K196">
+        <v>0.1</v>
+      </c>
+      <c r="L196">
+        <v>0.6</v>
+      </c>
+      <c r="M196">
+        <v>0.4</v>
+      </c>
+      <c r="Q196">
+        <v>5</v>
+      </c>
+      <c r="R196">
+        <v>18</v>
       </c>
       <c r="S196" t="s">
         <v>46</v>
       </c>
-      <c r="T196" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U196" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V196" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W196" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X196" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y196" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z196" t="n">
-        <v>5.0</v>
+      <c r="T196">
+        <v>2</v>
+      </c>
+      <c r="U196">
+        <v>20</v>
+      </c>
+      <c r="V196">
+        <v>3</v>
+      </c>
+      <c r="W196">
+        <v>2</v>
+      </c>
+      <c r="X196">
+        <v>7</v>
+      </c>
+      <c r="Y196">
+        <v>12</v>
+      </c>
+      <c r="Z196">
+        <v>5</v>
       </c>
       <c r="AA196" t="b">
         <v>0</v>
@@ -30123,79 +30127,79 @@
       <c r="AD196" t="b">
         <v>0</v>
       </c>
-      <c r="AH196" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>55.882</v>
-      </c>
-      <c r="B197" t="n">
-        <v>55.893</v>
-      </c>
-      <c r="C197" t="n">
-        <v>540.683</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E197" t="n">
+      <c r="AH196">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>55.881999999999998</v>
+      </c>
+      <c r="B197">
+        <v>55.893000000000001</v>
+      </c>
+      <c r="C197">
+        <v>540.68299999999999</v>
+      </c>
+      <c r="D197">
+        <v>0.1</v>
+      </c>
+      <c r="E197">
         <v>0.8</v>
       </c>
-      <c r="F197" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H197" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L197" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M197" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q197" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R197" t="n">
-        <v>18.0</v>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0.1</v>
+      </c>
+      <c r="H197">
+        <v>5</v>
+      </c>
+      <c r="I197">
+        <v>0.6</v>
+      </c>
+      <c r="J197">
+        <v>0.3</v>
+      </c>
+      <c r="K197">
+        <v>0.1</v>
+      </c>
+      <c r="L197">
+        <v>0.6</v>
+      </c>
+      <c r="M197">
+        <v>0.4</v>
+      </c>
+      <c r="Q197">
+        <v>5</v>
+      </c>
+      <c r="R197">
+        <v>18</v>
       </c>
       <c r="S197" t="s">
         <v>46</v>
       </c>
-      <c r="T197" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U197" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V197" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W197" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X197" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y197" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z197" t="n">
-        <v>5.0</v>
+      <c r="T197">
+        <v>2</v>
+      </c>
+      <c r="U197">
+        <v>20</v>
+      </c>
+      <c r="V197">
+        <v>4</v>
+      </c>
+      <c r="W197">
+        <v>2</v>
+      </c>
+      <c r="X197">
+        <v>7</v>
+      </c>
+      <c r="Y197">
+        <v>12</v>
+      </c>
+      <c r="Z197">
+        <v>5</v>
       </c>
       <c r="AA197" t="b">
         <v>0</v>
@@ -30203,79 +30207,79 @@
       <c r="AD197" t="b">
         <v>0</v>
       </c>
-      <c r="AH197" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>70.443</v>
-      </c>
-      <c r="B198" t="n">
-        <v>70.459</v>
-      </c>
-      <c r="C198" t="n">
-        <v>365.594</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E198" t="n">
+      <c r="AH197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>70.442999999999998</v>
+      </c>
+      <c r="B198">
+        <v>70.459000000000003</v>
+      </c>
+      <c r="C198">
+        <v>365.59399999999999</v>
+      </c>
+      <c r="D198">
+        <v>0.1</v>
+      </c>
+      <c r="E198">
         <v>0.8</v>
       </c>
-      <c r="F198" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H198" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L198" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M198" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q198" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R198" t="n">
-        <v>18.0</v>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0.1</v>
+      </c>
+      <c r="H198">
+        <v>5</v>
+      </c>
+      <c r="I198">
+        <v>0.6</v>
+      </c>
+      <c r="J198">
+        <v>0.3</v>
+      </c>
+      <c r="K198">
+        <v>0.1</v>
+      </c>
+      <c r="L198">
+        <v>0.6</v>
+      </c>
+      <c r="M198">
+        <v>0.4</v>
+      </c>
+      <c r="Q198">
+        <v>5</v>
+      </c>
+      <c r="R198">
+        <v>18</v>
       </c>
       <c r="S198" t="s">
         <v>46</v>
       </c>
-      <c r="T198" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U198" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="V198" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W198" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="X198" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y198" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Z198" t="n">
-        <v>5.0</v>
+      <c r="T198">
+        <v>2</v>
+      </c>
+      <c r="U198">
+        <v>20</v>
+      </c>
+      <c r="V198">
+        <v>4</v>
+      </c>
+      <c r="W198">
+        <v>2</v>
+      </c>
+      <c r="X198">
+        <v>7</v>
+      </c>
+      <c r="Y198">
+        <v>12</v>
+      </c>
+      <c r="Z198">
+        <v>5</v>
       </c>
       <c r="AA198" t="b">
         <v>0</v>
@@ -30283,12 +30287,714 @@
       <c r="AD198" t="b">
         <v>0</v>
       </c>
-      <c r="AH198" t="n">
-        <v>17.0</v>
+      <c r="AH198">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="Q199"/>
+      <c r="R199"/>
+      <c r="S199"/>
+      <c r="T199"/>
+      <c r="U199"/>
+      <c r="V199"/>
+      <c r="W199"/>
+      <c r="X199"/>
+      <c r="Y199"/>
+      <c r="Z199"/>
+      <c r="AA199"/>
+      <c r="AD199"/>
+      <c r="AH199"/>
+    </row>
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="Q200"/>
+      <c r="R200"/>
+      <c r="S200"/>
+      <c r="T200"/>
+      <c r="U200"/>
+      <c r="V200"/>
+      <c r="W200"/>
+      <c r="X200"/>
+      <c r="Y200"/>
+      <c r="Z200"/>
+      <c r="AA200"/>
+      <c r="AD200"/>
+      <c r="AH200"/>
+    </row>
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A201" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201"/>
+      <c r="Q201"/>
+      <c r="R201"/>
+      <c r="S201"/>
+      <c r="T201"/>
+      <c r="U201"/>
+      <c r="V201"/>
+      <c r="W201"/>
+      <c r="X201"/>
+      <c r="Y201"/>
+      <c r="Z201"/>
+      <c r="AA201"/>
+      <c r="AD201"/>
+      <c r="AH201"/>
+    </row>
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.307</v>
+      </c>
+      <c r="B202" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="C202" s="9">
+        <v>56.341799999999999</v>
+      </c>
+      <c r="D202">
+        <v>0.1</v>
+      </c>
+      <c r="E202">
+        <v>0.5</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0.4</v>
+      </c>
+      <c r="H202">
+        <v>5</v>
+      </c>
+      <c r="I202">
+        <v>0.6</v>
+      </c>
+      <c r="J202">
+        <v>0.3</v>
+      </c>
+      <c r="K202">
+        <v>0.1</v>
+      </c>
+      <c r="L202">
+        <v>0.6</v>
+      </c>
+      <c r="M202">
+        <v>0.4</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>18</v>
+      </c>
+      <c r="S202" t="s">
+        <v>47</v>
+      </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
+      <c r="U202">
+        <v>20</v>
+      </c>
+      <c r="V202">
+        <v>1</v>
+      </c>
+      <c r="W202">
+        <v>2</v>
+      </c>
+      <c r="X202">
+        <v>40</v>
+      </c>
+      <c r="Z202">
+        <v>5</v>
+      </c>
+      <c r="AA202" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD202" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="B203" s="9">
+        <v>0.183</v>
+      </c>
+      <c r="C203" s="9">
+        <v>27.152899999999999</v>
+      </c>
+      <c r="D203">
+        <v>0.1</v>
+      </c>
+      <c r="E203">
+        <v>0.5</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0.4</v>
+      </c>
+      <c r="H203">
+        <v>5</v>
+      </c>
+      <c r="I203">
+        <v>0.6</v>
+      </c>
+      <c r="J203">
+        <v>0.3</v>
+      </c>
+      <c r="K203">
+        <v>0.1</v>
+      </c>
+      <c r="L203">
+        <v>0.6</v>
+      </c>
+      <c r="M203">
+        <v>0.4</v>
+      </c>
+      <c r="Q203">
+        <v>5</v>
+      </c>
+      <c r="R203">
+        <v>18</v>
+      </c>
+      <c r="S203" t="s">
+        <v>47</v>
+      </c>
+      <c r="T203">
+        <v>1</v>
+      </c>
+      <c r="U203">
+        <v>20</v>
+      </c>
+      <c r="V203">
+        <v>1</v>
+      </c>
+      <c r="W203">
+        <v>2</v>
+      </c>
+      <c r="X203">
+        <v>40</v>
+      </c>
+      <c r="Z203">
+        <v>5</v>
+      </c>
+      <c r="AA203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH203">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="B204" s="9">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="C204" s="9">
+        <v>214.738</v>
+      </c>
+      <c r="D204">
+        <v>0.1</v>
+      </c>
+      <c r="E204">
+        <v>0.5</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0.4</v>
+      </c>
+      <c r="H204">
+        <v>5</v>
+      </c>
+      <c r="I204">
+        <v>0.6</v>
+      </c>
+      <c r="J204">
+        <v>0.3</v>
+      </c>
+      <c r="K204">
+        <v>0.1</v>
+      </c>
+      <c r="L204">
+        <v>0.6</v>
+      </c>
+      <c r="M204">
+        <v>0.4</v>
+      </c>
+      <c r="Q204">
+        <v>5</v>
+      </c>
+      <c r="R204">
+        <v>18</v>
+      </c>
+      <c r="S204" t="s">
+        <v>47</v>
+      </c>
+      <c r="T204">
+        <v>1</v>
+      </c>
+      <c r="U204">
+        <v>20</v>
+      </c>
+      <c r="V204">
+        <v>2</v>
+      </c>
+      <c r="W204">
+        <v>2</v>
+      </c>
+      <c r="X204">
+        <v>40</v>
+      </c>
+      <c r="Z204">
+        <v>5</v>
+      </c>
+      <c r="AA204" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD204" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH204">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="B205" s="9">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C205" s="9">
+        <v>167.83</v>
+      </c>
+      <c r="D205">
+        <v>0.1</v>
+      </c>
+      <c r="E205">
+        <v>0.5</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0.4</v>
+      </c>
+      <c r="H205">
+        <v>5</v>
+      </c>
+      <c r="I205">
+        <v>0.6</v>
+      </c>
+      <c r="J205">
+        <v>0.3</v>
+      </c>
+      <c r="K205">
+        <v>0.1</v>
+      </c>
+      <c r="L205">
+        <v>0.6</v>
+      </c>
+      <c r="M205">
+        <v>0.4</v>
+      </c>
+      <c r="Q205">
+        <v>5</v>
+      </c>
+      <c r="R205">
+        <v>18</v>
+      </c>
+      <c r="S205" t="s">
+        <v>47</v>
+      </c>
+      <c r="T205">
+        <v>1</v>
+      </c>
+      <c r="U205">
+        <v>20</v>
+      </c>
+      <c r="V205">
+        <v>2</v>
+      </c>
+      <c r="W205">
+        <v>2</v>
+      </c>
+      <c r="X205">
+        <v>40</v>
+      </c>
+      <c r="Z205">
+        <v>5</v>
+      </c>
+      <c r="AA205" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD205" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH205">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="B206" s="9">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="C206" s="9">
+        <v>390.964</v>
+      </c>
+      <c r="D206">
+        <v>0.1</v>
+      </c>
+      <c r="E206">
+        <v>0.5</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0.4</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
+      </c>
+      <c r="I206">
+        <v>0.6</v>
+      </c>
+      <c r="J206">
+        <v>0.3</v>
+      </c>
+      <c r="K206">
+        <v>0.1</v>
+      </c>
+      <c r="L206">
+        <v>0.6</v>
+      </c>
+      <c r="M206">
+        <v>0.4</v>
+      </c>
+      <c r="Q206">
+        <v>5</v>
+      </c>
+      <c r="R206">
+        <v>18</v>
+      </c>
+      <c r="S206" t="s">
+        <v>47</v>
+      </c>
+      <c r="T206">
+        <v>1</v>
+      </c>
+      <c r="U206">
+        <v>20</v>
+      </c>
+      <c r="V206">
+        <v>3</v>
+      </c>
+      <c r="W206">
+        <v>2</v>
+      </c>
+      <c r="X206">
+        <v>40</v>
+      </c>
+      <c r="Z206">
+        <v>5</v>
+      </c>
+      <c r="AA206" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD206" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH206">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="B207" s="9">
+        <v>1.33</v>
+      </c>
+      <c r="C207" s="9">
+        <v>240.10599999999999</v>
+      </c>
+      <c r="D207">
+        <v>0.1</v>
+      </c>
+      <c r="E207">
+        <v>0.5</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0.4</v>
+      </c>
+      <c r="H207">
+        <v>5</v>
+      </c>
+      <c r="I207">
+        <v>0.6</v>
+      </c>
+      <c r="J207">
+        <v>0.3</v>
+      </c>
+      <c r="K207">
+        <v>0.1</v>
+      </c>
+      <c r="L207">
+        <v>0.6</v>
+      </c>
+      <c r="M207">
+        <v>0.4</v>
+      </c>
+      <c r="Q207">
+        <v>5</v>
+      </c>
+      <c r="R207">
+        <v>18</v>
+      </c>
+      <c r="S207" t="s">
+        <v>47</v>
+      </c>
+      <c r="T207">
+        <v>1</v>
+      </c>
+      <c r="U207">
+        <v>20</v>
+      </c>
+      <c r="V207">
+        <v>3</v>
+      </c>
+      <c r="W207">
+        <v>2</v>
+      </c>
+      <c r="X207">
+        <v>40</v>
+      </c>
+      <c r="Z207">
+        <v>5</v>
+      </c>
+      <c r="AA207" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD207" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH207">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>6.4530000000000003</v>
+      </c>
+      <c r="B208" s="9">
+        <v>8.1940000000000008</v>
+      </c>
+      <c r="C208" s="9">
+        <v>535.55999999999995</v>
+      </c>
+      <c r="D208">
+        <v>0.1</v>
+      </c>
+      <c r="E208">
+        <v>0.5</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0.4</v>
+      </c>
+      <c r="H208">
+        <v>5</v>
+      </c>
+      <c r="I208">
+        <v>0.6</v>
+      </c>
+      <c r="J208">
+        <v>0.3</v>
+      </c>
+      <c r="K208">
+        <v>0.1</v>
+      </c>
+      <c r="L208">
+        <v>0.6</v>
+      </c>
+      <c r="M208">
+        <v>0.4</v>
+      </c>
+      <c r="Q208">
+        <v>5</v>
+      </c>
+      <c r="R208">
+        <v>18</v>
+      </c>
+      <c r="S208" t="s">
+        <v>47</v>
+      </c>
+      <c r="T208">
+        <v>1</v>
+      </c>
+      <c r="U208">
+        <v>20</v>
+      </c>
+      <c r="V208">
+        <v>4</v>
+      </c>
+      <c r="W208">
+        <v>2</v>
+      </c>
+      <c r="X208">
+        <v>40</v>
+      </c>
+      <c r="Z208">
+        <v>5</v>
+      </c>
+      <c r="AA208" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD208" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="B209" s="9">
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="C209" s="9">
+        <v>369.38900000000001</v>
+      </c>
+      <c r="D209">
+        <v>0.1</v>
+      </c>
+      <c r="E209">
+        <v>0.5</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0.4</v>
+      </c>
+      <c r="H209">
+        <v>5</v>
+      </c>
+      <c r="I209">
+        <v>0.6</v>
+      </c>
+      <c r="J209">
+        <v>0.3</v>
+      </c>
+      <c r="K209">
+        <v>0.1</v>
+      </c>
+      <c r="L209">
+        <v>0.6</v>
+      </c>
+      <c r="M209">
+        <v>0.4</v>
+      </c>
+      <c r="Q209">
+        <v>5</v>
+      </c>
+      <c r="R209">
+        <v>18</v>
+      </c>
+      <c r="S209" t="s">
+        <v>47</v>
+      </c>
+      <c r="T209">
+        <v>1</v>
+      </c>
+      <c r="U209">
+        <v>20</v>
+      </c>
+      <c r="V209">
+        <v>4</v>
+      </c>
+      <c r="W209">
+        <v>2</v>
+      </c>
+      <c r="X209">
+        <v>40</v>
+      </c>
+      <c r="Z209">
+        <v>5</v>
+      </c>
+      <c r="AA209" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD209" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH209">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AH3"/>
+  <autoFilter ref="A201:AH209"/>
   <mergeCells count="8">
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
@@ -30299,7 +31005,7 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="57">
   <si>
     <t>Criticality score, weights</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Branching constant V3</t>
+  </si>
+  <si>
+    <t>Flexibility parameter, I4, 17:00</t>
   </si>
 </sst>
 </file>
@@ -399,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -417,7 +421,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,76 +753,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="6" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="42" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="42" t="s">
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="46"/>
+      <c r="U1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="40" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="40" t="s">
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="40" t="s">
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:53" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -14802,10 +14805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH209"/>
+  <dimension ref="A1:AH245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U218" sqref="U218"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z249" sqref="Z249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14846,55 +14849,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="42" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="42" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="40" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="40" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
     </row>
     <row r="2" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
@@ -30348,7 +30351,7 @@
       <c r="AH200"/>
     </row>
     <row r="201" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A201" s="46" t="s">
+      <c r="A201" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B201"/>
@@ -30993,6 +30996,2655 @@
         <v>17</v>
       </c>
     </row>
+    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>4.25</v>
+      </c>
+      <c r="B210">
+        <v>4.3230000000000004</v>
+      </c>
+      <c r="C210">
+        <v>372.62900000000002</v>
+      </c>
+      <c r="D210">
+        <v>0.1</v>
+      </c>
+      <c r="E210">
+        <v>0.8</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0.1</v>
+      </c>
+      <c r="H210">
+        <v>5</v>
+      </c>
+      <c r="I210">
+        <v>0.6</v>
+      </c>
+      <c r="J210">
+        <v>0.3</v>
+      </c>
+      <c r="K210">
+        <v>0.1</v>
+      </c>
+      <c r="L210">
+        <v>0.6</v>
+      </c>
+      <c r="M210">
+        <v>0.4</v>
+      </c>
+      <c r="Q210">
+        <v>5</v>
+      </c>
+      <c r="R210">
+        <v>18</v>
+      </c>
+      <c r="S210" t="s">
+        <v>46</v>
+      </c>
+      <c r="T210">
+        <v>1</v>
+      </c>
+      <c r="U210">
+        <v>20</v>
+      </c>
+      <c r="V210">
+        <v>4</v>
+      </c>
+      <c r="W210">
+        <v>2</v>
+      </c>
+      <c r="X210">
+        <v>7</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>5</v>
+      </c>
+      <c r="AA210" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD210" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH210">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A211"/>
+      <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="Q211"/>
+      <c r="R211"/>
+      <c r="S211"/>
+      <c r="T211"/>
+      <c r="U211"/>
+      <c r="V211"/>
+      <c r="W211"/>
+      <c r="X211"/>
+      <c r="Y211"/>
+      <c r="Z211"/>
+      <c r="AA211"/>
+      <c r="AD211"/>
+      <c r="AH211"/>
+    </row>
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+      <c r="B212"/>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="Q212"/>
+      <c r="R212"/>
+      <c r="S212"/>
+      <c r="T212"/>
+      <c r="U212"/>
+      <c r="V212"/>
+      <c r="W212"/>
+      <c r="X212"/>
+      <c r="Y212"/>
+      <c r="Z212"/>
+      <c r="AA212"/>
+      <c r="AD212"/>
+      <c r="AH212"/>
+    </row>
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A213" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>7.4580000000000002</v>
+      </c>
+      <c r="B214">
+        <v>7.4779999999999998</v>
+      </c>
+      <c r="C214">
+        <v>371.34899999999999</v>
+      </c>
+      <c r="D214">
+        <v>0.1</v>
+      </c>
+      <c r="E214">
+        <v>0.8</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0.1</v>
+      </c>
+      <c r="H214">
+        <v>5</v>
+      </c>
+      <c r="I214">
+        <v>0.6</v>
+      </c>
+      <c r="J214">
+        <v>0.3</v>
+      </c>
+      <c r="K214">
+        <v>0.1</v>
+      </c>
+      <c r="L214">
+        <v>0.6</v>
+      </c>
+      <c r="M214">
+        <v>0.4</v>
+      </c>
+      <c r="Q214">
+        <v>5</v>
+      </c>
+      <c r="R214">
+        <v>18</v>
+      </c>
+      <c r="S214" t="s">
+        <v>46</v>
+      </c>
+      <c r="T214">
+        <v>1</v>
+      </c>
+      <c r="U214">
+        <v>20</v>
+      </c>
+      <c r="V214">
+        <v>4</v>
+      </c>
+      <c r="W214">
+        <v>2</v>
+      </c>
+      <c r="X214">
+        <v>7</v>
+      </c>
+      <c r="Y214">
+        <v>1</v>
+      </c>
+      <c r="Z214">
+        <v>5</v>
+      </c>
+      <c r="AA214" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD214" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>7.7960000000000003</v>
+      </c>
+      <c r="B215">
+        <v>7.8159999999999998</v>
+      </c>
+      <c r="C215">
+        <v>370.459</v>
+      </c>
+      <c r="D215">
+        <v>0.1</v>
+      </c>
+      <c r="E215">
+        <v>0.8</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0.1</v>
+      </c>
+      <c r="H215">
+        <v>5</v>
+      </c>
+      <c r="I215">
+        <v>0.6</v>
+      </c>
+      <c r="J215">
+        <v>0.3</v>
+      </c>
+      <c r="K215">
+        <v>0.1</v>
+      </c>
+      <c r="L215">
+        <v>0.6</v>
+      </c>
+      <c r="M215">
+        <v>0.4</v>
+      </c>
+      <c r="Q215">
+        <v>5</v>
+      </c>
+      <c r="R215">
+        <v>18</v>
+      </c>
+      <c r="S215" t="s">
+        <v>46</v>
+      </c>
+      <c r="T215">
+        <v>1</v>
+      </c>
+      <c r="U215">
+        <v>20</v>
+      </c>
+      <c r="V215">
+        <v>4</v>
+      </c>
+      <c r="W215">
+        <v>2</v>
+      </c>
+      <c r="X215">
+        <v>7</v>
+      </c>
+      <c r="Y215">
+        <v>2</v>
+      </c>
+      <c r="Z215">
+        <v>5</v>
+      </c>
+      <c r="AA215" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD215" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH215">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>6.9690000000000003</v>
+      </c>
+      <c r="B216">
+        <v>6.9880000000000004</v>
+      </c>
+      <c r="C216">
+        <v>369.56900000000002</v>
+      </c>
+      <c r="D216">
+        <v>0.1</v>
+      </c>
+      <c r="E216">
+        <v>0.8</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0.1</v>
+      </c>
+      <c r="H216">
+        <v>5</v>
+      </c>
+      <c r="I216">
+        <v>0.6</v>
+      </c>
+      <c r="J216">
+        <v>0.3</v>
+      </c>
+      <c r="K216">
+        <v>0.1</v>
+      </c>
+      <c r="L216">
+        <v>0.6</v>
+      </c>
+      <c r="M216">
+        <v>0.4</v>
+      </c>
+      <c r="Q216">
+        <v>5</v>
+      </c>
+      <c r="R216">
+        <v>18</v>
+      </c>
+      <c r="S216" t="s">
+        <v>46</v>
+      </c>
+      <c r="T216">
+        <v>1</v>
+      </c>
+      <c r="U216">
+        <v>20</v>
+      </c>
+      <c r="V216">
+        <v>4</v>
+      </c>
+      <c r="W216">
+        <v>2</v>
+      </c>
+      <c r="X216">
+        <v>7</v>
+      </c>
+      <c r="Y216">
+        <v>3</v>
+      </c>
+      <c r="Z216">
+        <v>5</v>
+      </c>
+      <c r="AA216" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD216" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH216">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>7.26</v>
+      </c>
+      <c r="B217">
+        <v>7.2759999999999998</v>
+      </c>
+      <c r="C217">
+        <v>368.67899999999997</v>
+      </c>
+      <c r="D217">
+        <v>0.1</v>
+      </c>
+      <c r="E217">
+        <v>0.8</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0.1</v>
+      </c>
+      <c r="H217">
+        <v>5</v>
+      </c>
+      <c r="I217">
+        <v>0.6</v>
+      </c>
+      <c r="J217">
+        <v>0.3</v>
+      </c>
+      <c r="K217">
+        <v>0.1</v>
+      </c>
+      <c r="L217">
+        <v>0.6</v>
+      </c>
+      <c r="M217">
+        <v>0.4</v>
+      </c>
+      <c r="Q217">
+        <v>5</v>
+      </c>
+      <c r="R217">
+        <v>18</v>
+      </c>
+      <c r="S217" t="s">
+        <v>46</v>
+      </c>
+      <c r="T217">
+        <v>1</v>
+      </c>
+      <c r="U217">
+        <v>20</v>
+      </c>
+      <c r="V217">
+        <v>4</v>
+      </c>
+      <c r="W217">
+        <v>2</v>
+      </c>
+      <c r="X217">
+        <v>7</v>
+      </c>
+      <c r="Y217">
+        <v>4</v>
+      </c>
+      <c r="Z217">
+        <v>5</v>
+      </c>
+      <c r="AA217" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD217" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH217">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>6.7380000000000004</v>
+      </c>
+      <c r="B218">
+        <v>6.7560000000000002</v>
+      </c>
+      <c r="C218">
+        <v>368.12700000000001</v>
+      </c>
+      <c r="D218">
+        <v>0.1</v>
+      </c>
+      <c r="E218">
+        <v>0.8</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0.1</v>
+      </c>
+      <c r="H218">
+        <v>5</v>
+      </c>
+      <c r="I218">
+        <v>0.6</v>
+      </c>
+      <c r="J218">
+        <v>0.3</v>
+      </c>
+      <c r="K218">
+        <v>0.1</v>
+      </c>
+      <c r="L218">
+        <v>0.6</v>
+      </c>
+      <c r="M218">
+        <v>0.4</v>
+      </c>
+      <c r="Q218">
+        <v>5</v>
+      </c>
+      <c r="R218">
+        <v>18</v>
+      </c>
+      <c r="S218" t="s">
+        <v>46</v>
+      </c>
+      <c r="T218">
+        <v>1</v>
+      </c>
+      <c r="U218">
+        <v>20</v>
+      </c>
+      <c r="V218">
+        <v>4</v>
+      </c>
+      <c r="W218">
+        <v>2</v>
+      </c>
+      <c r="X218">
+        <v>7</v>
+      </c>
+      <c r="Y218">
+        <v>5</v>
+      </c>
+      <c r="Z218">
+        <v>5</v>
+      </c>
+      <c r="AA218" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD218" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH218">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>7.141</v>
+      </c>
+      <c r="B219">
+        <v>7.157</v>
+      </c>
+      <c r="C219">
+        <v>367.57499999999999</v>
+      </c>
+      <c r="D219">
+        <v>0.1</v>
+      </c>
+      <c r="E219">
+        <v>0.8</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0.1</v>
+      </c>
+      <c r="H219">
+        <v>5</v>
+      </c>
+      <c r="I219">
+        <v>0.6</v>
+      </c>
+      <c r="J219">
+        <v>0.3</v>
+      </c>
+      <c r="K219">
+        <v>0.1</v>
+      </c>
+      <c r="L219">
+        <v>0.6</v>
+      </c>
+      <c r="M219">
+        <v>0.4</v>
+      </c>
+      <c r="Q219">
+        <v>5</v>
+      </c>
+      <c r="R219">
+        <v>18</v>
+      </c>
+      <c r="S219" t="s">
+        <v>46</v>
+      </c>
+      <c r="T219">
+        <v>1</v>
+      </c>
+      <c r="U219">
+        <v>20</v>
+      </c>
+      <c r="V219">
+        <v>4</v>
+      </c>
+      <c r="W219">
+        <v>2</v>
+      </c>
+      <c r="X219">
+        <v>7</v>
+      </c>
+      <c r="Y219">
+        <v>6</v>
+      </c>
+      <c r="Z219">
+        <v>5</v>
+      </c>
+      <c r="AA219" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD219" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH219">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>7.6369999999999996</v>
+      </c>
+      <c r="B220">
+        <v>7.657</v>
+      </c>
+      <c r="C220">
+        <v>367.02300000000002</v>
+      </c>
+      <c r="D220">
+        <v>0.1</v>
+      </c>
+      <c r="E220">
+        <v>0.8</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0.1</v>
+      </c>
+      <c r="H220">
+        <v>5</v>
+      </c>
+      <c r="I220">
+        <v>0.6</v>
+      </c>
+      <c r="J220">
+        <v>0.3</v>
+      </c>
+      <c r="K220">
+        <v>0.1</v>
+      </c>
+      <c r="L220">
+        <v>0.6</v>
+      </c>
+      <c r="M220">
+        <v>0.4</v>
+      </c>
+      <c r="Q220">
+        <v>5</v>
+      </c>
+      <c r="R220">
+        <v>18</v>
+      </c>
+      <c r="S220" t="s">
+        <v>46</v>
+      </c>
+      <c r="T220">
+        <v>1</v>
+      </c>
+      <c r="U220">
+        <v>20</v>
+      </c>
+      <c r="V220">
+        <v>4</v>
+      </c>
+      <c r="W220">
+        <v>2</v>
+      </c>
+      <c r="X220">
+        <v>7</v>
+      </c>
+      <c r="Y220">
+        <v>7</v>
+      </c>
+      <c r="Z220">
+        <v>5</v>
+      </c>
+      <c r="AA220" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD220" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH220">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>7.4269999999999996</v>
+      </c>
+      <c r="B221">
+        <v>7.444</v>
+      </c>
+      <c r="C221">
+        <v>366.541</v>
+      </c>
+      <c r="D221">
+        <v>0.1</v>
+      </c>
+      <c r="E221">
+        <v>0.8</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0.1</v>
+      </c>
+      <c r="H221">
+        <v>5</v>
+      </c>
+      <c r="I221">
+        <v>0.6</v>
+      </c>
+      <c r="J221">
+        <v>0.3</v>
+      </c>
+      <c r="K221">
+        <v>0.1</v>
+      </c>
+      <c r="L221">
+        <v>0.6</v>
+      </c>
+      <c r="M221">
+        <v>0.4</v>
+      </c>
+      <c r="Q221">
+        <v>5</v>
+      </c>
+      <c r="R221">
+        <v>18</v>
+      </c>
+      <c r="S221" t="s">
+        <v>46</v>
+      </c>
+      <c r="T221">
+        <v>1</v>
+      </c>
+      <c r="U221">
+        <v>20</v>
+      </c>
+      <c r="V221">
+        <v>4</v>
+      </c>
+      <c r="W221">
+        <v>2</v>
+      </c>
+      <c r="X221">
+        <v>7</v>
+      </c>
+      <c r="Y221">
+        <v>8</v>
+      </c>
+      <c r="Z221">
+        <v>5</v>
+      </c>
+      <c r="AA221" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD221" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH221">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>7.03</v>
+      </c>
+      <c r="B222">
+        <v>7.0460000000000003</v>
+      </c>
+      <c r="C222">
+        <v>366.33499999999998</v>
+      </c>
+      <c r="D222">
+        <v>0.1</v>
+      </c>
+      <c r="E222">
+        <v>0.8</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0.1</v>
+      </c>
+      <c r="H222">
+        <v>5</v>
+      </c>
+      <c r="I222">
+        <v>0.6</v>
+      </c>
+      <c r="J222">
+        <v>0.3</v>
+      </c>
+      <c r="K222">
+        <v>0.1</v>
+      </c>
+      <c r="L222">
+        <v>0.6</v>
+      </c>
+      <c r="M222">
+        <v>0.4</v>
+      </c>
+      <c r="Q222">
+        <v>5</v>
+      </c>
+      <c r="R222">
+        <v>18</v>
+      </c>
+      <c r="S222" t="s">
+        <v>46</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>20</v>
+      </c>
+      <c r="V222">
+        <v>4</v>
+      </c>
+      <c r="W222">
+        <v>2</v>
+      </c>
+      <c r="X222">
+        <v>7</v>
+      </c>
+      <c r="Y222">
+        <v>9</v>
+      </c>
+      <c r="Z222">
+        <v>5</v>
+      </c>
+      <c r="AA222" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD222" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="B223">
+        <v>8.4870000000000001</v>
+      </c>
+      <c r="C223">
+        <v>366.12900000000002</v>
+      </c>
+      <c r="D223">
+        <v>0.1</v>
+      </c>
+      <c r="E223">
+        <v>0.8</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0.1</v>
+      </c>
+      <c r="H223">
+        <v>5</v>
+      </c>
+      <c r="I223">
+        <v>0.6</v>
+      </c>
+      <c r="J223">
+        <v>0.3</v>
+      </c>
+      <c r="K223">
+        <v>0.1</v>
+      </c>
+      <c r="L223">
+        <v>0.6</v>
+      </c>
+      <c r="M223">
+        <v>0.4</v>
+      </c>
+      <c r="Q223">
+        <v>5</v>
+      </c>
+      <c r="R223">
+        <v>18</v>
+      </c>
+      <c r="S223" t="s">
+        <v>46</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>20</v>
+      </c>
+      <c r="V223">
+        <v>4</v>
+      </c>
+      <c r="W223">
+        <v>2</v>
+      </c>
+      <c r="X223">
+        <v>7</v>
+      </c>
+      <c r="Y223">
+        <v>10</v>
+      </c>
+      <c r="Z223">
+        <v>5</v>
+      </c>
+      <c r="AA223" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD223" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>7.8860000000000001</v>
+      </c>
+      <c r="B224">
+        <v>7.9020000000000001</v>
+      </c>
+      <c r="C224">
+        <v>365.88400000000001</v>
+      </c>
+      <c r="D224">
+        <v>0.1</v>
+      </c>
+      <c r="E224">
+        <v>0.8</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0.1</v>
+      </c>
+      <c r="H224">
+        <v>5</v>
+      </c>
+      <c r="I224">
+        <v>0.6</v>
+      </c>
+      <c r="J224">
+        <v>0.3</v>
+      </c>
+      <c r="K224">
+        <v>0.1</v>
+      </c>
+      <c r="L224">
+        <v>0.6</v>
+      </c>
+      <c r="M224">
+        <v>0.4</v>
+      </c>
+      <c r="Q224">
+        <v>5</v>
+      </c>
+      <c r="R224">
+        <v>18</v>
+      </c>
+      <c r="S224" t="s">
+        <v>46</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>20</v>
+      </c>
+      <c r="V224">
+        <v>4</v>
+      </c>
+      <c r="W224">
+        <v>2</v>
+      </c>
+      <c r="X224">
+        <v>7</v>
+      </c>
+      <c r="Y224">
+        <v>11</v>
+      </c>
+      <c r="Z224">
+        <v>5</v>
+      </c>
+      <c r="AA224" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD224" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="B225">
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="C225">
+        <v>365.59399999999999</v>
+      </c>
+      <c r="D225">
+        <v>0.1</v>
+      </c>
+      <c r="E225">
+        <v>0.8</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0.1</v>
+      </c>
+      <c r="H225">
+        <v>5</v>
+      </c>
+      <c r="I225">
+        <v>0.6</v>
+      </c>
+      <c r="J225">
+        <v>0.3</v>
+      </c>
+      <c r="K225">
+        <v>0.1</v>
+      </c>
+      <c r="L225">
+        <v>0.6</v>
+      </c>
+      <c r="M225">
+        <v>0.4</v>
+      </c>
+      <c r="Q225">
+        <v>5</v>
+      </c>
+      <c r="R225">
+        <v>18</v>
+      </c>
+      <c r="S225" t="s">
+        <v>46</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>20</v>
+      </c>
+      <c r="V225">
+        <v>4</v>
+      </c>
+      <c r="W225">
+        <v>2</v>
+      </c>
+      <c r="X225">
+        <v>7</v>
+      </c>
+      <c r="Y225">
+        <v>12</v>
+      </c>
+      <c r="Z225">
+        <v>5</v>
+      </c>
+      <c r="AA225" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD225" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>7.6440000000000001</v>
+      </c>
+      <c r="B226">
+        <v>7.66</v>
+      </c>
+      <c r="C226">
+        <v>365.30399999999997</v>
+      </c>
+      <c r="D226">
+        <v>0.1</v>
+      </c>
+      <c r="E226">
+        <v>0.8</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0.1</v>
+      </c>
+      <c r="H226">
+        <v>5</v>
+      </c>
+      <c r="I226">
+        <v>0.6</v>
+      </c>
+      <c r="J226">
+        <v>0.3</v>
+      </c>
+      <c r="K226">
+        <v>0.1</v>
+      </c>
+      <c r="L226">
+        <v>0.6</v>
+      </c>
+      <c r="M226">
+        <v>0.4</v>
+      </c>
+      <c r="Q226">
+        <v>5</v>
+      </c>
+      <c r="R226">
+        <v>18</v>
+      </c>
+      <c r="S226" t="s">
+        <v>46</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>20</v>
+      </c>
+      <c r="V226">
+        <v>4</v>
+      </c>
+      <c r="W226">
+        <v>2</v>
+      </c>
+      <c r="X226">
+        <v>7</v>
+      </c>
+      <c r="Y226">
+        <v>13</v>
+      </c>
+      <c r="Z226">
+        <v>5</v>
+      </c>
+      <c r="AA226" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD226" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>6.984</v>
+      </c>
+      <c r="B227">
+        <v>7.0019999999999998</v>
+      </c>
+      <c r="C227">
+        <v>365.01400000000001</v>
+      </c>
+      <c r="D227">
+        <v>0.1</v>
+      </c>
+      <c r="E227">
+        <v>0.8</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0.1</v>
+      </c>
+      <c r="H227">
+        <v>5</v>
+      </c>
+      <c r="I227">
+        <v>0.6</v>
+      </c>
+      <c r="J227">
+        <v>0.3</v>
+      </c>
+      <c r="K227">
+        <v>0.1</v>
+      </c>
+      <c r="L227">
+        <v>0.6</v>
+      </c>
+      <c r="M227">
+        <v>0.4</v>
+      </c>
+      <c r="Q227">
+        <v>5</v>
+      </c>
+      <c r="R227">
+        <v>18</v>
+      </c>
+      <c r="S227" t="s">
+        <v>46</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>20</v>
+      </c>
+      <c r="V227">
+        <v>4</v>
+      </c>
+      <c r="W227">
+        <v>2</v>
+      </c>
+      <c r="X227">
+        <v>7</v>
+      </c>
+      <c r="Y227">
+        <v>14</v>
+      </c>
+      <c r="Z227">
+        <v>5</v>
+      </c>
+      <c r="AA227" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD227" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>6.6619999999999999</v>
+      </c>
+      <c r="B228">
+        <v>6.68</v>
+      </c>
+      <c r="C228">
+        <v>364.72800000000001</v>
+      </c>
+      <c r="D228">
+        <v>0.1</v>
+      </c>
+      <c r="E228">
+        <v>0.8</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0.1</v>
+      </c>
+      <c r="H228">
+        <v>5</v>
+      </c>
+      <c r="I228">
+        <v>0.6</v>
+      </c>
+      <c r="J228">
+        <v>0.3</v>
+      </c>
+      <c r="K228">
+        <v>0.1</v>
+      </c>
+      <c r="L228">
+        <v>0.6</v>
+      </c>
+      <c r="M228">
+        <v>0.4</v>
+      </c>
+      <c r="Q228">
+        <v>5</v>
+      </c>
+      <c r="R228">
+        <v>18</v>
+      </c>
+      <c r="S228" t="s">
+        <v>46</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>20</v>
+      </c>
+      <c r="V228">
+        <v>4</v>
+      </c>
+      <c r="W228">
+        <v>2</v>
+      </c>
+      <c r="X228">
+        <v>7</v>
+      </c>
+      <c r="Y228">
+        <v>15</v>
+      </c>
+      <c r="Z228">
+        <v>5</v>
+      </c>
+      <c r="AA228" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD228" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>8.4179999999999993</v>
+      </c>
+      <c r="B229">
+        <v>8.4339999999999993</v>
+      </c>
+      <c r="C229">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D229">
+        <v>0.1</v>
+      </c>
+      <c r="E229">
+        <v>0.8</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0.1</v>
+      </c>
+      <c r="H229">
+        <v>5</v>
+      </c>
+      <c r="I229">
+        <v>0.6</v>
+      </c>
+      <c r="J229">
+        <v>0.3</v>
+      </c>
+      <c r="K229">
+        <v>0.1</v>
+      </c>
+      <c r="L229">
+        <v>0.6</v>
+      </c>
+      <c r="M229">
+        <v>0.4</v>
+      </c>
+      <c r="Q229">
+        <v>5</v>
+      </c>
+      <c r="R229">
+        <v>18</v>
+      </c>
+      <c r="S229" t="s">
+        <v>46</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>20</v>
+      </c>
+      <c r="V229">
+        <v>4</v>
+      </c>
+      <c r="W229">
+        <v>2</v>
+      </c>
+      <c r="X229">
+        <v>7</v>
+      </c>
+      <c r="Y229">
+        <v>16</v>
+      </c>
+      <c r="Z229">
+        <v>5</v>
+      </c>
+      <c r="AA229" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD229" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>6.6319999999999997</v>
+      </c>
+      <c r="B230">
+        <v>6.6470000000000002</v>
+      </c>
+      <c r="C230">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D230">
+        <v>0.1</v>
+      </c>
+      <c r="E230">
+        <v>0.8</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0.1</v>
+      </c>
+      <c r="H230">
+        <v>5</v>
+      </c>
+      <c r="I230">
+        <v>0.6</v>
+      </c>
+      <c r="J230">
+        <v>0.3</v>
+      </c>
+      <c r="K230">
+        <v>0.1</v>
+      </c>
+      <c r="L230">
+        <v>0.6</v>
+      </c>
+      <c r="M230">
+        <v>0.4</v>
+      </c>
+      <c r="Q230">
+        <v>5</v>
+      </c>
+      <c r="R230">
+        <v>18</v>
+      </c>
+      <c r="S230" t="s">
+        <v>46</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>20</v>
+      </c>
+      <c r="V230">
+        <v>4</v>
+      </c>
+      <c r="W230">
+        <v>2</v>
+      </c>
+      <c r="X230">
+        <v>7</v>
+      </c>
+      <c r="Y230">
+        <v>17</v>
+      </c>
+      <c r="Z230">
+        <v>5</v>
+      </c>
+      <c r="AA230" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD230" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>6.4210000000000003</v>
+      </c>
+      <c r="B231">
+        <v>6.4379999999999997</v>
+      </c>
+      <c r="C231">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D231">
+        <v>0.1</v>
+      </c>
+      <c r="E231">
+        <v>0.8</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0.1</v>
+      </c>
+      <c r="H231">
+        <v>5</v>
+      </c>
+      <c r="I231">
+        <v>0.6</v>
+      </c>
+      <c r="J231">
+        <v>0.3</v>
+      </c>
+      <c r="K231">
+        <v>0.1</v>
+      </c>
+      <c r="L231">
+        <v>0.6</v>
+      </c>
+      <c r="M231">
+        <v>0.4</v>
+      </c>
+      <c r="Q231">
+        <v>5</v>
+      </c>
+      <c r="R231">
+        <v>18</v>
+      </c>
+      <c r="S231" t="s">
+        <v>46</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>20</v>
+      </c>
+      <c r="V231">
+        <v>4</v>
+      </c>
+      <c r="W231">
+        <v>2</v>
+      </c>
+      <c r="X231">
+        <v>7</v>
+      </c>
+      <c r="Y231">
+        <v>18</v>
+      </c>
+      <c r="Z231">
+        <v>5</v>
+      </c>
+      <c r="AA231" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD231" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>6.8120000000000003</v>
+      </c>
+      <c r="B232">
+        <v>6.8280000000000003</v>
+      </c>
+      <c r="C232">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D232">
+        <v>0.1</v>
+      </c>
+      <c r="E232">
+        <v>0.8</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0.1</v>
+      </c>
+      <c r="H232">
+        <v>5</v>
+      </c>
+      <c r="I232">
+        <v>0.6</v>
+      </c>
+      <c r="J232">
+        <v>0.3</v>
+      </c>
+      <c r="K232">
+        <v>0.1</v>
+      </c>
+      <c r="L232">
+        <v>0.6</v>
+      </c>
+      <c r="M232">
+        <v>0.4</v>
+      </c>
+      <c r="Q232">
+        <v>5</v>
+      </c>
+      <c r="R232">
+        <v>18</v>
+      </c>
+      <c r="S232" t="s">
+        <v>46</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>20</v>
+      </c>
+      <c r="V232">
+        <v>4</v>
+      </c>
+      <c r="W232">
+        <v>2</v>
+      </c>
+      <c r="X232">
+        <v>7</v>
+      </c>
+      <c r="Y232">
+        <v>19</v>
+      </c>
+      <c r="Z232">
+        <v>5</v>
+      </c>
+      <c r="AA232" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD232" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>6.5410000000000004</v>
+      </c>
+      <c r="B233">
+        <v>6.5579999999999998</v>
+      </c>
+      <c r="C233">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D233">
+        <v>0.1</v>
+      </c>
+      <c r="E233">
+        <v>0.8</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0.1</v>
+      </c>
+      <c r="H233">
+        <v>5</v>
+      </c>
+      <c r="I233">
+        <v>0.6</v>
+      </c>
+      <c r="J233">
+        <v>0.3</v>
+      </c>
+      <c r="K233">
+        <v>0.1</v>
+      </c>
+      <c r="L233">
+        <v>0.6</v>
+      </c>
+      <c r="M233">
+        <v>0.4</v>
+      </c>
+      <c r="Q233">
+        <v>5</v>
+      </c>
+      <c r="R233">
+        <v>18</v>
+      </c>
+      <c r="S233" t="s">
+        <v>46</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>20</v>
+      </c>
+      <c r="V233">
+        <v>4</v>
+      </c>
+      <c r="W233">
+        <v>2</v>
+      </c>
+      <c r="X233">
+        <v>7</v>
+      </c>
+      <c r="Y233">
+        <v>20</v>
+      </c>
+      <c r="Z233">
+        <v>5</v>
+      </c>
+      <c r="AA233" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD233" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>6.91</v>
+      </c>
+      <c r="B234">
+        <v>6.93</v>
+      </c>
+      <c r="C234">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D234">
+        <v>0.1</v>
+      </c>
+      <c r="E234">
+        <v>0.8</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0.1</v>
+      </c>
+      <c r="H234">
+        <v>5</v>
+      </c>
+      <c r="I234">
+        <v>0.6</v>
+      </c>
+      <c r="J234">
+        <v>0.3</v>
+      </c>
+      <c r="K234">
+        <v>0.1</v>
+      </c>
+      <c r="L234">
+        <v>0.6</v>
+      </c>
+      <c r="M234">
+        <v>0.4</v>
+      </c>
+      <c r="Q234">
+        <v>5</v>
+      </c>
+      <c r="R234">
+        <v>18</v>
+      </c>
+      <c r="S234" t="s">
+        <v>46</v>
+      </c>
+      <c r="T234">
+        <v>1</v>
+      </c>
+      <c r="U234">
+        <v>20</v>
+      </c>
+      <c r="V234">
+        <v>4</v>
+      </c>
+      <c r="W234">
+        <v>2</v>
+      </c>
+      <c r="X234">
+        <v>7</v>
+      </c>
+      <c r="Y234">
+        <v>21</v>
+      </c>
+      <c r="Z234">
+        <v>5</v>
+      </c>
+      <c r="AA234" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD234" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH234">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>7.0990000000000002</v>
+      </c>
+      <c r="B235">
+        <v>7.1150000000000002</v>
+      </c>
+      <c r="C235">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D235">
+        <v>0.1</v>
+      </c>
+      <c r="E235">
+        <v>0.8</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0.1</v>
+      </c>
+      <c r="H235">
+        <v>5</v>
+      </c>
+      <c r="I235">
+        <v>0.6</v>
+      </c>
+      <c r="J235">
+        <v>0.3</v>
+      </c>
+      <c r="K235">
+        <v>0.1</v>
+      </c>
+      <c r="L235">
+        <v>0.6</v>
+      </c>
+      <c r="M235">
+        <v>0.4</v>
+      </c>
+      <c r="Q235">
+        <v>5</v>
+      </c>
+      <c r="R235">
+        <v>18</v>
+      </c>
+      <c r="S235" t="s">
+        <v>46</v>
+      </c>
+      <c r="T235">
+        <v>1</v>
+      </c>
+      <c r="U235">
+        <v>20</v>
+      </c>
+      <c r="V235">
+        <v>4</v>
+      </c>
+      <c r="W235">
+        <v>2</v>
+      </c>
+      <c r="X235">
+        <v>7</v>
+      </c>
+      <c r="Y235">
+        <v>22</v>
+      </c>
+      <c r="Z235">
+        <v>5</v>
+      </c>
+      <c r="AA235" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD235" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH235">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>6.7320000000000002</v>
+      </c>
+      <c r="B236">
+        <v>6.7489999999999997</v>
+      </c>
+      <c r="C236">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D236">
+        <v>0.1</v>
+      </c>
+      <c r="E236">
+        <v>0.8</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0.1</v>
+      </c>
+      <c r="H236">
+        <v>5</v>
+      </c>
+      <c r="I236">
+        <v>0.6</v>
+      </c>
+      <c r="J236">
+        <v>0.3</v>
+      </c>
+      <c r="K236">
+        <v>0.1</v>
+      </c>
+      <c r="L236">
+        <v>0.6</v>
+      </c>
+      <c r="M236">
+        <v>0.4</v>
+      </c>
+      <c r="Q236">
+        <v>5</v>
+      </c>
+      <c r="R236">
+        <v>18</v>
+      </c>
+      <c r="S236" t="s">
+        <v>46</v>
+      </c>
+      <c r="T236">
+        <v>1</v>
+      </c>
+      <c r="U236">
+        <v>20</v>
+      </c>
+      <c r="V236">
+        <v>4</v>
+      </c>
+      <c r="W236">
+        <v>2</v>
+      </c>
+      <c r="X236">
+        <v>7</v>
+      </c>
+      <c r="Y236">
+        <v>23</v>
+      </c>
+      <c r="Z236">
+        <v>5</v>
+      </c>
+      <c r="AA236" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD236" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH236">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A237"/>
+      <c r="B237"/>
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
+      <c r="G237"/>
+      <c r="H237"/>
+      <c r="I237"/>
+      <c r="J237"/>
+      <c r="K237"/>
+      <c r="L237"/>
+      <c r="M237"/>
+      <c r="Q237"/>
+      <c r="R237"/>
+      <c r="S237"/>
+      <c r="T237"/>
+      <c r="U237"/>
+      <c r="V237"/>
+      <c r="W237"/>
+      <c r="X237"/>
+      <c r="Y237"/>
+      <c r="Z237"/>
+      <c r="AA237"/>
+      <c r="AD237"/>
+      <c r="AH237"/>
+    </row>
+    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="B238" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C238" s="9">
+        <v>18.004999999999999</v>
+      </c>
+      <c r="D238">
+        <v>0.1</v>
+      </c>
+      <c r="E238">
+        <v>0.8</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0.1</v>
+      </c>
+      <c r="H238">
+        <v>5</v>
+      </c>
+      <c r="I238">
+        <v>0.6</v>
+      </c>
+      <c r="J238">
+        <v>0.3</v>
+      </c>
+      <c r="K238">
+        <v>0.1</v>
+      </c>
+      <c r="L238">
+        <v>0.6</v>
+      </c>
+      <c r="M238">
+        <v>0.4</v>
+      </c>
+      <c r="Q238">
+        <v>5</v>
+      </c>
+      <c r="R238">
+        <v>18</v>
+      </c>
+      <c r="S238" t="s">
+        <v>46</v>
+      </c>
+      <c r="T238">
+        <v>1</v>
+      </c>
+      <c r="U238">
+        <v>20</v>
+      </c>
+      <c r="V238">
+        <v>1</v>
+      </c>
+      <c r="W238">
+        <v>2</v>
+      </c>
+      <c r="X238">
+        <v>7</v>
+      </c>
+      <c r="Y238">
+        <v>23</v>
+      </c>
+      <c r="Z238">
+        <v>5</v>
+      </c>
+      <c r="AA238" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD238" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH238">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>4.383</v>
+      </c>
+      <c r="B239" s="9">
+        <v>4.4080000000000004</v>
+      </c>
+      <c r="C239" s="9">
+        <v>158.80699999999999</v>
+      </c>
+      <c r="D239">
+        <v>0.1</v>
+      </c>
+      <c r="E239">
+        <v>0.8</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0.1</v>
+      </c>
+      <c r="H239">
+        <v>5</v>
+      </c>
+      <c r="I239">
+        <v>0.6</v>
+      </c>
+      <c r="J239">
+        <v>0.3</v>
+      </c>
+      <c r="K239">
+        <v>0.1</v>
+      </c>
+      <c r="L239">
+        <v>0.6</v>
+      </c>
+      <c r="M239">
+        <v>0.4</v>
+      </c>
+      <c r="Q239">
+        <v>5</v>
+      </c>
+      <c r="R239">
+        <v>18</v>
+      </c>
+      <c r="S239" t="s">
+        <v>46</v>
+      </c>
+      <c r="T239">
+        <v>1</v>
+      </c>
+      <c r="U239">
+        <v>20</v>
+      </c>
+      <c r="V239">
+        <v>2</v>
+      </c>
+      <c r="W239">
+        <v>2</v>
+      </c>
+      <c r="X239">
+        <v>7</v>
+      </c>
+      <c r="Y239">
+        <v>23</v>
+      </c>
+      <c r="Z239">
+        <v>5</v>
+      </c>
+      <c r="AA239" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD239" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH239">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>7.7409999999999997</v>
+      </c>
+      <c r="B240" s="9">
+        <v>7.7759999999999998</v>
+      </c>
+      <c r="C240" s="9">
+        <v>239.251</v>
+      </c>
+      <c r="D240">
+        <v>0.1</v>
+      </c>
+      <c r="E240">
+        <v>0.8</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0.1</v>
+      </c>
+      <c r="H240">
+        <v>5</v>
+      </c>
+      <c r="I240">
+        <v>0.6</v>
+      </c>
+      <c r="J240">
+        <v>0.3</v>
+      </c>
+      <c r="K240">
+        <v>0.1</v>
+      </c>
+      <c r="L240">
+        <v>0.6</v>
+      </c>
+      <c r="M240">
+        <v>0.4</v>
+      </c>
+      <c r="Q240">
+        <v>5</v>
+      </c>
+      <c r="R240">
+        <v>18</v>
+      </c>
+      <c r="S240" t="s">
+        <v>46</v>
+      </c>
+      <c r="T240">
+        <v>1</v>
+      </c>
+      <c r="U240">
+        <v>20</v>
+      </c>
+      <c r="V240">
+        <v>3</v>
+      </c>
+      <c r="W240">
+        <v>2</v>
+      </c>
+      <c r="X240">
+        <v>7</v>
+      </c>
+      <c r="Y240">
+        <v>23</v>
+      </c>
+      <c r="Z240">
+        <v>5</v>
+      </c>
+      <c r="AA240" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD240" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH240">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>7.3019999999999996</v>
+      </c>
+      <c r="B241" s="9">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="C241" s="9">
+        <v>364.72399999999999</v>
+      </c>
+      <c r="D241">
+        <v>0.1</v>
+      </c>
+      <c r="E241">
+        <v>0.8</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0.1</v>
+      </c>
+      <c r="H241">
+        <v>5</v>
+      </c>
+      <c r="I241">
+        <v>0.6</v>
+      </c>
+      <c r="J241">
+        <v>0.3</v>
+      </c>
+      <c r="K241">
+        <v>0.1</v>
+      </c>
+      <c r="L241">
+        <v>0.6</v>
+      </c>
+      <c r="M241">
+        <v>0.4</v>
+      </c>
+      <c r="Q241">
+        <v>5</v>
+      </c>
+      <c r="R241">
+        <v>18</v>
+      </c>
+      <c r="S241" t="s">
+        <v>46</v>
+      </c>
+      <c r="T241">
+        <v>1</v>
+      </c>
+      <c r="U241">
+        <v>20</v>
+      </c>
+      <c r="V241">
+        <v>4</v>
+      </c>
+      <c r="W241">
+        <v>2</v>
+      </c>
+      <c r="X241">
+        <v>7</v>
+      </c>
+      <c r="Y241">
+        <v>23</v>
+      </c>
+      <c r="Z241">
+        <v>5</v>
+      </c>
+      <c r="AA241" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD241" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH241">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1.022</v>
+      </c>
+      <c r="B242" s="9">
+        <v>1.091</v>
+      </c>
+      <c r="C242" s="9">
+        <v>55.668900000000001</v>
+      </c>
+      <c r="D242">
+        <v>0.1</v>
+      </c>
+      <c r="E242">
+        <v>0.8</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0.1</v>
+      </c>
+      <c r="H242">
+        <v>5</v>
+      </c>
+      <c r="I242">
+        <v>0.6</v>
+      </c>
+      <c r="J242">
+        <v>0.3</v>
+      </c>
+      <c r="K242">
+        <v>0.1</v>
+      </c>
+      <c r="L242">
+        <v>0.6</v>
+      </c>
+      <c r="M242">
+        <v>0.4</v>
+      </c>
+      <c r="Q242">
+        <v>5</v>
+      </c>
+      <c r="R242">
+        <v>18</v>
+      </c>
+      <c r="S242" t="s">
+        <v>46</v>
+      </c>
+      <c r="T242">
+        <v>1</v>
+      </c>
+      <c r="U242">
+        <v>20</v>
+      </c>
+      <c r="V242">
+        <v>1</v>
+      </c>
+      <c r="W242">
+        <v>2</v>
+      </c>
+      <c r="X242">
+        <v>7</v>
+      </c>
+      <c r="Y242">
+        <v>23</v>
+      </c>
+      <c r="Z242">
+        <v>5</v>
+      </c>
+      <c r="AA242" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD242" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>11.852</v>
+      </c>
+      <c r="B243" s="9">
+        <v>11.896000000000001</v>
+      </c>
+      <c r="C243" s="9">
+        <v>213.31</v>
+      </c>
+      <c r="D243">
+        <v>0.1</v>
+      </c>
+      <c r="E243">
+        <v>0.8</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0.1</v>
+      </c>
+      <c r="H243">
+        <v>5</v>
+      </c>
+      <c r="I243">
+        <v>0.6</v>
+      </c>
+      <c r="J243">
+        <v>0.3</v>
+      </c>
+      <c r="K243">
+        <v>0.1</v>
+      </c>
+      <c r="L243">
+        <v>0.6</v>
+      </c>
+      <c r="M243">
+        <v>0.4</v>
+      </c>
+      <c r="Q243">
+        <v>5</v>
+      </c>
+      <c r="R243">
+        <v>18</v>
+      </c>
+      <c r="S243" t="s">
+        <v>46</v>
+      </c>
+      <c r="T243">
+        <v>1</v>
+      </c>
+      <c r="U243">
+        <v>20</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243">
+        <v>2</v>
+      </c>
+      <c r="X243">
+        <v>7</v>
+      </c>
+      <c r="Y243">
+        <v>23</v>
+      </c>
+      <c r="Z243">
+        <v>5</v>
+      </c>
+      <c r="AA243" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD243" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="B244" s="9">
+        <v>4.4569999999999999</v>
+      </c>
+      <c r="C244" s="9">
+        <v>390.40100000000001</v>
+      </c>
+      <c r="D244">
+        <v>0.1</v>
+      </c>
+      <c r="E244">
+        <v>0.8</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0.1</v>
+      </c>
+      <c r="H244">
+        <v>5</v>
+      </c>
+      <c r="I244">
+        <v>0.6</v>
+      </c>
+      <c r="J244">
+        <v>0.3</v>
+      </c>
+      <c r="K244">
+        <v>0.1</v>
+      </c>
+      <c r="L244">
+        <v>0.6</v>
+      </c>
+      <c r="M244">
+        <v>0.4</v>
+      </c>
+      <c r="Q244">
+        <v>5</v>
+      </c>
+      <c r="R244">
+        <v>18</v>
+      </c>
+      <c r="S244" t="s">
+        <v>46</v>
+      </c>
+      <c r="T244">
+        <v>1</v>
+      </c>
+      <c r="U244">
+        <v>20</v>
+      </c>
+      <c r="V244">
+        <v>3</v>
+      </c>
+      <c r="W244">
+        <v>2</v>
+      </c>
+      <c r="X244">
+        <v>7</v>
+      </c>
+      <c r="Y244">
+        <v>23</v>
+      </c>
+      <c r="Z244">
+        <v>5</v>
+      </c>
+      <c r="AA244" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD244" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>7.2789999999999999</v>
+      </c>
+      <c r="B245" s="9">
+        <v>7.2939999999999996</v>
+      </c>
+      <c r="C245" s="9">
+        <v>540.68299999999999</v>
+      </c>
+      <c r="D245">
+        <v>0.1</v>
+      </c>
+      <c r="E245">
+        <v>0.8</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0.1</v>
+      </c>
+      <c r="H245">
+        <v>5</v>
+      </c>
+      <c r="I245">
+        <v>0.6</v>
+      </c>
+      <c r="J245">
+        <v>0.3</v>
+      </c>
+      <c r="K245">
+        <v>0.1</v>
+      </c>
+      <c r="L245">
+        <v>0.6</v>
+      </c>
+      <c r="M245">
+        <v>0.4</v>
+      </c>
+      <c r="Q245">
+        <v>5</v>
+      </c>
+      <c r="R245">
+        <v>18</v>
+      </c>
+      <c r="S245" t="s">
+        <v>46</v>
+      </c>
+      <c r="T245">
+        <v>1</v>
+      </c>
+      <c r="U245">
+        <v>20</v>
+      </c>
+      <c r="V245">
+        <v>4</v>
+      </c>
+      <c r="W245">
+        <v>2</v>
+      </c>
+      <c r="X245">
+        <v>7</v>
+      </c>
+      <c r="Y245">
+        <v>23</v>
+      </c>
+      <c r="Z245">
+        <v>5</v>
+      </c>
+      <c r="AA245" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD245" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH245">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A201:AH209"/>
   <mergeCells count="8">
